--- a/Docs/Product Backlog.xlsx
+++ b/Docs/Product Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Informatica 1e jaar\Project 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ialfa\Documents\Visual Studio 2015\Projects\Robotron-2048\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>Introduce full Android support for the endproduct</t>
   </si>
 </sst>
 </file>
@@ -763,22 +766,22 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="96.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="96.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="7" width="7.33203125" customWidth="1"/>
-    <col min="8" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="28" width="8.6640625" customWidth="1"/>
+    <col min="6" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="14" width="11.42578125" customWidth="1"/>
+    <col min="15" max="28" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>28</v>
       </c>
@@ -809,7 +812,7 @@
       <c r="AA1" s="12"/>
       <c r="AB1" s="12"/>
     </row>
-    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -853,7 +856,7 @@
       <c r="AA2" s="12"/>
       <c r="AB2" s="12"/>
     </row>
-    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="19">
         <v>0</v>
       </c>
@@ -891,7 +894,7 @@
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
     </row>
-    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="19">
         <v>1</v>
       </c>
@@ -929,7 +932,7 @@
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
     </row>
-    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="19">
         <v>2</v>
       </c>
@@ -967,7 +970,7 @@
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
     </row>
-    <row r="6" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19">
         <v>3</v>
       </c>
@@ -1005,7 +1008,7 @@
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
     </row>
-    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="19">
         <v>4</v>
       </c>
@@ -1043,7 +1046,7 @@
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
     </row>
-    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="19">
         <v>5</v>
       </c>
@@ -1081,7 +1084,7 @@
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
     </row>
-    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="19">
         <v>6</v>
       </c>
@@ -1118,7 +1121,7 @@
       <c r="AA9" s="12"/>
       <c r="AB9" s="12"/>
     </row>
-    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="19">
         <v>7</v>
       </c>
@@ -1156,18 +1159,18 @@
       <c r="AA10" s="12"/>
       <c r="AB10" s="12"/>
     </row>
-    <row r="11" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19">
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>47</v>
+      <c r="D11" t="s">
+        <v>8</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="12"/>
@@ -1194,17 +1197,17 @@
       <c r="AA11" s="12"/>
       <c r="AB11" s="12"/>
     </row>
-    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="9" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="8"/>
@@ -1232,17 +1235,17 @@
       <c r="AA12" s="12"/>
       <c r="AB12" s="12"/>
     </row>
-    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="19">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="C13" t="s">
-        <v>42</v>
+      <c r="C13" s="17" t="s">
+        <v>44</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="17" t="s">
         <v>47</v>
       </c>
       <c r="E13" s="8"/>
@@ -1270,12 +1273,12 @@
       <c r="AA13" s="12"/>
       <c r="AB13" s="12"/>
     </row>
-    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>42</v>
@@ -1307,18 +1310,18 @@
       <c r="AA14" s="12"/>
       <c r="AB14" s="12"/>
     </row>
-    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+    <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1342,17 +1345,17 @@
       <c r="AA15" s="12"/>
       <c r="AB15" s="12"/>
     </row>
-    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
+    <row r="16" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="20">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>40</v>
+      <c r="C16" t="s">
+        <v>42</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="8"/>
@@ -1380,9 +1383,18 @@
       <c r="AA16" s="12"/>
       <c r="AB16" s="12"/>
     </row>
-    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19">
         <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>9</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="12"/>
@@ -1409,12 +1421,10 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="19">
         <v>15</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
       <c r="E18" s="8"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -1440,7 +1450,7 @@
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
     </row>
-    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="19">
         <v>16</v>
       </c>
@@ -1471,7 +1481,7 @@
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
     </row>
-    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="19">
         <v>17</v>
       </c>
@@ -1502,7 +1512,7 @@
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
     </row>
-    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="19">
         <v>18</v>
       </c>
@@ -1531,7 +1541,7 @@
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
     </row>
-    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="19">
         <v>19</v>
       </c>
@@ -1562,7 +1572,7 @@
       <c r="AA22" s="12"/>
       <c r="AB22" s="12"/>
     </row>
-    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19">
         <v>20</v>
       </c>
@@ -1593,7 +1603,7 @@
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
     </row>
-    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19">
         <v>21</v>
       </c>
@@ -1624,7 +1634,7 @@
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
     </row>
-    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19">
         <v>22</v>
       </c>
@@ -1654,7 +1664,7 @@
       <c r="AA25" s="12"/>
       <c r="AB25" s="12"/>
     </row>
-    <row r="26" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19">
         <v>23</v>
       </c>
@@ -1683,7 +1693,7 @@
       <c r="AA26" s="12"/>
       <c r="AB26" s="12"/>
     </row>
-    <row r="27" spans="1:28" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19">
         <v>24</v>
       </c>
@@ -1712,7 +1722,7 @@
       <c r="AA27" s="12"/>
       <c r="AB27" s="12"/>
     </row>
-    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>25</v>
       </c>
@@ -1744,7 +1754,7 @@
       <c r="AA28" s="12"/>
       <c r="AB28" s="12"/>
     </row>
-    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="17" t="s">
         <v>19</v>
@@ -1776,7 +1786,7 @@
       <c r="AA29" s="12"/>
       <c r="AB29" s="12"/>
     </row>
-    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="12" t="s">
         <v>20</v>
@@ -1806,7 +1816,7 @@
       <c r="AA30" s="12"/>
       <c r="AB30" s="12"/>
     </row>
-    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="17" t="s">
         <v>21</v>
@@ -1836,7 +1846,7 @@
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
     </row>
-    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="17" t="s">
         <v>22</v>
@@ -1868,7 +1878,7 @@
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
     </row>
-    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" t="s">
         <v>18</v>
@@ -1900,7 +1910,7 @@
       <c r="AA33" s="12"/>
       <c r="AB33" s="12"/>
     </row>
-    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="13" t="s">
         <v>7</v>
@@ -1932,7 +1942,7 @@
       <c r="AA34" s="12"/>
       <c r="AB34" s="12"/>
     </row>
-    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="17" t="s">
         <v>24</v>
@@ -1964,7 +1974,7 @@
       <c r="AA35" s="12"/>
       <c r="AB35" s="12"/>
     </row>
-    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="17" t="s">
         <v>23</v>
@@ -1996,7 +2006,7 @@
       <c r="AA36" s="12"/>
       <c r="AB36" s="12"/>
     </row>
-    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="17" t="s">
         <v>26</v>
@@ -2028,7 +2038,7 @@
       <c r="AA37" s="12"/>
       <c r="AB37" s="12"/>
     </row>
-    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="9" t="s">
         <v>25</v>
@@ -2060,7 +2070,7 @@
       <c r="AA38" s="12"/>
       <c r="AB38" s="12"/>
     </row>
-    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="6" t="s">
         <v>17</v>
@@ -2092,7 +2102,7 @@
       <c r="AA39" s="12"/>
       <c r="AB39" s="12"/>
     </row>
-    <row r="40" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="17" t="s">
         <v>27</v>
@@ -2124,7 +2134,7 @@
       <c r="AA40" s="12"/>
       <c r="AB40" s="12"/>
     </row>
-    <row r="41" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:28" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2154,7 +2164,7 @@
       <c r="AA41" s="12"/>
       <c r="AB41" s="12"/>
     </row>
-    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2184,7 +2194,7 @@
       <c r="AA42" s="12"/>
       <c r="AB42" s="12"/>
     </row>
-    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2214,7 +2224,7 @@
       <c r="AA43" s="12"/>
       <c r="AB43" s="12"/>
     </row>
-    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2244,7 +2254,7 @@
       <c r="AA44" s="12"/>
       <c r="AB44" s="12"/>
     </row>
-    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2274,7 +2284,7 @@
       <c r="AA45" s="12"/>
       <c r="AB45" s="12"/>
     </row>
-    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2304,7 +2314,7 @@
       <c r="AA46" s="12"/>
       <c r="AB46" s="12"/>
     </row>
-    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2334,7 +2344,7 @@
       <c r="AA47" s="12"/>
       <c r="AB47" s="12"/>
     </row>
-    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2364,7 +2374,7 @@
       <c r="AA48" s="12"/>
       <c r="AB48" s="12"/>
     </row>
-    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2394,7 +2404,7 @@
       <c r="AA49" s="12"/>
       <c r="AB49" s="12"/>
     </row>
-    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2424,7 +2434,7 @@
       <c r="AA50" s="12"/>
       <c r="AB50" s="12"/>
     </row>
-    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2454,7 +2464,7 @@
       <c r="AA51" s="12"/>
       <c r="AB51" s="12"/>
     </row>
-    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2484,7 +2494,7 @@
       <c r="AA52" s="12"/>
       <c r="AB52" s="12"/>
     </row>
-    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2514,7 +2524,7 @@
       <c r="AA53" s="12"/>
       <c r="AB53" s="12"/>
     </row>
-    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2544,7 +2554,7 @@
       <c r="AA54" s="12"/>
       <c r="AB54" s="12"/>
     </row>
-    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -2574,7 +2584,7 @@
       <c r="AA55" s="12"/>
       <c r="AB55" s="12"/>
     </row>
-    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -2604,7 +2614,7 @@
       <c r="AA56" s="12"/>
       <c r="AB56" s="12"/>
     </row>
-    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -2634,7 +2644,7 @@
       <c r="AA57" s="12"/>
       <c r="AB57" s="12"/>
     </row>
-    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -2664,7 +2674,7 @@
       <c r="AA58" s="12"/>
       <c r="AB58" s="12"/>
     </row>
-    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -2694,7 +2704,7 @@
       <c r="AA59" s="12"/>
       <c r="AB59" s="12"/>
     </row>
-    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -2724,7 +2734,7 @@
       <c r="AA60" s="12"/>
       <c r="AB60" s="12"/>
     </row>
-    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -2754,7 +2764,7 @@
       <c r="AA61" s="12"/>
       <c r="AB61" s="12"/>
     </row>
-    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -2784,7 +2794,7 @@
       <c r="AA62" s="12"/>
       <c r="AB62" s="12"/>
     </row>
-    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -2814,7 +2824,7 @@
       <c r="AA63" s="12"/>
       <c r="AB63" s="12"/>
     </row>
-    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -2844,7 +2854,7 @@
       <c r="AA64" s="12"/>
       <c r="AB64" s="12"/>
     </row>
-    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -2874,7 +2884,7 @@
       <c r="AA65" s="12"/>
       <c r="AB65" s="12"/>
     </row>
-    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -2904,7 +2914,7 @@
       <c r="AA66" s="12"/>
       <c r="AB66" s="12"/>
     </row>
-    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -2934,7 +2944,7 @@
       <c r="AA67" s="12"/>
       <c r="AB67" s="12"/>
     </row>
-    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -2964,7 +2974,7 @@
       <c r="AA68" s="12"/>
       <c r="AB68" s="12"/>
     </row>
-    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -2994,7 +3004,7 @@
       <c r="AA69" s="12"/>
       <c r="AB69" s="12"/>
     </row>
-    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3024,7 +3034,7 @@
       <c r="AA70" s="12"/>
       <c r="AB70" s="12"/>
     </row>
-    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3054,7 +3064,7 @@
       <c r="AA71" s="12"/>
       <c r="AB71" s="12"/>
     </row>
-    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3084,7 +3094,7 @@
       <c r="AA72" s="12"/>
       <c r="AB72" s="12"/>
     </row>
-    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3114,7 +3124,7 @@
       <c r="AA73" s="12"/>
       <c r="AB73" s="12"/>
     </row>
-    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3144,7 +3154,7 @@
       <c r="AA74" s="12"/>
       <c r="AB74" s="12"/>
     </row>
-    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3174,7 +3184,7 @@
       <c r="AA75" s="12"/>
       <c r="AB75" s="12"/>
     </row>
-    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3204,7 +3214,7 @@
       <c r="AA76" s="12"/>
       <c r="AB76" s="12"/>
     </row>
-    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3234,7 +3244,7 @@
       <c r="AA77" s="12"/>
       <c r="AB77" s="12"/>
     </row>
-    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3264,7 +3274,7 @@
       <c r="AA78" s="12"/>
       <c r="AB78" s="12"/>
     </row>
-    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3294,7 +3304,7 @@
       <c r="AA79" s="12"/>
       <c r="AB79" s="12"/>
     </row>
-    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3324,7 +3334,7 @@
       <c r="AA80" s="12"/>
       <c r="AB80" s="12"/>
     </row>
-    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3354,7 +3364,7 @@
       <c r="AA81" s="12"/>
       <c r="AB81" s="12"/>
     </row>
-    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3384,7 +3394,7 @@
       <c r="AA82" s="12"/>
       <c r="AB82" s="12"/>
     </row>
-    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3414,7 +3424,7 @@
       <c r="AA83" s="12"/>
       <c r="AB83" s="12"/>
     </row>
-    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3444,7 +3454,7 @@
       <c r="AA84" s="12"/>
       <c r="AB84" s="12"/>
     </row>
-    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -3474,7 +3484,7 @@
       <c r="AA85" s="12"/>
       <c r="AB85" s="12"/>
     </row>
-    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -3504,7 +3514,7 @@
       <c r="AA86" s="12"/>
       <c r="AB86" s="12"/>
     </row>
-    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -3534,7 +3544,7 @@
       <c r="AA87" s="12"/>
       <c r="AB87" s="12"/>
     </row>
-    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -3564,7 +3574,7 @@
       <c r="AA88" s="12"/>
       <c r="AB88" s="12"/>
     </row>
-    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -3594,7 +3604,7 @@
       <c r="AA89" s="12"/>
       <c r="AB89" s="12"/>
     </row>
-    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -3624,7 +3634,7 @@
       <c r="AA90" s="12"/>
       <c r="AB90" s="12"/>
     </row>
-    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -3654,7 +3664,7 @@
       <c r="AA91" s="12"/>
       <c r="AB91" s="12"/>
     </row>
-    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -3684,7 +3694,7 @@
       <c r="AA92" s="12"/>
       <c r="AB92" s="12"/>
     </row>
-    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -3714,7 +3724,7 @@
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
     </row>
-    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -3744,7 +3754,7 @@
       <c r="AA94" s="12"/>
       <c r="AB94" s="12"/>
     </row>
-    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -3774,7 +3784,7 @@
       <c r="AA95" s="12"/>
       <c r="AB95" s="12"/>
     </row>
-    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -3804,7 +3814,7 @@
       <c r="AA96" s="12"/>
       <c r="AB96" s="12"/>
     </row>
-    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -3834,7 +3844,7 @@
       <c r="AA97" s="12"/>
       <c r="AB97" s="12"/>
     </row>
-    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -3864,7 +3874,7 @@
       <c r="AA98" s="12"/>
       <c r="AB98" s="12"/>
     </row>
-    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -3894,7 +3904,7 @@
       <c r="AA99" s="12"/>
       <c r="AB99" s="12"/>
     </row>
-    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -3924,7 +3934,7 @@
       <c r="AA100" s="12"/>
       <c r="AB100" s="12"/>
     </row>
-    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -3954,7 +3964,7 @@
       <c r="AA101" s="12"/>
       <c r="AB101" s="12"/>
     </row>
-    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -3984,7 +3994,7 @@
       <c r="AA102" s="12"/>
       <c r="AB102" s="12"/>
     </row>
-    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4014,7 +4024,7 @@
       <c r="AA103" s="12"/>
       <c r="AB103" s="12"/>
     </row>
-    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4044,7 +4054,7 @@
       <c r="AA104" s="12"/>
       <c r="AB104" s="12"/>
     </row>
-    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4074,7 +4084,7 @@
       <c r="AA105" s="12"/>
       <c r="AB105" s="12"/>
     </row>
-    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4104,7 +4114,7 @@
       <c r="AA106" s="12"/>
       <c r="AB106" s="12"/>
     </row>
-    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4134,7 +4144,7 @@
       <c r="AA107" s="12"/>
       <c r="AB107" s="12"/>
     </row>
-    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4164,7 +4174,7 @@
       <c r="AA108" s="12"/>
       <c r="AB108" s="12"/>
     </row>
-    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4194,7 +4204,7 @@
       <c r="AA109" s="12"/>
       <c r="AB109" s="12"/>
     </row>
-    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4224,7 +4234,7 @@
       <c r="AA110" s="12"/>
       <c r="AB110" s="12"/>
     </row>
-    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4254,7 +4264,7 @@
       <c r="AA111" s="12"/>
       <c r="AB111" s="12"/>
     </row>
-    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4284,7 +4294,7 @@
       <c r="AA112" s="12"/>
       <c r="AB112" s="12"/>
     </row>
-    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4314,7 +4324,7 @@
       <c r="AA113" s="12"/>
       <c r="AB113" s="12"/>
     </row>
-    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4344,7 +4354,7 @@
       <c r="AA114" s="12"/>
       <c r="AB114" s="12"/>
     </row>
-    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4374,7 +4384,7 @@
       <c r="AA115" s="12"/>
       <c r="AB115" s="12"/>
     </row>
-    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4404,7 +4414,7 @@
       <c r="AA116" s="12"/>
       <c r="AB116" s="12"/>
     </row>
-    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -4434,7 +4444,7 @@
       <c r="AA117" s="12"/>
       <c r="AB117" s="12"/>
     </row>
-    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -4464,7 +4474,7 @@
       <c r="AA118" s="12"/>
       <c r="AB118" s="12"/>
     </row>
-    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -4494,7 +4504,7 @@
       <c r="AA119" s="12"/>
       <c r="AB119" s="12"/>
     </row>
-    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -4524,7 +4534,7 @@
       <c r="AA120" s="12"/>
       <c r="AB120" s="12"/>
     </row>
-    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -4554,7 +4564,7 @@
       <c r="AA121" s="12"/>
       <c r="AB121" s="12"/>
     </row>
-    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -4584,7 +4594,7 @@
       <c r="AA122" s="12"/>
       <c r="AB122" s="12"/>
     </row>
-    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -4614,7 +4624,7 @@
       <c r="AA123" s="12"/>
       <c r="AB123" s="12"/>
     </row>
-    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -4644,7 +4654,7 @@
       <c r="AA124" s="12"/>
       <c r="AB124" s="12"/>
     </row>
-    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -4674,7 +4684,7 @@
       <c r="AA125" s="12"/>
       <c r="AB125" s="12"/>
     </row>
-    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -4704,7 +4714,7 @@
       <c r="AA126" s="12"/>
       <c r="AB126" s="12"/>
     </row>
-    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -4734,7 +4744,7 @@
       <c r="AA127" s="12"/>
       <c r="AB127" s="12"/>
     </row>
-    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -4764,7 +4774,7 @@
       <c r="AA128" s="12"/>
       <c r="AB128" s="12"/>
     </row>
-    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -4794,7 +4804,7 @@
       <c r="AA129" s="12"/>
       <c r="AB129" s="12"/>
     </row>
-    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -4824,7 +4834,7 @@
       <c r="AA130" s="12"/>
       <c r="AB130" s="12"/>
     </row>
-    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
@@ -4854,7 +4864,7 @@
       <c r="AA131" s="12"/>
       <c r="AB131" s="12"/>
     </row>
-    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -4884,7 +4894,7 @@
       <c r="AA132" s="12"/>
       <c r="AB132" s="12"/>
     </row>
-    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -4914,7 +4924,7 @@
       <c r="AA133" s="12"/>
       <c r="AB133" s="12"/>
     </row>
-    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -4944,7 +4954,7 @@
       <c r="AA134" s="12"/>
       <c r="AB134" s="12"/>
     </row>
-    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -4974,7 +4984,7 @@
       <c r="AA135" s="12"/>
       <c r="AB135" s="12"/>
     </row>
-    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5004,7 +5014,7 @@
       <c r="AA136" s="12"/>
       <c r="AB136" s="12"/>
     </row>
-    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -5034,7 +5044,7 @@
       <c r="AA137" s="12"/>
       <c r="AB137" s="12"/>
     </row>
-    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -5064,7 +5074,7 @@
       <c r="AA138" s="12"/>
       <c r="AB138" s="12"/>
     </row>
-    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -5094,7 +5104,7 @@
       <c r="AA139" s="12"/>
       <c r="AB139" s="12"/>
     </row>
-    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -5124,7 +5134,7 @@
       <c r="AA140" s="12"/>
       <c r="AB140" s="12"/>
     </row>
-    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5154,7 +5164,7 @@
       <c r="AA141" s="12"/>
       <c r="AB141" s="12"/>
     </row>
-    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5184,7 +5194,7 @@
       <c r="AA142" s="12"/>
       <c r="AB142" s="12"/>
     </row>
-    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -5214,7 +5224,7 @@
       <c r="AA143" s="12"/>
       <c r="AB143" s="12"/>
     </row>
-    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5244,7 +5254,7 @@
       <c r="AA144" s="12"/>
       <c r="AB144" s="12"/>
     </row>
-    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5274,7 +5284,7 @@
       <c r="AA145" s="12"/>
       <c r="AB145" s="12"/>
     </row>
-    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5304,7 +5314,7 @@
       <c r="AA146" s="12"/>
       <c r="AB146" s="12"/>
     </row>
-    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5334,7 +5344,7 @@
       <c r="AA147" s="12"/>
       <c r="AB147" s="12"/>
     </row>
-    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5364,7 +5374,7 @@
       <c r="AA148" s="12"/>
       <c r="AB148" s="12"/>
     </row>
-    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5394,7 +5404,7 @@
       <c r="AA149" s="12"/>
       <c r="AB149" s="12"/>
     </row>
-    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -5424,7 +5434,7 @@
       <c r="AA150" s="12"/>
       <c r="AB150" s="12"/>
     </row>
-    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5454,7 +5464,7 @@
       <c r="AA151" s="12"/>
       <c r="AB151" s="12"/>
     </row>
-    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -5484,7 +5494,7 @@
       <c r="AA152" s="12"/>
       <c r="AB152" s="12"/>
     </row>
-    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
@@ -5514,7 +5524,7 @@
       <c r="AA153" s="12"/>
       <c r="AB153" s="12"/>
     </row>
-    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
@@ -5544,7 +5554,7 @@
       <c r="AA154" s="12"/>
       <c r="AB154" s="12"/>
     </row>
-    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
@@ -5574,7 +5584,7 @@
       <c r="AA155" s="12"/>
       <c r="AB155" s="12"/>
     </row>
-    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
@@ -5604,7 +5614,7 @@
       <c r="AA156" s="12"/>
       <c r="AB156" s="12"/>
     </row>
-    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="9"/>
       <c r="C157" s="9"/>
@@ -5634,7 +5644,7 @@
       <c r="AA157" s="12"/>
       <c r="AB157" s="12"/>
     </row>
-    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
@@ -5664,7 +5674,7 @@
       <c r="AA158" s="12"/>
       <c r="AB158" s="12"/>
     </row>
-    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -5694,7 +5704,7 @@
       <c r="AA159" s="12"/>
       <c r="AB159" s="12"/>
     </row>
-    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
@@ -5724,7 +5734,7 @@
       <c r="AA160" s="12"/>
       <c r="AB160" s="12"/>
     </row>
-    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
       <c r="C161" s="9"/>
@@ -5754,7 +5764,7 @@
       <c r="AA161" s="12"/>
       <c r="AB161" s="12"/>
     </row>
-    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
@@ -5784,7 +5794,7 @@
       <c r="AA162" s="12"/>
       <c r="AB162" s="12"/>
     </row>
-    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
@@ -5814,7 +5824,7 @@
       <c r="AA163" s="12"/>
       <c r="AB163" s="12"/>
     </row>
-    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
       <c r="C164" s="9"/>
@@ -5844,7 +5854,7 @@
       <c r="AA164" s="12"/>
       <c r="AB164" s="12"/>
     </row>
-    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
       <c r="C165" s="9"/>
@@ -5874,7 +5884,7 @@
       <c r="AA165" s="12"/>
       <c r="AB165" s="12"/>
     </row>
-    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
       <c r="C166" s="9"/>
@@ -5904,7 +5914,7 @@
       <c r="AA166" s="12"/>
       <c r="AB166" s="12"/>
     </row>
-    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
@@ -5934,7 +5944,7 @@
       <c r="AA167" s="12"/>
       <c r="AB167" s="12"/>
     </row>
-    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
@@ -5964,7 +5974,7 @@
       <c r="AA168" s="12"/>
       <c r="AB168" s="12"/>
     </row>
-    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
@@ -5994,7 +6004,7 @@
       <c r="AA169" s="12"/>
       <c r="AB169" s="12"/>
     </row>
-    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
@@ -6024,7 +6034,7 @@
       <c r="AA170" s="12"/>
       <c r="AB170" s="12"/>
     </row>
-    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
@@ -6054,7 +6064,7 @@
       <c r="AA171" s="12"/>
       <c r="AB171" s="12"/>
     </row>
-    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
@@ -6084,7 +6094,7 @@
       <c r="AA172" s="12"/>
       <c r="AB172" s="12"/>
     </row>
-    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
@@ -6114,7 +6124,7 @@
       <c r="AA173" s="12"/>
       <c r="AB173" s="12"/>
     </row>
-    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
@@ -6144,7 +6154,7 @@
       <c r="AA174" s="12"/>
       <c r="AB174" s="12"/>
     </row>
-    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
@@ -6174,7 +6184,7 @@
       <c r="AA175" s="12"/>
       <c r="AB175" s="12"/>
     </row>
-    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="9"/>
       <c r="C176" s="9"/>
@@ -6204,7 +6214,7 @@
       <c r="AA176" s="12"/>
       <c r="AB176" s="12"/>
     </row>
-    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
@@ -6234,7 +6244,7 @@
       <c r="AA177" s="12"/>
       <c r="AB177" s="12"/>
     </row>
-    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="9"/>
       <c r="C178" s="9"/>
@@ -6264,7 +6274,7 @@
       <c r="AA178" s="12"/>
       <c r="AB178" s="12"/>
     </row>
-    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="9"/>
       <c r="C179" s="9"/>
@@ -6294,7 +6304,7 @@
       <c r="AA179" s="12"/>
       <c r="AB179" s="12"/>
     </row>
-    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
@@ -6324,7 +6334,7 @@
       <c r="AA180" s="12"/>
       <c r="AB180" s="12"/>
     </row>
-    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="9"/>
       <c r="C181" s="9"/>
@@ -6354,7 +6364,7 @@
       <c r="AA181" s="12"/>
       <c r="AB181" s="12"/>
     </row>
-    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="9"/>
       <c r="C182" s="9"/>
@@ -6384,7 +6394,7 @@
       <c r="AA182" s="12"/>
       <c r="AB182" s="12"/>
     </row>
-    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="9"/>
       <c r="C183" s="9"/>
@@ -6414,7 +6424,7 @@
       <c r="AA183" s="12"/>
       <c r="AB183" s="12"/>
     </row>
-    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
@@ -6444,7 +6454,7 @@
       <c r="AA184" s="12"/>
       <c r="AB184" s="12"/>
     </row>
-    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="9"/>
       <c r="C185" s="9"/>
@@ -6474,7 +6484,7 @@
       <c r="AA185" s="12"/>
       <c r="AB185" s="12"/>
     </row>
-    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
@@ -6504,7 +6514,7 @@
       <c r="AA186" s="12"/>
       <c r="AB186" s="12"/>
     </row>
-    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
@@ -6534,7 +6544,7 @@
       <c r="AA187" s="12"/>
       <c r="AB187" s="12"/>
     </row>
-    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="9"/>
       <c r="C188" s="9"/>
@@ -6564,7 +6574,7 @@
       <c r="AA188" s="12"/>
       <c r="AB188" s="12"/>
     </row>
-    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="9"/>
       <c r="C189" s="9"/>
@@ -6594,7 +6604,7 @@
       <c r="AA189" s="12"/>
       <c r="AB189" s="12"/>
     </row>
-    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
@@ -6624,7 +6634,7 @@
       <c r="AA190" s="12"/>
       <c r="AB190" s="12"/>
     </row>
-    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
@@ -6654,7 +6664,7 @@
       <c r="AA191" s="12"/>
       <c r="AB191" s="12"/>
     </row>
-    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="9"/>
       <c r="C192" s="9"/>
@@ -6684,7 +6694,7 @@
       <c r="AA192" s="12"/>
       <c r="AB192" s="12"/>
     </row>
-    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="9"/>
       <c r="C193" s="9"/>
@@ -6714,7 +6724,7 @@
       <c r="AA193" s="12"/>
       <c r="AB193" s="12"/>
     </row>
-    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
@@ -6744,7 +6754,7 @@
       <c r="AA194" s="12"/>
       <c r="AB194" s="12"/>
     </row>
-    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="9"/>
       <c r="C195" s="9"/>
@@ -6774,7 +6784,7 @@
       <c r="AA195" s="12"/>
       <c r="AB195" s="12"/>
     </row>
-    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="9"/>
       <c r="C196" s="9"/>
@@ -6804,7 +6814,7 @@
       <c r="AA196" s="12"/>
       <c r="AB196" s="12"/>
     </row>
-    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="9"/>
       <c r="C197" s="9"/>
@@ -6834,7 +6844,7 @@
       <c r="AA197" s="12"/>
       <c r="AB197" s="12"/>
     </row>
-    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
@@ -6864,7 +6874,7 @@
       <c r="AA198" s="12"/>
       <c r="AB198" s="12"/>
     </row>
-    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
       <c r="C199" s="9"/>
@@ -6894,7 +6904,7 @@
       <c r="AA199" s="12"/>
       <c r="AB199" s="12"/>
     </row>
-    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
       <c r="C200" s="9"/>
@@ -6924,7 +6934,7 @@
       <c r="AA200" s="12"/>
       <c r="AB200" s="12"/>
     </row>
-    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -6954,7 +6964,7 @@
       <c r="AA201" s="12"/>
       <c r="AB201" s="12"/>
     </row>
-    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="9"/>
       <c r="C202" s="9"/>
@@ -6984,7 +6994,7 @@
       <c r="AA202" s="12"/>
       <c r="AB202" s="12"/>
     </row>
-    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
       <c r="C203" s="9"/>
@@ -7014,7 +7024,7 @@
       <c r="AA203" s="12"/>
       <c r="AB203" s="12"/>
     </row>
-    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
@@ -7044,7 +7054,7 @@
       <c r="AA204" s="12"/>
       <c r="AB204" s="12"/>
     </row>
-    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
@@ -7074,7 +7084,7 @@
       <c r="AA205" s="12"/>
       <c r="AB205" s="12"/>
     </row>
-    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="9"/>
@@ -7104,7 +7114,7 @@
       <c r="AA206" s="12"/>
       <c r="AB206" s="12"/>
     </row>
-    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="9"/>
       <c r="B207" s="9"/>
       <c r="C207" s="9"/>
@@ -7134,7 +7144,7 @@
       <c r="AA207" s="12"/>
       <c r="AB207" s="12"/>
     </row>
-    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="9"/>
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
@@ -7164,7 +7174,7 @@
       <c r="AA208" s="12"/>
       <c r="AB208" s="12"/>
     </row>
-    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="9"/>
       <c r="B209" s="9"/>
       <c r="C209" s="9"/>
@@ -7194,7 +7204,7 @@
       <c r="AA209" s="12"/>
       <c r="AB209" s="12"/>
     </row>
-    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="9"/>
@@ -7224,7 +7234,7 @@
       <c r="AA210" s="12"/>
       <c r="AB210" s="12"/>
     </row>
-    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="9"/>
@@ -7254,7 +7264,7 @@
       <c r="AA211" s="12"/>
       <c r="AB211" s="12"/>
     </row>
-    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
       <c r="C212" s="9"/>
@@ -7284,7 +7294,7 @@
       <c r="AA212" s="12"/>
       <c r="AB212" s="12"/>
     </row>
-    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="9"/>
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
@@ -7314,7 +7324,7 @@
       <c r="AA213" s="12"/>
       <c r="AB213" s="12"/>
     </row>
-    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="9"/>
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
@@ -7344,7 +7354,7 @@
       <c r="AA214" s="12"/>
       <c r="AB214" s="12"/>
     </row>
-    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="9"/>
@@ -7374,7 +7384,7 @@
       <c r="AA215" s="12"/>
       <c r="AB215" s="12"/>
     </row>
-    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
       <c r="C216" s="9"/>
@@ -7404,7 +7414,7 @@
       <c r="AA216" s="12"/>
       <c r="AB216" s="12"/>
     </row>
-    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="9"/>
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
@@ -7434,7 +7444,7 @@
       <c r="AA217" s="12"/>
       <c r="AB217" s="12"/>
     </row>
-    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="9"/>
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
@@ -7464,7 +7474,7 @@
       <c r="AA218" s="12"/>
       <c r="AB218" s="12"/>
     </row>
-    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="9"/>
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
@@ -7494,7 +7504,7 @@
       <c r="AA219" s="12"/>
       <c r="AB219" s="12"/>
     </row>
-    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
@@ -7524,7 +7534,7 @@
       <c r="AA220" s="12"/>
       <c r="AB220" s="12"/>
     </row>
-    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="9"/>
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
@@ -7554,7 +7564,7 @@
       <c r="AA221" s="12"/>
       <c r="AB221" s="12"/>
     </row>
-    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="9"/>
       <c r="B222" s="9"/>
       <c r="C222" s="9"/>
@@ -7584,7 +7594,7 @@
       <c r="AA222" s="12"/>
       <c r="AB222" s="12"/>
     </row>
-    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="9"/>
       <c r="B223" s="9"/>
       <c r="C223" s="9"/>
@@ -7614,7 +7624,7 @@
       <c r="AA223" s="12"/>
       <c r="AB223" s="12"/>
     </row>
-    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="9"/>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -7644,7 +7654,7 @@
       <c r="AA224" s="12"/>
       <c r="AB224" s="12"/>
     </row>
-    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="9"/>
       <c r="B225" s="9"/>
       <c r="C225" s="9"/>
@@ -7674,7 +7684,7 @@
       <c r="AA225" s="12"/>
       <c r="AB225" s="12"/>
     </row>
-    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="9"/>
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
@@ -7704,7 +7714,7 @@
       <c r="AA226" s="12"/>
       <c r="AB226" s="12"/>
     </row>
-    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
@@ -7734,7 +7744,7 @@
       <c r="AA227" s="12"/>
       <c r="AB227" s="12"/>
     </row>
-    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="9"/>
       <c r="B228" s="9"/>
       <c r="C228" s="9"/>
@@ -7764,7 +7774,7 @@
       <c r="AA228" s="12"/>
       <c r="AB228" s="12"/>
     </row>
-    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="9"/>
       <c r="B229" s="9"/>
       <c r="C229" s="9"/>
@@ -7794,7 +7804,7 @@
       <c r="AA229" s="12"/>
       <c r="AB229" s="12"/>
     </row>
-    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="9"/>
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
@@ -7824,7 +7834,7 @@
       <c r="AA230" s="12"/>
       <c r="AB230" s="12"/>
     </row>
-    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
@@ -7854,7 +7864,7 @@
       <c r="AA231" s="12"/>
       <c r="AB231" s="12"/>
     </row>
-    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
       <c r="C232" s="9"/>
@@ -7884,7 +7894,7 @@
       <c r="AA232" s="12"/>
       <c r="AB232" s="12"/>
     </row>
-    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="9"/>
       <c r="B233" s="9"/>
       <c r="C233" s="9"/>
@@ -7914,7 +7924,7 @@
       <c r="AA233" s="12"/>
       <c r="AB233" s="12"/>
     </row>
-    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="9"/>
       <c r="B234" s="9"/>
       <c r="C234" s="9"/>
@@ -7944,7 +7954,7 @@
       <c r="AA234" s="12"/>
       <c r="AB234" s="12"/>
     </row>
-    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="9"/>
       <c r="B235" s="9"/>
       <c r="C235" s="9"/>
@@ -7974,7 +7984,7 @@
       <c r="AA235" s="12"/>
       <c r="AB235" s="12"/>
     </row>
-    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
       <c r="C236" s="9"/>
@@ -8004,7 +8014,7 @@
       <c r="AA236" s="12"/>
       <c r="AB236" s="12"/>
     </row>
-    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
       <c r="C237" s="9"/>
@@ -8034,7 +8044,7 @@
       <c r="AA237" s="12"/>
       <c r="AB237" s="12"/>
     </row>
-    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="9"/>
       <c r="B238" s="9"/>
       <c r="C238" s="9"/>
@@ -8064,7 +8074,7 @@
       <c r="AA238" s="12"/>
       <c r="AB238" s="12"/>
     </row>
-    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="9"/>
       <c r="B239" s="9"/>
       <c r="C239" s="9"/>
@@ -8094,7 +8104,7 @@
       <c r="AA239" s="12"/>
       <c r="AB239" s="12"/>
     </row>
-    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
@@ -8124,7 +8134,7 @@
       <c r="AA240" s="12"/>
       <c r="AB240" s="12"/>
     </row>
-    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
       <c r="C241" s="9"/>
@@ -8154,7 +8164,7 @@
       <c r="AA241" s="12"/>
       <c r="AB241" s="12"/>
     </row>
-    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
@@ -8184,7 +8194,7 @@
       <c r="AA242" s="12"/>
       <c r="AB242" s="12"/>
     </row>
-    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="9"/>
       <c r="B243" s="9"/>
       <c r="C243" s="9"/>
@@ -8214,7 +8224,7 @@
       <c r="AA243" s="12"/>
       <c r="AB243" s="12"/>
     </row>
-    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="9"/>
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
@@ -8244,7 +8254,7 @@
       <c r="AA244" s="12"/>
       <c r="AB244" s="12"/>
     </row>
-    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
@@ -8274,7 +8284,7 @@
       <c r="AA245" s="12"/>
       <c r="AB245" s="12"/>
     </row>
-    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
       <c r="C246" s="9"/>
@@ -8304,7 +8314,7 @@
       <c r="AA246" s="12"/>
       <c r="AB246" s="12"/>
     </row>
-    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
@@ -8334,7 +8344,7 @@
       <c r="AA247" s="12"/>
       <c r="AB247" s="12"/>
     </row>
-    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="9"/>
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
@@ -8364,7 +8374,7 @@
       <c r="AA248" s="12"/>
       <c r="AB248" s="12"/>
     </row>
-    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="9"/>
       <c r="B249" s="9"/>
       <c r="C249" s="9"/>
@@ -8394,7 +8404,7 @@
       <c r="AA249" s="12"/>
       <c r="AB249" s="12"/>
     </row>
-    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="9"/>
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
@@ -8424,7 +8434,7 @@
       <c r="AA250" s="12"/>
       <c r="AB250" s="12"/>
     </row>
-    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="9"/>
       <c r="B251" s="9"/>
       <c r="C251" s="9"/>
@@ -8454,7 +8464,7 @@
       <c r="AA251" s="12"/>
       <c r="AB251" s="12"/>
     </row>
-    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="9"/>
       <c r="B252" s="9"/>
       <c r="C252" s="9"/>
@@ -8484,7 +8494,7 @@
       <c r="AA252" s="12"/>
       <c r="AB252" s="12"/>
     </row>
-    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="9"/>
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
@@ -8514,7 +8524,7 @@
       <c r="AA253" s="12"/>
       <c r="AB253" s="12"/>
     </row>
-    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="9"/>
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
@@ -8544,7 +8554,7 @@
       <c r="AA254" s="12"/>
       <c r="AB254" s="12"/>
     </row>
-    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="9"/>
       <c r="B255" s="9"/>
       <c r="C255" s="9"/>
@@ -8574,7 +8584,7 @@
       <c r="AA255" s="12"/>
       <c r="AB255" s="12"/>
     </row>
-    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="9"/>
       <c r="B256" s="9"/>
       <c r="C256" s="9"/>
@@ -8604,7 +8614,7 @@
       <c r="AA256" s="12"/>
       <c r="AB256" s="12"/>
     </row>
-    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="9"/>
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
@@ -8634,7 +8644,7 @@
       <c r="AA257" s="12"/>
       <c r="AB257" s="12"/>
     </row>
-    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="9"/>
       <c r="B258" s="9"/>
       <c r="C258" s="9"/>
@@ -8664,7 +8674,7 @@
       <c r="AA258" s="12"/>
       <c r="AB258" s="12"/>
     </row>
-    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="9"/>
       <c r="B259" s="9"/>
       <c r="C259" s="9"/>
@@ -8694,7 +8704,7 @@
       <c r="AA259" s="12"/>
       <c r="AB259" s="12"/>
     </row>
-    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="9"/>
       <c r="B260" s="9"/>
       <c r="C260" s="9"/>
@@ -8724,7 +8734,7 @@
       <c r="AA260" s="12"/>
       <c r="AB260" s="12"/>
     </row>
-    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="9"/>
       <c r="B261" s="9"/>
       <c r="C261" s="9"/>
@@ -8754,7 +8764,7 @@
       <c r="AA261" s="12"/>
       <c r="AB261" s="12"/>
     </row>
-    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="9"/>
       <c r="B262" s="9"/>
       <c r="C262" s="9"/>
@@ -8784,7 +8794,7 @@
       <c r="AA262" s="12"/>
       <c r="AB262" s="12"/>
     </row>
-    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="9"/>
       <c r="B263" s="9"/>
       <c r="C263" s="9"/>
@@ -8814,7 +8824,7 @@
       <c r="AA263" s="12"/>
       <c r="AB263" s="12"/>
     </row>
-    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="9"/>
       <c r="B264" s="9"/>
       <c r="C264" s="9"/>
@@ -8844,7 +8854,7 @@
       <c r="AA264" s="12"/>
       <c r="AB264" s="12"/>
     </row>
-    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="9"/>
       <c r="B265" s="9"/>
       <c r="C265" s="9"/>
@@ -8874,7 +8884,7 @@
       <c r="AA265" s="12"/>
       <c r="AB265" s="12"/>
     </row>
-    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="9"/>
       <c r="B266" s="9"/>
       <c r="C266" s="9"/>
@@ -8904,7 +8914,7 @@
       <c r="AA266" s="12"/>
       <c r="AB266" s="12"/>
     </row>
-    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="9"/>
       <c r="B267" s="9"/>
       <c r="C267" s="9"/>
@@ -8934,7 +8944,7 @@
       <c r="AA267" s="12"/>
       <c r="AB267" s="12"/>
     </row>
-    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="9"/>
       <c r="B268" s="9"/>
       <c r="C268" s="9"/>
@@ -8964,7 +8974,7 @@
       <c r="AA268" s="12"/>
       <c r="AB268" s="12"/>
     </row>
-    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="9"/>
       <c r="B269" s="9"/>
       <c r="C269" s="9"/>
@@ -8994,7 +9004,7 @@
       <c r="AA269" s="12"/>
       <c r="AB269" s="12"/>
     </row>
-    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="9"/>
       <c r="B270" s="9"/>
       <c r="C270" s="9"/>
@@ -9024,7 +9034,7 @@
       <c r="AA270" s="12"/>
       <c r="AB270" s="12"/>
     </row>
-    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="9"/>
       <c r="B271" s="9"/>
       <c r="C271" s="9"/>
@@ -9054,7 +9064,7 @@
       <c r="AA271" s="12"/>
       <c r="AB271" s="12"/>
     </row>
-    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="9"/>
       <c r="B272" s="9"/>
       <c r="C272" s="9"/>
@@ -9084,7 +9094,7 @@
       <c r="AA272" s="12"/>
       <c r="AB272" s="12"/>
     </row>
-    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="9"/>
@@ -9114,7 +9124,7 @@
       <c r="AA273" s="12"/>
       <c r="AB273" s="12"/>
     </row>
-    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="9"/>
       <c r="B274" s="9"/>
       <c r="C274" s="9"/>
@@ -9144,7 +9154,7 @@
       <c r="AA274" s="12"/>
       <c r="AB274" s="12"/>
     </row>
-    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="9"/>
       <c r="B275" s="9"/>
       <c r="C275" s="9"/>
@@ -9174,7 +9184,7 @@
       <c r="AA275" s="12"/>
       <c r="AB275" s="12"/>
     </row>
-    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="9"/>
       <c r="B276" s="9"/>
       <c r="C276" s="9"/>
@@ -9204,7 +9214,7 @@
       <c r="AA276" s="12"/>
       <c r="AB276" s="12"/>
     </row>
-    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="9"/>
       <c r="B277" s="9"/>
       <c r="C277" s="9"/>
@@ -9234,7 +9244,7 @@
       <c r="AA277" s="12"/>
       <c r="AB277" s="12"/>
     </row>
-    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="9"/>
       <c r="B278" s="9"/>
       <c r="C278" s="9"/>
@@ -9264,7 +9274,7 @@
       <c r="AA278" s="12"/>
       <c r="AB278" s="12"/>
     </row>
-    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="9"/>
       <c r="B279" s="9"/>
       <c r="C279" s="9"/>
@@ -9294,7 +9304,7 @@
       <c r="AA279" s="12"/>
       <c r="AB279" s="12"/>
     </row>
-    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="9"/>
       <c r="B280" s="9"/>
       <c r="C280" s="9"/>
@@ -9324,7 +9334,7 @@
       <c r="AA280" s="12"/>
       <c r="AB280" s="12"/>
     </row>
-    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="9"/>
       <c r="B281" s="9"/>
       <c r="C281" s="9"/>
@@ -9354,7 +9364,7 @@
       <c r="AA281" s="12"/>
       <c r="AB281" s="12"/>
     </row>
-    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="9"/>
       <c r="B282" s="9"/>
       <c r="C282" s="9"/>
@@ -9384,7 +9394,7 @@
       <c r="AA282" s="12"/>
       <c r="AB282" s="12"/>
     </row>
-    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="9"/>
       <c r="B283" s="9"/>
       <c r="C283" s="9"/>
@@ -9414,7 +9424,7 @@
       <c r="AA283" s="12"/>
       <c r="AB283" s="12"/>
     </row>
-    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="9"/>
       <c r="B284" s="9"/>
       <c r="C284" s="9"/>
@@ -9444,7 +9454,7 @@
       <c r="AA284" s="12"/>
       <c r="AB284" s="12"/>
     </row>
-    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="9"/>
       <c r="B285" s="9"/>
       <c r="C285" s="9"/>
@@ -9474,7 +9484,7 @@
       <c r="AA285" s="12"/>
       <c r="AB285" s="12"/>
     </row>
-    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="9"/>
       <c r="B286" s="9"/>
       <c r="C286" s="9"/>
@@ -9504,7 +9514,7 @@
       <c r="AA286" s="12"/>
       <c r="AB286" s="12"/>
     </row>
-    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="9"/>
       <c r="B287" s="9"/>
       <c r="C287" s="9"/>
@@ -9534,7 +9544,7 @@
       <c r="AA287" s="12"/>
       <c r="AB287" s="12"/>
     </row>
-    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="9"/>
       <c r="B288" s="9"/>
       <c r="C288" s="9"/>
@@ -9564,7 +9574,7 @@
       <c r="AA288" s="12"/>
       <c r="AB288" s="12"/>
     </row>
-    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="9"/>
       <c r="B289" s="9"/>
       <c r="C289" s="9"/>
@@ -9594,7 +9604,7 @@
       <c r="AA289" s="12"/>
       <c r="AB289" s="12"/>
     </row>
-    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="9"/>
@@ -9624,7 +9634,7 @@
       <c r="AA290" s="12"/>
       <c r="AB290" s="12"/>
     </row>
-    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="9"/>
       <c r="B291" s="9"/>
       <c r="C291" s="9"/>
@@ -9654,7 +9664,7 @@
       <c r="AA291" s="12"/>
       <c r="AB291" s="12"/>
     </row>
-    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="9"/>
       <c r="B292" s="9"/>
       <c r="C292" s="9"/>
@@ -9684,7 +9694,7 @@
       <c r="AA292" s="12"/>
       <c r="AB292" s="12"/>
     </row>
-    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="9"/>
       <c r="B293" s="9"/>
       <c r="C293" s="9"/>
@@ -9714,7 +9724,7 @@
       <c r="AA293" s="12"/>
       <c r="AB293" s="12"/>
     </row>
-    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="9"/>
       <c r="B294" s="9"/>
       <c r="C294" s="9"/>
@@ -9744,7 +9754,7 @@
       <c r="AA294" s="12"/>
       <c r="AB294" s="12"/>
     </row>
-    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="9"/>
       <c r="B295" s="9"/>
       <c r="C295" s="9"/>
@@ -9774,7 +9784,7 @@
       <c r="AA295" s="12"/>
       <c r="AB295" s="12"/>
     </row>
-    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="9"/>
       <c r="B296" s="9"/>
       <c r="C296" s="9"/>
@@ -9804,7 +9814,7 @@
       <c r="AA296" s="12"/>
       <c r="AB296" s="12"/>
     </row>
-    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="9"/>
       <c r="B297" s="9"/>
       <c r="C297" s="9"/>
@@ -9834,7 +9844,7 @@
       <c r="AA297" s="12"/>
       <c r="AB297" s="12"/>
     </row>
-    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="9"/>
       <c r="B298" s="9"/>
       <c r="C298" s="9"/>
@@ -9864,7 +9874,7 @@
       <c r="AA298" s="12"/>
       <c r="AB298" s="12"/>
     </row>
-    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="9"/>
       <c r="B299" s="9"/>
       <c r="C299" s="9"/>
@@ -9894,7 +9904,7 @@
       <c r="AA299" s="12"/>
       <c r="AB299" s="12"/>
     </row>
-    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="9"/>
       <c r="B300" s="9"/>
       <c r="C300" s="9"/>
@@ -9924,7 +9934,7 @@
       <c r="AA300" s="12"/>
       <c r="AB300" s="12"/>
     </row>
-    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="9"/>
       <c r="B301" s="9"/>
       <c r="C301" s="9"/>
@@ -9954,7 +9964,7 @@
       <c r="AA301" s="12"/>
       <c r="AB301" s="12"/>
     </row>
-    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="9"/>
       <c r="B302" s="9"/>
       <c r="C302" s="9"/>
@@ -9984,7 +9994,7 @@
       <c r="AA302" s="12"/>
       <c r="AB302" s="12"/>
     </row>
-    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="9"/>
       <c r="B303" s="9"/>
       <c r="C303" s="9"/>
@@ -10014,7 +10024,7 @@
       <c r="AA303" s="12"/>
       <c r="AB303" s="12"/>
     </row>
-    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="9"/>
       <c r="B304" s="9"/>
       <c r="C304" s="9"/>
@@ -10044,7 +10054,7 @@
       <c r="AA304" s="12"/>
       <c r="AB304" s="12"/>
     </row>
-    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="9"/>
       <c r="B305" s="9"/>
       <c r="C305" s="9"/>
@@ -10074,7 +10084,7 @@
       <c r="AA305" s="12"/>
       <c r="AB305" s="12"/>
     </row>
-    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="9"/>
       <c r="B306" s="9"/>
       <c r="C306" s="9"/>
@@ -10104,7 +10114,7 @@
       <c r="AA306" s="12"/>
       <c r="AB306" s="12"/>
     </row>
-    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="9"/>
@@ -10134,7 +10144,7 @@
       <c r="AA307" s="12"/>
       <c r="AB307" s="12"/>
     </row>
-    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="9"/>
       <c r="B308" s="9"/>
       <c r="C308" s="9"/>
@@ -10164,7 +10174,7 @@
       <c r="AA308" s="12"/>
       <c r="AB308" s="12"/>
     </row>
-    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="9"/>
       <c r="B309" s="9"/>
       <c r="C309" s="9"/>
@@ -10194,7 +10204,7 @@
       <c r="AA309" s="12"/>
       <c r="AB309" s="12"/>
     </row>
-    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="9"/>
       <c r="B310" s="9"/>
       <c r="C310" s="9"/>
@@ -10224,7 +10234,7 @@
       <c r="AA310" s="12"/>
       <c r="AB310" s="12"/>
     </row>
-    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="9"/>
       <c r="B311" s="9"/>
       <c r="C311" s="9"/>
@@ -10254,7 +10264,7 @@
       <c r="AA311" s="12"/>
       <c r="AB311" s="12"/>
     </row>
-    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="9"/>
       <c r="B312" s="9"/>
       <c r="C312" s="9"/>
@@ -10284,7 +10294,7 @@
       <c r="AA312" s="12"/>
       <c r="AB312" s="12"/>
     </row>
-    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="9"/>
       <c r="B313" s="9"/>
       <c r="C313" s="9"/>
@@ -10314,7 +10324,7 @@
       <c r="AA313" s="12"/>
       <c r="AB313" s="12"/>
     </row>
-    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="9"/>
       <c r="B314" s="9"/>
       <c r="C314" s="9"/>
@@ -10344,7 +10354,7 @@
       <c r="AA314" s="12"/>
       <c r="AB314" s="12"/>
     </row>
-    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="9"/>
       <c r="B315" s="9"/>
       <c r="C315" s="9"/>
@@ -10374,7 +10384,7 @@
       <c r="AA315" s="12"/>
       <c r="AB315" s="12"/>
     </row>
-    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="9"/>
       <c r="B316" s="9"/>
       <c r="C316" s="9"/>
@@ -10404,7 +10414,7 @@
       <c r="AA316" s="12"/>
       <c r="AB316" s="12"/>
     </row>
-    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="9"/>
       <c r="B317" s="9"/>
       <c r="C317" s="9"/>
@@ -10434,7 +10444,7 @@
       <c r="AA317" s="12"/>
       <c r="AB317" s="12"/>
     </row>
-    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="9"/>
       <c r="B318" s="9"/>
       <c r="C318" s="9"/>
@@ -10464,7 +10474,7 @@
       <c r="AA318" s="12"/>
       <c r="AB318" s="12"/>
     </row>
-    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="9"/>
       <c r="B319" s="9"/>
       <c r="C319" s="9"/>
@@ -10494,7 +10504,7 @@
       <c r="AA319" s="12"/>
       <c r="AB319" s="12"/>
     </row>
-    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="9"/>
       <c r="B320" s="9"/>
       <c r="C320" s="9"/>
@@ -10524,7 +10534,7 @@
       <c r="AA320" s="12"/>
       <c r="AB320" s="12"/>
     </row>
-    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="9"/>
       <c r="B321" s="9"/>
       <c r="C321" s="9"/>
@@ -10554,7 +10564,7 @@
       <c r="AA321" s="12"/>
       <c r="AB321" s="12"/>
     </row>
-    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="9"/>
@@ -10584,7 +10594,7 @@
       <c r="AA322" s="12"/>
       <c r="AB322" s="12"/>
     </row>
-    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="9"/>
       <c r="B323" s="9"/>
       <c r="C323" s="9"/>
@@ -10614,7 +10624,7 @@
       <c r="AA323" s="12"/>
       <c r="AB323" s="12"/>
     </row>
-    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="9"/>
       <c r="B324" s="9"/>
       <c r="C324" s="9"/>
@@ -10644,7 +10654,7 @@
       <c r="AA324" s="12"/>
       <c r="AB324" s="12"/>
     </row>
-    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="9"/>
       <c r="B325" s="9"/>
       <c r="C325" s="9"/>
@@ -10674,7 +10684,7 @@
       <c r="AA325" s="12"/>
       <c r="AB325" s="12"/>
     </row>
-    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="9"/>
       <c r="B326" s="9"/>
       <c r="C326" s="9"/>
@@ -10704,7 +10714,7 @@
       <c r="AA326" s="12"/>
       <c r="AB326" s="12"/>
     </row>
-    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="9"/>
       <c r="B327" s="9"/>
       <c r="C327" s="9"/>
@@ -10734,7 +10744,7 @@
       <c r="AA327" s="12"/>
       <c r="AB327" s="12"/>
     </row>
-    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="9"/>
       <c r="B328" s="9"/>
       <c r="C328" s="9"/>
@@ -10764,7 +10774,7 @@
       <c r="AA328" s="12"/>
       <c r="AB328" s="12"/>
     </row>
-    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="9"/>
       <c r="B329" s="9"/>
       <c r="C329" s="9"/>
@@ -10794,7 +10804,7 @@
       <c r="AA329" s="12"/>
       <c r="AB329" s="12"/>
     </row>
-    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="9"/>
       <c r="B330" s="9"/>
       <c r="C330" s="9"/>
@@ -10824,7 +10834,7 @@
       <c r="AA330" s="12"/>
       <c r="AB330" s="12"/>
     </row>
-    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="9"/>
       <c r="B331" s="9"/>
       <c r="C331" s="9"/>
@@ -10854,7 +10864,7 @@
       <c r="AA331" s="12"/>
       <c r="AB331" s="12"/>
     </row>
-    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="9"/>
       <c r="B332" s="9"/>
       <c r="C332" s="9"/>
@@ -10884,7 +10894,7 @@
       <c r="AA332" s="12"/>
       <c r="AB332" s="12"/>
     </row>
-    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="9"/>
       <c r="B333" s="9"/>
       <c r="C333" s="9"/>
@@ -10914,7 +10924,7 @@
       <c r="AA333" s="12"/>
       <c r="AB333" s="12"/>
     </row>
-    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="9"/>
       <c r="B334" s="9"/>
       <c r="C334" s="9"/>
@@ -10944,7 +10954,7 @@
       <c r="AA334" s="12"/>
       <c r="AB334" s="12"/>
     </row>
-    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="9"/>
       <c r="B335" s="9"/>
       <c r="C335" s="9"/>
@@ -10974,7 +10984,7 @@
       <c r="AA335" s="12"/>
       <c r="AB335" s="12"/>
     </row>
-    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="9"/>
       <c r="B336" s="9"/>
       <c r="C336" s="9"/>
@@ -11004,7 +11014,7 @@
       <c r="AA336" s="12"/>
       <c r="AB336" s="12"/>
     </row>
-    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="9"/>
       <c r="B337" s="9"/>
       <c r="C337" s="9"/>
@@ -11034,7 +11044,7 @@
       <c r="AA337" s="12"/>
       <c r="AB337" s="12"/>
     </row>
-    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="9"/>
       <c r="B338" s="9"/>
       <c r="C338" s="9"/>
@@ -11064,7 +11074,7 @@
       <c r="AA338" s="12"/>
       <c r="AB338" s="12"/>
     </row>
-    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="9"/>
       <c r="B339" s="9"/>
       <c r="C339" s="9"/>
@@ -11094,7 +11104,7 @@
       <c r="AA339" s="12"/>
       <c r="AB339" s="12"/>
     </row>
-    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="9"/>
       <c r="B340" s="9"/>
       <c r="C340" s="9"/>
@@ -11124,7 +11134,7 @@
       <c r="AA340" s="12"/>
       <c r="AB340" s="12"/>
     </row>
-    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="9"/>
       <c r="B341" s="9"/>
       <c r="C341" s="9"/>
@@ -11154,7 +11164,7 @@
       <c r="AA341" s="12"/>
       <c r="AB341" s="12"/>
     </row>
-    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="9"/>
       <c r="B342" s="9"/>
       <c r="C342" s="9"/>
@@ -11184,7 +11194,7 @@
       <c r="AA342" s="12"/>
       <c r="AB342" s="12"/>
     </row>
-    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="9"/>
       <c r="B343" s="9"/>
       <c r="C343" s="9"/>
@@ -11214,7 +11224,7 @@
       <c r="AA343" s="12"/>
       <c r="AB343" s="12"/>
     </row>
-    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="9"/>
       <c r="B344" s="9"/>
       <c r="C344" s="9"/>
@@ -11244,7 +11254,7 @@
       <c r="AA344" s="12"/>
       <c r="AB344" s="12"/>
     </row>
-    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="9"/>
       <c r="B345" s="9"/>
       <c r="C345" s="9"/>
@@ -11274,7 +11284,7 @@
       <c r="AA345" s="12"/>
       <c r="AB345" s="12"/>
     </row>
-    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="9"/>
       <c r="B346" s="9"/>
       <c r="C346" s="9"/>
@@ -11304,7 +11314,7 @@
       <c r="AA346" s="12"/>
       <c r="AB346" s="12"/>
     </row>
-    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="9"/>
       <c r="B347" s="9"/>
       <c r="C347" s="9"/>
@@ -11334,7 +11344,7 @@
       <c r="AA347" s="12"/>
       <c r="AB347" s="12"/>
     </row>
-    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="9"/>
       <c r="B348" s="9"/>
       <c r="C348" s="9"/>
@@ -11364,7 +11374,7 @@
       <c r="AA348" s="12"/>
       <c r="AB348" s="12"/>
     </row>
-    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="9"/>
       <c r="B349" s="9"/>
       <c r="C349" s="9"/>
@@ -11394,7 +11404,7 @@
       <c r="AA349" s="12"/>
       <c r="AB349" s="12"/>
     </row>
-    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="9"/>
       <c r="B350" s="9"/>
       <c r="C350" s="9"/>
@@ -11424,7 +11434,7 @@
       <c r="AA350" s="12"/>
       <c r="AB350" s="12"/>
     </row>
-    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="9"/>
       <c r="B351" s="9"/>
       <c r="C351" s="9"/>
@@ -11454,7 +11464,7 @@
       <c r="AA351" s="12"/>
       <c r="AB351" s="12"/>
     </row>
-    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="9"/>
       <c r="B352" s="9"/>
       <c r="C352" s="9"/>
@@ -11484,7 +11494,7 @@
       <c r="AA352" s="12"/>
       <c r="AB352" s="12"/>
     </row>
-    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="9"/>
       <c r="B353" s="9"/>
       <c r="C353" s="9"/>
@@ -11514,7 +11524,7 @@
       <c r="AA353" s="12"/>
       <c r="AB353" s="12"/>
     </row>
-    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="9"/>
       <c r="B354" s="9"/>
       <c r="C354" s="9"/>
@@ -11544,7 +11554,7 @@
       <c r="AA354" s="12"/>
       <c r="AB354" s="12"/>
     </row>
-    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="9"/>
       <c r="B355" s="9"/>
       <c r="C355" s="9"/>
@@ -11574,7 +11584,7 @@
       <c r="AA355" s="12"/>
       <c r="AB355" s="12"/>
     </row>
-    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="9"/>
       <c r="B356" s="9"/>
       <c r="C356" s="9"/>
@@ -11604,7 +11614,7 @@
       <c r="AA356" s="12"/>
       <c r="AB356" s="12"/>
     </row>
-    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="9"/>
       <c r="B357" s="9"/>
       <c r="C357" s="9"/>
@@ -11634,7 +11644,7 @@
       <c r="AA357" s="12"/>
       <c r="AB357" s="12"/>
     </row>
-    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="9"/>
       <c r="B358" s="9"/>
       <c r="C358" s="9"/>
@@ -11664,7 +11674,7 @@
       <c r="AA358" s="12"/>
       <c r="AB358" s="12"/>
     </row>
-    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="9"/>
       <c r="B359" s="9"/>
       <c r="C359" s="9"/>
@@ -11694,7 +11704,7 @@
       <c r="AA359" s="12"/>
       <c r="AB359" s="12"/>
     </row>
-    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="9"/>
       <c r="B360" s="9"/>
       <c r="C360" s="9"/>
@@ -11724,7 +11734,7 @@
       <c r="AA360" s="12"/>
       <c r="AB360" s="12"/>
     </row>
-    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="9"/>
       <c r="B361" s="9"/>
       <c r="C361" s="9"/>
@@ -11754,7 +11764,7 @@
       <c r="AA361" s="12"/>
       <c r="AB361" s="12"/>
     </row>
-    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="9"/>
       <c r="B362" s="9"/>
       <c r="C362" s="9"/>
@@ -11784,7 +11794,7 @@
       <c r="AA362" s="12"/>
       <c r="AB362" s="12"/>
     </row>
-    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="9"/>
       <c r="B363" s="9"/>
       <c r="C363" s="9"/>
@@ -11814,7 +11824,7 @@
       <c r="AA363" s="12"/>
       <c r="AB363" s="12"/>
     </row>
-    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="9"/>
       <c r="B364" s="9"/>
       <c r="C364" s="9"/>
@@ -11844,7 +11854,7 @@
       <c r="AA364" s="12"/>
       <c r="AB364" s="12"/>
     </row>
-    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="9"/>
       <c r="B365" s="9"/>
       <c r="C365" s="9"/>
@@ -11874,7 +11884,7 @@
       <c r="AA365" s="12"/>
       <c r="AB365" s="12"/>
     </row>
-    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="9"/>
       <c r="B366" s="9"/>
       <c r="C366" s="9"/>
@@ -11904,7 +11914,7 @@
       <c r="AA366" s="12"/>
       <c r="AB366" s="12"/>
     </row>
-    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="9"/>
       <c r="B367" s="9"/>
       <c r="C367" s="9"/>
@@ -11934,7 +11944,7 @@
       <c r="AA367" s="12"/>
       <c r="AB367" s="12"/>
     </row>
-    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="9"/>
       <c r="B368" s="9"/>
       <c r="C368" s="9"/>
@@ -11964,7 +11974,7 @@
       <c r="AA368" s="12"/>
       <c r="AB368" s="12"/>
     </row>
-    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="9"/>
       <c r="B369" s="9"/>
       <c r="C369" s="9"/>
@@ -11994,7 +12004,7 @@
       <c r="AA369" s="12"/>
       <c r="AB369" s="12"/>
     </row>
-    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="9"/>
       <c r="B370" s="9"/>
       <c r="C370" s="9"/>
@@ -12024,7 +12034,7 @@
       <c r="AA370" s="12"/>
       <c r="AB370" s="12"/>
     </row>
-    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="9"/>
       <c r="B371" s="9"/>
       <c r="C371" s="9"/>
@@ -12054,7 +12064,7 @@
       <c r="AA371" s="12"/>
       <c r="AB371" s="12"/>
     </row>
-    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="9"/>
       <c r="B372" s="9"/>
       <c r="C372" s="9"/>
@@ -12084,7 +12094,7 @@
       <c r="AA372" s="12"/>
       <c r="AB372" s="12"/>
     </row>
-    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="9"/>
       <c r="B373" s="9"/>
       <c r="C373" s="9"/>
@@ -12114,7 +12124,7 @@
       <c r="AA373" s="12"/>
       <c r="AB373" s="12"/>
     </row>
-    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="9"/>
       <c r="B374" s="9"/>
       <c r="C374" s="9"/>
@@ -12144,7 +12154,7 @@
       <c r="AA374" s="12"/>
       <c r="AB374" s="12"/>
     </row>
-    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="9"/>
       <c r="B375" s="9"/>
       <c r="C375" s="9"/>
@@ -12174,7 +12184,7 @@
       <c r="AA375" s="12"/>
       <c r="AB375" s="12"/>
     </row>
-    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="9"/>
       <c r="B376" s="9"/>
       <c r="C376" s="9"/>
@@ -12204,7 +12214,7 @@
       <c r="AA376" s="12"/>
       <c r="AB376" s="12"/>
     </row>
-    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="9"/>
       <c r="B377" s="9"/>
       <c r="C377" s="9"/>
@@ -12234,7 +12244,7 @@
       <c r="AA377" s="12"/>
       <c r="AB377" s="12"/>
     </row>
-    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="9"/>
       <c r="B378" s="9"/>
       <c r="C378" s="9"/>
@@ -12264,7 +12274,7 @@
       <c r="AA378" s="12"/>
       <c r="AB378" s="12"/>
     </row>
-    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="9"/>
       <c r="B379" s="9"/>
       <c r="C379" s="9"/>
@@ -12294,7 +12304,7 @@
       <c r="AA379" s="12"/>
       <c r="AB379" s="12"/>
     </row>
-    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="9"/>
       <c r="B380" s="9"/>
       <c r="C380" s="9"/>
@@ -12324,7 +12334,7 @@
       <c r="AA380" s="12"/>
       <c r="AB380" s="12"/>
     </row>
-    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="9"/>
       <c r="B381" s="9"/>
       <c r="C381" s="9"/>
@@ -12354,7 +12364,7 @@
       <c r="AA381" s="12"/>
       <c r="AB381" s="12"/>
     </row>
-    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="9"/>
       <c r="B382" s="9"/>
       <c r="C382" s="9"/>
@@ -12384,7 +12394,7 @@
       <c r="AA382" s="12"/>
       <c r="AB382" s="12"/>
     </row>
-    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="9"/>
       <c r="B383" s="9"/>
       <c r="C383" s="9"/>
@@ -12414,7 +12424,7 @@
       <c r="AA383" s="12"/>
       <c r="AB383" s="12"/>
     </row>
-    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="9"/>
       <c r="B384" s="9"/>
       <c r="C384" s="9"/>
@@ -12444,7 +12454,7 @@
       <c r="AA384" s="12"/>
       <c r="AB384" s="12"/>
     </row>
-    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="9"/>
       <c r="B385" s="9"/>
       <c r="C385" s="9"/>
@@ -12474,7 +12484,7 @@
       <c r="AA385" s="12"/>
       <c r="AB385" s="12"/>
     </row>
-    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="9"/>
       <c r="B386" s="9"/>
       <c r="C386" s="9"/>
@@ -12504,7 +12514,7 @@
       <c r="AA386" s="12"/>
       <c r="AB386" s="12"/>
     </row>
-    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="9"/>
       <c r="B387" s="9"/>
       <c r="C387" s="9"/>
@@ -12534,7 +12544,7 @@
       <c r="AA387" s="12"/>
       <c r="AB387" s="12"/>
     </row>
-    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="9"/>
       <c r="B388" s="9"/>
       <c r="C388" s="9"/>
@@ -12564,7 +12574,7 @@
       <c r="AA388" s="12"/>
       <c r="AB388" s="12"/>
     </row>
-    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="9"/>
       <c r="B389" s="9"/>
       <c r="C389" s="9"/>
@@ -12594,7 +12604,7 @@
       <c r="AA389" s="12"/>
       <c r="AB389" s="12"/>
     </row>
-    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="9"/>
       <c r="B390" s="9"/>
       <c r="C390" s="9"/>
@@ -12624,7 +12634,7 @@
       <c r="AA390" s="12"/>
       <c r="AB390" s="12"/>
     </row>
-    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="9"/>
       <c r="B391" s="9"/>
       <c r="C391" s="9"/>
@@ -12654,7 +12664,7 @@
       <c r="AA391" s="12"/>
       <c r="AB391" s="12"/>
     </row>
-    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="9"/>
       <c r="B392" s="9"/>
       <c r="C392" s="9"/>
@@ -12684,7 +12694,7 @@
       <c r="AA392" s="12"/>
       <c r="AB392" s="12"/>
     </row>
-    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="9"/>
       <c r="B393" s="9"/>
       <c r="C393" s="9"/>
@@ -12714,7 +12724,7 @@
       <c r="AA393" s="12"/>
       <c r="AB393" s="12"/>
     </row>
-    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="9"/>
       <c r="B394" s="9"/>
       <c r="C394" s="9"/>
@@ -12744,7 +12754,7 @@
       <c r="AA394" s="12"/>
       <c r="AB394" s="12"/>
     </row>
-    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="9"/>
       <c r="B395" s="9"/>
       <c r="C395" s="9"/>
@@ -12774,7 +12784,7 @@
       <c r="AA395" s="12"/>
       <c r="AB395" s="12"/>
     </row>
-    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="9"/>
       <c r="B396" s="9"/>
       <c r="C396" s="9"/>
@@ -12804,7 +12814,7 @@
       <c r="AA396" s="12"/>
       <c r="AB396" s="12"/>
     </row>
-    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="9"/>
       <c r="B397" s="9"/>
       <c r="C397" s="9"/>
@@ -12834,7 +12844,7 @@
       <c r="AA397" s="12"/>
       <c r="AB397" s="12"/>
     </row>
-    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="9"/>
       <c r="B398" s="9"/>
       <c r="C398" s="9"/>
@@ -12864,7 +12874,7 @@
       <c r="AA398" s="12"/>
       <c r="AB398" s="12"/>
     </row>
-    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="9"/>
       <c r="B399" s="9"/>
       <c r="C399" s="9"/>
@@ -12894,7 +12904,7 @@
       <c r="AA399" s="12"/>
       <c r="AB399" s="12"/>
     </row>
-    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="9"/>
       <c r="B400" s="9"/>
       <c r="C400" s="9"/>
@@ -12924,7 +12934,7 @@
       <c r="AA400" s="12"/>
       <c r="AB400" s="12"/>
     </row>
-    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="9"/>
       <c r="B401" s="9"/>
       <c r="C401" s="9"/>
@@ -12954,7 +12964,7 @@
       <c r="AA401" s="12"/>
       <c r="AB401" s="12"/>
     </row>
-    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="9"/>
       <c r="B402" s="9"/>
       <c r="C402" s="9"/>
@@ -12984,7 +12994,7 @@
       <c r="AA402" s="12"/>
       <c r="AB402" s="12"/>
     </row>
-    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="9"/>
       <c r="B403" s="9"/>
       <c r="C403" s="9"/>
@@ -13014,7 +13024,7 @@
       <c r="AA403" s="12"/>
       <c r="AB403" s="12"/>
     </row>
-    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="9"/>
       <c r="B404" s="9"/>
       <c r="C404" s="9"/>
@@ -13044,7 +13054,7 @@
       <c r="AA404" s="12"/>
       <c r="AB404" s="12"/>
     </row>
-    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="9"/>
       <c r="B405" s="9"/>
       <c r="C405" s="9"/>
@@ -13074,7 +13084,7 @@
       <c r="AA405" s="12"/>
       <c r="AB405" s="12"/>
     </row>
-    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="9"/>
       <c r="B406" s="9"/>
       <c r="C406" s="9"/>
@@ -13104,7 +13114,7 @@
       <c r="AA406" s="12"/>
       <c r="AB406" s="12"/>
     </row>
-    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="9"/>
       <c r="B407" s="9"/>
       <c r="C407" s="9"/>
@@ -13134,7 +13144,7 @@
       <c r="AA407" s="12"/>
       <c r="AB407" s="12"/>
     </row>
-    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="9"/>
       <c r="B408" s="9"/>
       <c r="C408" s="9"/>
@@ -13164,7 +13174,7 @@
       <c r="AA408" s="12"/>
       <c r="AB408" s="12"/>
     </row>
-    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="9"/>
       <c r="B409" s="9"/>
       <c r="C409" s="9"/>
@@ -13194,7 +13204,7 @@
       <c r="AA409" s="12"/>
       <c r="AB409" s="12"/>
     </row>
-    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="9"/>
       <c r="B410" s="9"/>
       <c r="C410" s="9"/>
@@ -13224,7 +13234,7 @@
       <c r="AA410" s="12"/>
       <c r="AB410" s="12"/>
     </row>
-    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="9"/>
       <c r="B411" s="9"/>
       <c r="C411" s="9"/>
@@ -13254,7 +13264,7 @@
       <c r="AA411" s="12"/>
       <c r="AB411" s="12"/>
     </row>
-    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="9"/>
       <c r="B412" s="9"/>
       <c r="C412" s="9"/>
@@ -13284,7 +13294,7 @@
       <c r="AA412" s="12"/>
       <c r="AB412" s="12"/>
     </row>
-    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="9"/>
       <c r="B413" s="9"/>
       <c r="C413" s="9"/>
@@ -13314,7 +13324,7 @@
       <c r="AA413" s="12"/>
       <c r="AB413" s="12"/>
     </row>
-    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="9"/>
       <c r="B414" s="9"/>
       <c r="C414" s="9"/>
@@ -13344,7 +13354,7 @@
       <c r="AA414" s="12"/>
       <c r="AB414" s="12"/>
     </row>
-    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="9"/>
       <c r="B415" s="9"/>
       <c r="C415" s="9"/>
@@ -13374,7 +13384,7 @@
       <c r="AA415" s="12"/>
       <c r="AB415" s="12"/>
     </row>
-    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="9"/>
       <c r="B416" s="9"/>
       <c r="C416" s="9"/>
@@ -13404,7 +13414,7 @@
       <c r="AA416" s="12"/>
       <c r="AB416" s="12"/>
     </row>
-    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="9"/>
       <c r="B417" s="9"/>
       <c r="C417" s="9"/>
@@ -13434,7 +13444,7 @@
       <c r="AA417" s="12"/>
       <c r="AB417" s="12"/>
     </row>
-    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="9"/>
       <c r="B418" s="9"/>
       <c r="C418" s="9"/>
@@ -13464,7 +13474,7 @@
       <c r="AA418" s="12"/>
       <c r="AB418" s="12"/>
     </row>
-    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="9"/>
       <c r="B419" s="9"/>
       <c r="C419" s="9"/>
@@ -13494,7 +13504,7 @@
       <c r="AA419" s="12"/>
       <c r="AB419" s="12"/>
     </row>
-    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="9"/>
       <c r="B420" s="9"/>
       <c r="C420" s="9"/>
@@ -13524,7 +13534,7 @@
       <c r="AA420" s="12"/>
       <c r="AB420" s="12"/>
     </row>
-    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="9"/>
       <c r="B421" s="9"/>
       <c r="C421" s="9"/>
@@ -13554,7 +13564,7 @@
       <c r="AA421" s="12"/>
       <c r="AB421" s="12"/>
     </row>
-    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="9"/>
       <c r="B422" s="9"/>
       <c r="C422" s="9"/>
@@ -13584,7 +13594,7 @@
       <c r="AA422" s="12"/>
       <c r="AB422" s="12"/>
     </row>
-    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="9"/>
       <c r="B423" s="9"/>
       <c r="C423" s="9"/>
@@ -13614,7 +13624,7 @@
       <c r="AA423" s="12"/>
       <c r="AB423" s="12"/>
     </row>
-    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="9"/>
       <c r="B424" s="9"/>
       <c r="C424" s="9"/>
@@ -13644,7 +13654,7 @@
       <c r="AA424" s="12"/>
       <c r="AB424" s="12"/>
     </row>
-    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="9"/>
       <c r="B425" s="9"/>
       <c r="C425" s="9"/>
@@ -13674,7 +13684,7 @@
       <c r="AA425" s="12"/>
       <c r="AB425" s="12"/>
     </row>
-    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="9"/>
       <c r="B426" s="9"/>
       <c r="C426" s="9"/>
@@ -13704,7 +13714,7 @@
       <c r="AA426" s="12"/>
       <c r="AB426" s="12"/>
     </row>
-    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="9"/>
       <c r="B427" s="9"/>
       <c r="C427" s="9"/>
@@ -13734,7 +13744,7 @@
       <c r="AA427" s="12"/>
       <c r="AB427" s="12"/>
     </row>
-    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="9"/>
       <c r="B428" s="9"/>
       <c r="C428" s="9"/>
@@ -13764,7 +13774,7 @@
       <c r="AA428" s="12"/>
       <c r="AB428" s="12"/>
     </row>
-    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="9"/>
       <c r="B429" s="9"/>
       <c r="C429" s="9"/>
@@ -13794,7 +13804,7 @@
       <c r="AA429" s="12"/>
       <c r="AB429" s="12"/>
     </row>
-    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="9"/>
       <c r="B430" s="9"/>
       <c r="C430" s="9"/>
@@ -13824,7 +13834,7 @@
       <c r="AA430" s="12"/>
       <c r="AB430" s="12"/>
     </row>
-    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="9"/>
       <c r="B431" s="9"/>
       <c r="C431" s="9"/>
@@ -13854,7 +13864,7 @@
       <c r="AA431" s="12"/>
       <c r="AB431" s="12"/>
     </row>
-    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="9"/>
       <c r="B432" s="9"/>
       <c r="C432" s="9"/>
@@ -13884,7 +13894,7 @@
       <c r="AA432" s="12"/>
       <c r="AB432" s="12"/>
     </row>
-    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="9"/>
       <c r="B433" s="9"/>
       <c r="C433" s="9"/>
@@ -13914,7 +13924,7 @@
       <c r="AA433" s="12"/>
       <c r="AB433" s="12"/>
     </row>
-    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="9"/>
       <c r="B434" s="9"/>
       <c r="C434" s="9"/>
@@ -13944,7 +13954,7 @@
       <c r="AA434" s="12"/>
       <c r="AB434" s="12"/>
     </row>
-    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="9"/>
       <c r="B435" s="9"/>
       <c r="C435" s="9"/>
@@ -13974,7 +13984,7 @@
       <c r="AA435" s="12"/>
       <c r="AB435" s="12"/>
     </row>
-    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="9"/>
       <c r="B436" s="9"/>
       <c r="C436" s="9"/>
@@ -14004,7 +14014,7 @@
       <c r="AA436" s="12"/>
       <c r="AB436" s="12"/>
     </row>
-    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="9"/>
       <c r="B437" s="9"/>
       <c r="C437" s="9"/>
@@ -14034,7 +14044,7 @@
       <c r="AA437" s="12"/>
       <c r="AB437" s="12"/>
     </row>
-    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="9"/>
       <c r="B438" s="9"/>
       <c r="C438" s="9"/>
@@ -14064,7 +14074,7 @@
       <c r="AA438" s="12"/>
       <c r="AB438" s="12"/>
     </row>
-    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="9"/>
       <c r="B439" s="9"/>
       <c r="C439" s="9"/>
@@ -14094,7 +14104,7 @@
       <c r="AA439" s="12"/>
       <c r="AB439" s="12"/>
     </row>
-    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="9"/>
       <c r="B440" s="9"/>
       <c r="C440" s="9"/>
@@ -14124,7 +14134,7 @@
       <c r="AA440" s="12"/>
       <c r="AB440" s="12"/>
     </row>
-    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="9"/>
       <c r="B441" s="9"/>
       <c r="C441" s="9"/>
@@ -14154,7 +14164,7 @@
       <c r="AA441" s="12"/>
       <c r="AB441" s="12"/>
     </row>
-    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="9"/>
       <c r="B442" s="9"/>
       <c r="C442" s="9"/>
@@ -14184,7 +14194,7 @@
       <c r="AA442" s="12"/>
       <c r="AB442" s="12"/>
     </row>
-    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="9"/>
       <c r="B443" s="9"/>
       <c r="C443" s="9"/>
@@ -14214,7 +14224,7 @@
       <c r="AA443" s="12"/>
       <c r="AB443" s="12"/>
     </row>
-    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="9"/>
       <c r="B444" s="9"/>
       <c r="C444" s="9"/>
@@ -14244,7 +14254,7 @@
       <c r="AA444" s="12"/>
       <c r="AB444" s="12"/>
     </row>
-    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="9"/>
       <c r="B445" s="9"/>
       <c r="C445" s="9"/>
@@ -14274,7 +14284,7 @@
       <c r="AA445" s="12"/>
       <c r="AB445" s="12"/>
     </row>
-    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="9"/>
       <c r="B446" s="9"/>
       <c r="C446" s="9"/>
@@ -14304,7 +14314,7 @@
       <c r="AA446" s="12"/>
       <c r="AB446" s="12"/>
     </row>
-    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="9"/>
       <c r="B447" s="9"/>
       <c r="C447" s="9"/>
@@ -14334,7 +14344,7 @@
       <c r="AA447" s="12"/>
       <c r="AB447" s="12"/>
     </row>
-    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="9"/>
       <c r="B448" s="9"/>
       <c r="C448" s="9"/>
@@ -14364,7 +14374,7 @@
       <c r="AA448" s="12"/>
       <c r="AB448" s="12"/>
     </row>
-    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="9"/>
       <c r="B449" s="9"/>
       <c r="C449" s="9"/>
@@ -14394,7 +14404,7 @@
       <c r="AA449" s="12"/>
       <c r="AB449" s="12"/>
     </row>
-    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="9"/>
       <c r="B450" s="9"/>
       <c r="C450" s="9"/>
@@ -14424,7 +14434,7 @@
       <c r="AA450" s="12"/>
       <c r="AB450" s="12"/>
     </row>
-    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="9"/>
       <c r="B451" s="9"/>
       <c r="C451" s="9"/>
@@ -14454,7 +14464,7 @@
       <c r="AA451" s="12"/>
       <c r="AB451" s="12"/>
     </row>
-    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="9"/>
       <c r="B452" s="9"/>
       <c r="C452" s="9"/>
@@ -14484,7 +14494,7 @@
       <c r="AA452" s="12"/>
       <c r="AB452" s="12"/>
     </row>
-    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="9"/>
       <c r="B453" s="9"/>
       <c r="C453" s="9"/>
@@ -14514,7 +14524,7 @@
       <c r="AA453" s="12"/>
       <c r="AB453" s="12"/>
     </row>
-    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="9"/>
       <c r="B454" s="9"/>
       <c r="C454" s="9"/>
@@ -14544,7 +14554,7 @@
       <c r="AA454" s="12"/>
       <c r="AB454" s="12"/>
     </row>
-    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="9"/>
       <c r="B455" s="9"/>
       <c r="C455" s="9"/>
@@ -14574,7 +14584,7 @@
       <c r="AA455" s="12"/>
       <c r="AB455" s="12"/>
     </row>
-    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="9"/>
       <c r="B456" s="9"/>
       <c r="C456" s="9"/>
@@ -14604,7 +14614,7 @@
       <c r="AA456" s="12"/>
       <c r="AB456" s="12"/>
     </row>
-    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="9"/>
       <c r="B457" s="9"/>
       <c r="C457" s="9"/>
@@ -14634,7 +14644,7 @@
       <c r="AA457" s="12"/>
       <c r="AB457" s="12"/>
     </row>
-    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="9"/>
       <c r="B458" s="9"/>
       <c r="C458" s="9"/>
@@ -14664,7 +14674,7 @@
       <c r="AA458" s="12"/>
       <c r="AB458" s="12"/>
     </row>
-    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="9"/>
       <c r="B459" s="9"/>
       <c r="C459" s="9"/>
@@ -14694,7 +14704,7 @@
       <c r="AA459" s="12"/>
       <c r="AB459" s="12"/>
     </row>
-    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="9"/>
       <c r="B460" s="9"/>
       <c r="C460" s="9"/>
@@ -14724,7 +14734,7 @@
       <c r="AA460" s="12"/>
       <c r="AB460" s="12"/>
     </row>
-    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="9"/>
       <c r="B461" s="9"/>
       <c r="C461" s="9"/>
@@ -14754,7 +14764,7 @@
       <c r="AA461" s="12"/>
       <c r="AB461" s="12"/>
     </row>
-    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="9"/>
       <c r="B462" s="9"/>
       <c r="C462" s="9"/>
@@ -14784,7 +14794,7 @@
       <c r="AA462" s="12"/>
       <c r="AB462" s="12"/>
     </row>
-    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="9"/>
       <c r="B463" s="9"/>
       <c r="C463" s="9"/>
@@ -14814,7 +14824,7 @@
       <c r="AA463" s="12"/>
       <c r="AB463" s="12"/>
     </row>
-    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="9"/>
       <c r="B464" s="9"/>
       <c r="C464" s="9"/>
@@ -14844,7 +14854,7 @@
       <c r="AA464" s="12"/>
       <c r="AB464" s="12"/>
     </row>
-    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="9"/>
       <c r="B465" s="9"/>
       <c r="C465" s="9"/>
@@ -14874,7 +14884,7 @@
       <c r="AA465" s="12"/>
       <c r="AB465" s="12"/>
     </row>
-    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="9"/>
       <c r="B466" s="9"/>
       <c r="C466" s="9"/>
@@ -14904,7 +14914,7 @@
       <c r="AA466" s="12"/>
       <c r="AB466" s="12"/>
     </row>
-    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="9"/>
       <c r="B467" s="9"/>
       <c r="C467" s="9"/>
@@ -14934,7 +14944,7 @@
       <c r="AA467" s="12"/>
       <c r="AB467" s="12"/>
     </row>
-    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="9"/>
       <c r="B468" s="9"/>
       <c r="C468" s="9"/>
@@ -14964,7 +14974,7 @@
       <c r="AA468" s="12"/>
       <c r="AB468" s="12"/>
     </row>
-    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="9"/>
       <c r="B469" s="9"/>
       <c r="C469" s="9"/>
@@ -14994,7 +15004,7 @@
       <c r="AA469" s="12"/>
       <c r="AB469" s="12"/>
     </row>
-    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="9"/>
       <c r="B470" s="9"/>
       <c r="C470" s="9"/>
@@ -15024,7 +15034,7 @@
       <c r="AA470" s="12"/>
       <c r="AB470" s="12"/>
     </row>
-    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="9"/>
       <c r="B471" s="9"/>
       <c r="C471" s="9"/>
@@ -15054,7 +15064,7 @@
       <c r="AA471" s="12"/>
       <c r="AB471" s="12"/>
     </row>
-    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="9"/>
       <c r="B472" s="9"/>
       <c r="C472" s="9"/>
@@ -15084,7 +15094,7 @@
       <c r="AA472" s="12"/>
       <c r="AB472" s="12"/>
     </row>
-    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="9"/>
       <c r="B473" s="9"/>
       <c r="C473" s="9"/>
@@ -15114,7 +15124,7 @@
       <c r="AA473" s="12"/>
       <c r="AB473" s="12"/>
     </row>
-    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="9"/>
       <c r="B474" s="9"/>
       <c r="C474" s="9"/>
@@ -15144,7 +15154,7 @@
       <c r="AA474" s="12"/>
       <c r="AB474" s="12"/>
     </row>
-    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="9"/>
       <c r="B475" s="9"/>
       <c r="C475" s="9"/>
@@ -15174,7 +15184,7 @@
       <c r="AA475" s="12"/>
       <c r="AB475" s="12"/>
     </row>
-    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="9"/>
       <c r="B476" s="9"/>
       <c r="C476" s="9"/>
@@ -15204,7 +15214,7 @@
       <c r="AA476" s="12"/>
       <c r="AB476" s="12"/>
     </row>
-    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="9"/>
       <c r="B477" s="9"/>
       <c r="C477" s="9"/>
@@ -15234,7 +15244,7 @@
       <c r="AA477" s="12"/>
       <c r="AB477" s="12"/>
     </row>
-    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="9"/>
       <c r="B478" s="9"/>
       <c r="C478" s="9"/>
@@ -15264,7 +15274,7 @@
       <c r="AA478" s="12"/>
       <c r="AB478" s="12"/>
     </row>
-    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="9"/>
       <c r="B479" s="9"/>
       <c r="C479" s="9"/>
@@ -15294,7 +15304,7 @@
       <c r="AA479" s="12"/>
       <c r="AB479" s="12"/>
     </row>
-    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="9"/>
       <c r="B480" s="9"/>
       <c r="C480" s="9"/>
@@ -15324,7 +15334,7 @@
       <c r="AA480" s="12"/>
       <c r="AB480" s="12"/>
     </row>
-    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="9"/>
       <c r="B481" s="9"/>
       <c r="C481" s="9"/>
@@ -15354,7 +15364,7 @@
       <c r="AA481" s="12"/>
       <c r="AB481" s="12"/>
     </row>
-    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="9"/>
       <c r="B482" s="9"/>
       <c r="C482" s="9"/>
@@ -15384,7 +15394,7 @@
       <c r="AA482" s="12"/>
       <c r="AB482" s="12"/>
     </row>
-    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="9"/>
       <c r="B483" s="9"/>
       <c r="C483" s="9"/>
@@ -15414,7 +15424,7 @@
       <c r="AA483" s="12"/>
       <c r="AB483" s="12"/>
     </row>
-    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="9"/>
       <c r="B484" s="9"/>
       <c r="C484" s="9"/>
@@ -15444,7 +15454,7 @@
       <c r="AA484" s="12"/>
       <c r="AB484" s="12"/>
     </row>
-    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="9"/>
       <c r="B485" s="9"/>
       <c r="C485" s="9"/>
@@ -15474,7 +15484,7 @@
       <c r="AA485" s="12"/>
       <c r="AB485" s="12"/>
     </row>
-    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="9"/>
       <c r="B486" s="9"/>
       <c r="C486" s="9"/>
@@ -15504,7 +15514,7 @@
       <c r="AA486" s="12"/>
       <c r="AB486" s="12"/>
     </row>
-    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="9"/>
       <c r="B487" s="9"/>
       <c r="C487" s="9"/>
@@ -15534,7 +15544,7 @@
       <c r="AA487" s="12"/>
       <c r="AB487" s="12"/>
     </row>
-    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="9"/>
       <c r="B488" s="9"/>
       <c r="C488" s="9"/>
@@ -15564,7 +15574,7 @@
       <c r="AA488" s="12"/>
       <c r="AB488" s="12"/>
     </row>
-    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="9"/>
       <c r="B489" s="9"/>
       <c r="C489" s="9"/>
@@ -15594,7 +15604,7 @@
       <c r="AA489" s="12"/>
       <c r="AB489" s="12"/>
     </row>
-    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="9"/>
       <c r="B490" s="9"/>
       <c r="C490" s="9"/>
@@ -15624,7 +15634,7 @@
       <c r="AA490" s="12"/>
       <c r="AB490" s="12"/>
     </row>
-    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="9"/>
       <c r="B491" s="9"/>
       <c r="C491" s="9"/>
@@ -15654,7 +15664,7 @@
       <c r="AA491" s="12"/>
       <c r="AB491" s="12"/>
     </row>
-    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="9"/>
       <c r="B492" s="9"/>
       <c r="C492" s="9"/>
@@ -15684,7 +15694,7 @@
       <c r="AA492" s="12"/>
       <c r="AB492" s="12"/>
     </row>
-    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="9"/>
       <c r="B493" s="9"/>
       <c r="C493" s="9"/>
@@ -15714,7 +15724,7 @@
       <c r="AA493" s="12"/>
       <c r="AB493" s="12"/>
     </row>
-    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="9"/>
       <c r="B494" s="9"/>
       <c r="C494" s="9"/>
@@ -15744,7 +15754,7 @@
       <c r="AA494" s="12"/>
       <c r="AB494" s="12"/>
     </row>
-    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="9"/>
       <c r="B495" s="9"/>
       <c r="C495" s="9"/>
@@ -15774,7 +15784,7 @@
       <c r="AA495" s="12"/>
       <c r="AB495" s="12"/>
     </row>
-    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="9"/>
       <c r="B496" s="9"/>
       <c r="C496" s="9"/>
@@ -15804,7 +15814,7 @@
       <c r="AA496" s="12"/>
       <c r="AB496" s="12"/>
     </row>
-    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="9"/>
       <c r="B497" s="9"/>
       <c r="C497" s="9"/>
@@ -15834,7 +15844,7 @@
       <c r="AA497" s="12"/>
       <c r="AB497" s="12"/>
     </row>
-    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="9"/>
       <c r="B498" s="9"/>
       <c r="C498" s="9"/>
@@ -15864,7 +15874,7 @@
       <c r="AA498" s="12"/>
       <c r="AB498" s="12"/>
     </row>
-    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="9"/>
       <c r="B499" s="9"/>
       <c r="C499" s="9"/>
@@ -15894,7 +15904,7 @@
       <c r="AA499" s="12"/>
       <c r="AB499" s="12"/>
     </row>
-    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="9"/>
       <c r="B500" s="9"/>
       <c r="C500" s="9"/>
@@ -15924,7 +15934,7 @@
       <c r="AA500" s="12"/>
       <c r="AB500" s="12"/>
     </row>
-    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="9"/>
       <c r="B501" s="9"/>
       <c r="C501" s="9"/>
@@ -15954,7 +15964,7 @@
       <c r="AA501" s="12"/>
       <c r="AB501" s="12"/>
     </row>
-    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="9"/>
       <c r="B502" s="9"/>
       <c r="C502" s="9"/>
@@ -15984,7 +15994,7 @@
       <c r="AA502" s="12"/>
       <c r="AB502" s="12"/>
     </row>
-    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="9"/>
       <c r="B503" s="9"/>
       <c r="C503" s="9"/>
@@ -16014,7 +16024,7 @@
       <c r="AA503" s="12"/>
       <c r="AB503" s="12"/>
     </row>
-    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="9"/>
       <c r="B504" s="9"/>
       <c r="C504" s="9"/>
@@ -16044,7 +16054,7 @@
       <c r="AA504" s="12"/>
       <c r="AB504" s="12"/>
     </row>
-    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="9"/>
       <c r="B505" s="9"/>
       <c r="C505" s="9"/>
@@ -16074,7 +16084,7 @@
       <c r="AA505" s="12"/>
       <c r="AB505" s="12"/>
     </row>
-    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="9"/>
       <c r="B506" s="9"/>
       <c r="C506" s="9"/>
@@ -16104,7 +16114,7 @@
       <c r="AA506" s="12"/>
       <c r="AB506" s="12"/>
     </row>
-    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="9"/>
       <c r="B507" s="9"/>
       <c r="C507" s="9"/>
@@ -16134,7 +16144,7 @@
       <c r="AA507" s="12"/>
       <c r="AB507" s="12"/>
     </row>
-    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="9"/>
       <c r="B508" s="9"/>
       <c r="C508" s="9"/>
@@ -16164,7 +16174,7 @@
       <c r="AA508" s="12"/>
       <c r="AB508" s="12"/>
     </row>
-    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="9"/>
       <c r="B509" s="9"/>
       <c r="C509" s="9"/>
@@ -16194,7 +16204,7 @@
       <c r="AA509" s="12"/>
       <c r="AB509" s="12"/>
     </row>
-    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="9"/>
       <c r="B510" s="9"/>
       <c r="C510" s="9"/>
@@ -16224,7 +16234,7 @@
       <c r="AA510" s="12"/>
       <c r="AB510" s="12"/>
     </row>
-    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="9"/>
       <c r="B511" s="9"/>
       <c r="C511" s="9"/>
@@ -16254,7 +16264,7 @@
       <c r="AA511" s="12"/>
       <c r="AB511" s="12"/>
     </row>
-    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="9"/>
       <c r="B512" s="9"/>
       <c r="C512" s="9"/>
@@ -16284,7 +16294,7 @@
       <c r="AA512" s="12"/>
       <c r="AB512" s="12"/>
     </row>
-    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="9"/>
       <c r="B513" s="9"/>
       <c r="C513" s="9"/>
@@ -16314,7 +16324,7 @@
       <c r="AA513" s="12"/>
       <c r="AB513" s="12"/>
     </row>
-    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="9"/>
       <c r="B514" s="9"/>
       <c r="C514" s="9"/>
@@ -16344,7 +16354,7 @@
       <c r="AA514" s="12"/>
       <c r="AB514" s="12"/>
     </row>
-    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="9"/>
       <c r="B515" s="9"/>
       <c r="C515" s="9"/>
@@ -16374,7 +16384,7 @@
       <c r="AA515" s="12"/>
       <c r="AB515" s="12"/>
     </row>
-    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="9"/>
       <c r="B516" s="9"/>
       <c r="C516" s="9"/>
@@ -16404,7 +16414,7 @@
       <c r="AA516" s="12"/>
       <c r="AB516" s="12"/>
     </row>
-    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="9"/>
       <c r="B517" s="9"/>
       <c r="C517" s="9"/>
@@ -16434,7 +16444,7 @@
       <c r="AA517" s="12"/>
       <c r="AB517" s="12"/>
     </row>
-    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="9"/>
       <c r="B518" s="9"/>
       <c r="C518" s="9"/>
@@ -16464,7 +16474,7 @@
       <c r="AA518" s="12"/>
       <c r="AB518" s="12"/>
     </row>
-    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="9"/>
       <c r="B519" s="9"/>
       <c r="C519" s="9"/>
@@ -16494,7 +16504,7 @@
       <c r="AA519" s="12"/>
       <c r="AB519" s="12"/>
     </row>
-    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="9"/>
       <c r="B520" s="9"/>
       <c r="C520" s="9"/>
@@ -16524,7 +16534,7 @@
       <c r="AA520" s="12"/>
       <c r="AB520" s="12"/>
     </row>
-    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="9"/>
       <c r="B521" s="9"/>
       <c r="C521" s="9"/>
@@ -16554,7 +16564,7 @@
       <c r="AA521" s="12"/>
       <c r="AB521" s="12"/>
     </row>
-    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="9"/>
       <c r="B522" s="9"/>
       <c r="C522" s="9"/>
@@ -16584,7 +16594,7 @@
       <c r="AA522" s="12"/>
       <c r="AB522" s="12"/>
     </row>
-    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="9"/>
       <c r="B523" s="9"/>
       <c r="C523" s="9"/>
@@ -16614,7 +16624,7 @@
       <c r="AA523" s="12"/>
       <c r="AB523" s="12"/>
     </row>
-    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="9"/>
       <c r="B524" s="9"/>
       <c r="C524" s="9"/>
@@ -16644,7 +16654,7 @@
       <c r="AA524" s="12"/>
       <c r="AB524" s="12"/>
     </row>
-    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="9"/>
       <c r="B525" s="9"/>
       <c r="C525" s="9"/>
@@ -16674,7 +16684,7 @@
       <c r="AA525" s="12"/>
       <c r="AB525" s="12"/>
     </row>
-    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="9"/>
       <c r="B526" s="9"/>
       <c r="C526" s="9"/>
@@ -16704,7 +16714,7 @@
       <c r="AA526" s="12"/>
       <c r="AB526" s="12"/>
     </row>
-    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="9"/>
       <c r="B527" s="9"/>
       <c r="C527" s="9"/>
@@ -16734,7 +16744,7 @@
       <c r="AA527" s="12"/>
       <c r="AB527" s="12"/>
     </row>
-    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="9"/>
       <c r="B528" s="9"/>
       <c r="C528" s="9"/>
@@ -16764,7 +16774,7 @@
       <c r="AA528" s="12"/>
       <c r="AB528" s="12"/>
     </row>
-    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="9"/>
       <c r="B529" s="9"/>
       <c r="C529" s="9"/>
@@ -16794,7 +16804,7 @@
       <c r="AA529" s="12"/>
       <c r="AB529" s="12"/>
     </row>
-    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="9"/>
       <c r="B530" s="9"/>
       <c r="C530" s="9"/>
@@ -16824,7 +16834,7 @@
       <c r="AA530" s="12"/>
       <c r="AB530" s="12"/>
     </row>
-    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="9"/>
       <c r="B531" s="9"/>
       <c r="C531" s="9"/>
@@ -16854,7 +16864,7 @@
       <c r="AA531" s="12"/>
       <c r="AB531" s="12"/>
     </row>
-    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="9"/>
       <c r="B532" s="9"/>
       <c r="C532" s="9"/>
@@ -16884,7 +16894,7 @@
       <c r="AA532" s="12"/>
       <c r="AB532" s="12"/>
     </row>
-    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="9"/>
       <c r="B533" s="9"/>
       <c r="C533" s="9"/>
@@ -16914,7 +16924,7 @@
       <c r="AA533" s="12"/>
       <c r="AB533" s="12"/>
     </row>
-    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="9"/>
       <c r="B534" s="9"/>
       <c r="C534" s="9"/>
@@ -16944,7 +16954,7 @@
       <c r="AA534" s="12"/>
       <c r="AB534" s="12"/>
     </row>
-    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="9"/>
       <c r="B535" s="9"/>
       <c r="C535" s="9"/>
@@ -16974,7 +16984,7 @@
       <c r="AA535" s="12"/>
       <c r="AB535" s="12"/>
     </row>
-    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="9"/>
       <c r="B536" s="9"/>
       <c r="C536" s="9"/>
@@ -17004,7 +17014,7 @@
       <c r="AA536" s="12"/>
       <c r="AB536" s="12"/>
     </row>
-    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="9"/>
       <c r="B537" s="9"/>
       <c r="C537" s="9"/>
@@ -17034,7 +17044,7 @@
       <c r="AA537" s="12"/>
       <c r="AB537" s="12"/>
     </row>
-    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="9"/>
       <c r="B538" s="9"/>
       <c r="C538" s="9"/>
@@ -17064,7 +17074,7 @@
       <c r="AA538" s="12"/>
       <c r="AB538" s="12"/>
     </row>
-    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="9"/>
       <c r="B539" s="9"/>
       <c r="C539" s="9"/>
@@ -17094,7 +17104,7 @@
       <c r="AA539" s="12"/>
       <c r="AB539" s="12"/>
     </row>
-    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="9"/>
       <c r="B540" s="9"/>
       <c r="C540" s="9"/>
@@ -17124,7 +17134,7 @@
       <c r="AA540" s="12"/>
       <c r="AB540" s="12"/>
     </row>
-    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="9"/>
       <c r="B541" s="9"/>
       <c r="C541" s="9"/>
@@ -17154,7 +17164,7 @@
       <c r="AA541" s="12"/>
       <c r="AB541" s="12"/>
     </row>
-    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="9"/>
       <c r="B542" s="9"/>
       <c r="C542" s="9"/>
@@ -17184,7 +17194,7 @@
       <c r="AA542" s="12"/>
       <c r="AB542" s="12"/>
     </row>
-    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="9"/>
       <c r="B543" s="9"/>
       <c r="C543" s="9"/>
@@ -17214,7 +17224,7 @@
       <c r="AA543" s="12"/>
       <c r="AB543" s="12"/>
     </row>
-    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="9"/>
       <c r="B544" s="9"/>
       <c r="C544" s="9"/>
@@ -17244,7 +17254,7 @@
       <c r="AA544" s="12"/>
       <c r="AB544" s="12"/>
     </row>
-    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="9"/>
       <c r="B545" s="9"/>
       <c r="C545" s="9"/>
@@ -17274,7 +17284,7 @@
       <c r="AA545" s="12"/>
       <c r="AB545" s="12"/>
     </row>
-    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="9"/>
       <c r="B546" s="9"/>
       <c r="C546" s="9"/>
@@ -17304,7 +17314,7 @@
       <c r="AA546" s="12"/>
       <c r="AB546" s="12"/>
     </row>
-    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="9"/>
       <c r="B547" s="9"/>
       <c r="C547" s="9"/>
@@ -17334,7 +17344,7 @@
       <c r="AA547" s="12"/>
       <c r="AB547" s="12"/>
     </row>
-    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="9"/>
       <c r="B548" s="9"/>
       <c r="C548" s="9"/>
@@ -17364,7 +17374,7 @@
       <c r="AA548" s="12"/>
       <c r="AB548" s="12"/>
     </row>
-    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="9"/>
       <c r="B549" s="9"/>
       <c r="C549" s="9"/>
@@ -17394,7 +17404,7 @@
       <c r="AA549" s="12"/>
       <c r="AB549" s="12"/>
     </row>
-    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="9"/>
       <c r="B550" s="9"/>
       <c r="C550" s="9"/>
@@ -17424,7 +17434,7 @@
       <c r="AA550" s="12"/>
       <c r="AB550" s="12"/>
     </row>
-    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="9"/>
       <c r="B551" s="9"/>
       <c r="C551" s="9"/>
@@ -17454,7 +17464,7 @@
       <c r="AA551" s="12"/>
       <c r="AB551" s="12"/>
     </row>
-    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="9"/>
       <c r="B552" s="9"/>
       <c r="C552" s="9"/>
@@ -17484,7 +17494,7 @@
       <c r="AA552" s="12"/>
       <c r="AB552" s="12"/>
     </row>
-    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="9"/>
       <c r="B553" s="9"/>
       <c r="C553" s="9"/>
@@ -17514,7 +17524,7 @@
       <c r="AA553" s="12"/>
       <c r="AB553" s="12"/>
     </row>
-    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="9"/>
       <c r="B554" s="9"/>
       <c r="C554" s="9"/>
@@ -17544,7 +17554,7 @@
       <c r="AA554" s="12"/>
       <c r="AB554" s="12"/>
     </row>
-    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="9"/>
       <c r="B555" s="9"/>
       <c r="C555" s="9"/>
@@ -17574,7 +17584,7 @@
       <c r="AA555" s="12"/>
       <c r="AB555" s="12"/>
     </row>
-    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="9"/>
       <c r="B556" s="9"/>
       <c r="C556" s="9"/>
@@ -17604,7 +17614,7 @@
       <c r="AA556" s="12"/>
       <c r="AB556" s="12"/>
     </row>
-    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="9"/>
       <c r="B557" s="9"/>
       <c r="C557" s="9"/>
@@ -17634,7 +17644,7 @@
       <c r="AA557" s="12"/>
       <c r="AB557" s="12"/>
     </row>
-    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="9"/>
       <c r="B558" s="9"/>
       <c r="C558" s="9"/>
@@ -17664,7 +17674,7 @@
       <c r="AA558" s="12"/>
       <c r="AB558" s="12"/>
     </row>
-    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="9"/>
       <c r="B559" s="9"/>
       <c r="C559" s="9"/>
@@ -17694,7 +17704,7 @@
       <c r="AA559" s="12"/>
       <c r="AB559" s="12"/>
     </row>
-    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="9"/>
       <c r="B560" s="9"/>
       <c r="C560" s="9"/>
@@ -17724,7 +17734,7 @@
       <c r="AA560" s="12"/>
       <c r="AB560" s="12"/>
     </row>
-    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="9"/>
       <c r="B561" s="9"/>
       <c r="C561" s="9"/>
@@ -17754,7 +17764,7 @@
       <c r="AA561" s="12"/>
       <c r="AB561" s="12"/>
     </row>
-    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="9"/>
       <c r="B562" s="9"/>
       <c r="C562" s="9"/>
@@ -17784,7 +17794,7 @@
       <c r="AA562" s="12"/>
       <c r="AB562" s="12"/>
     </row>
-    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="9"/>
       <c r="B563" s="9"/>
       <c r="C563" s="9"/>
@@ -17814,7 +17824,7 @@
       <c r="AA563" s="12"/>
       <c r="AB563" s="12"/>
     </row>
-    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="9"/>
       <c r="B564" s="9"/>
       <c r="C564" s="9"/>
@@ -17844,7 +17854,7 @@
       <c r="AA564" s="12"/>
       <c r="AB564" s="12"/>
     </row>
-    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="9"/>
       <c r="B565" s="9"/>
       <c r="C565" s="9"/>
@@ -17874,7 +17884,7 @@
       <c r="AA565" s="12"/>
       <c r="AB565" s="12"/>
     </row>
-    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="9"/>
       <c r="B566" s="9"/>
       <c r="C566" s="9"/>
@@ -17904,7 +17914,7 @@
       <c r="AA566" s="12"/>
       <c r="AB566" s="12"/>
     </row>
-    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="9"/>
       <c r="B567" s="9"/>
       <c r="C567" s="9"/>
@@ -17934,7 +17944,7 @@
       <c r="AA567" s="12"/>
       <c r="AB567" s="12"/>
     </row>
-    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="9"/>
       <c r="B568" s="9"/>
       <c r="C568" s="9"/>
@@ -17964,7 +17974,7 @@
       <c r="AA568" s="12"/>
       <c r="AB568" s="12"/>
     </row>
-    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="9"/>
       <c r="B569" s="9"/>
       <c r="C569" s="9"/>
@@ -17994,7 +18004,7 @@
       <c r="AA569" s="12"/>
       <c r="AB569" s="12"/>
     </row>
-    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="9"/>
       <c r="B570" s="9"/>
       <c r="C570" s="9"/>
@@ -18024,7 +18034,7 @@
       <c r="AA570" s="12"/>
       <c r="AB570" s="12"/>
     </row>
-    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="9"/>
       <c r="B571" s="9"/>
       <c r="C571" s="9"/>
@@ -18054,7 +18064,7 @@
       <c r="AA571" s="12"/>
       <c r="AB571" s="12"/>
     </row>
-    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="9"/>
       <c r="B572" s="9"/>
       <c r="C572" s="9"/>
@@ -18084,7 +18094,7 @@
       <c r="AA572" s="12"/>
       <c r="AB572" s="12"/>
     </row>
-    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="9"/>
       <c r="B573" s="9"/>
       <c r="C573" s="9"/>
@@ -18114,7 +18124,7 @@
       <c r="AA573" s="12"/>
       <c r="AB573" s="12"/>
     </row>
-    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="9"/>
       <c r="B574" s="9"/>
       <c r="C574" s="9"/>
@@ -18144,7 +18154,7 @@
       <c r="AA574" s="12"/>
       <c r="AB574" s="12"/>
     </row>
-    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="9"/>
       <c r="B575" s="9"/>
       <c r="C575" s="9"/>
@@ -18174,7 +18184,7 @@
       <c r="AA575" s="12"/>
       <c r="AB575" s="12"/>
     </row>
-    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="9"/>
       <c r="B576" s="9"/>
       <c r="C576" s="9"/>
@@ -18204,7 +18214,7 @@
       <c r="AA576" s="12"/>
       <c r="AB576" s="12"/>
     </row>
-    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="9"/>
       <c r="B577" s="9"/>
       <c r="C577" s="9"/>
@@ -18234,7 +18244,7 @@
       <c r="AA577" s="12"/>
       <c r="AB577" s="12"/>
     </row>
-    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="9"/>
       <c r="B578" s="9"/>
       <c r="C578" s="9"/>
@@ -18264,7 +18274,7 @@
       <c r="AA578" s="12"/>
       <c r="AB578" s="12"/>
     </row>
-    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="9"/>
       <c r="B579" s="9"/>
       <c r="C579" s="9"/>
@@ -18294,7 +18304,7 @@
       <c r="AA579" s="12"/>
       <c r="AB579" s="12"/>
     </row>
-    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="9"/>
       <c r="B580" s="9"/>
       <c r="C580" s="9"/>
@@ -18324,7 +18334,7 @@
       <c r="AA580" s="12"/>
       <c r="AB580" s="12"/>
     </row>
-    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="9"/>
       <c r="B581" s="9"/>
       <c r="C581" s="9"/>
@@ -18354,7 +18364,7 @@
       <c r="AA581" s="12"/>
       <c r="AB581" s="12"/>
     </row>
-    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="9"/>
       <c r="B582" s="9"/>
       <c r="C582" s="9"/>
@@ -18384,7 +18394,7 @@
       <c r="AA582" s="12"/>
       <c r="AB582" s="12"/>
     </row>
-    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="9"/>
       <c r="B583" s="9"/>
       <c r="C583" s="9"/>
@@ -18414,7 +18424,7 @@
       <c r="AA583" s="12"/>
       <c r="AB583" s="12"/>
     </row>
-    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="9"/>
       <c r="B584" s="9"/>
       <c r="C584" s="9"/>
@@ -18444,7 +18454,7 @@
       <c r="AA584" s="12"/>
       <c r="AB584" s="12"/>
     </row>
-    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="9"/>
       <c r="B585" s="9"/>
       <c r="C585" s="9"/>
@@ -18474,7 +18484,7 @@
       <c r="AA585" s="12"/>
       <c r="AB585" s="12"/>
     </row>
-    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="9"/>
       <c r="B586" s="9"/>
       <c r="C586" s="9"/>
@@ -18504,7 +18514,7 @@
       <c r="AA586" s="12"/>
       <c r="AB586" s="12"/>
     </row>
-    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="9"/>
       <c r="B587" s="9"/>
       <c r="C587" s="9"/>
@@ -18534,7 +18544,7 @@
       <c r="AA587" s="12"/>
       <c r="AB587" s="12"/>
     </row>
-    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="9"/>
       <c r="B588" s="9"/>
       <c r="C588" s="9"/>
@@ -18564,7 +18574,7 @@
       <c r="AA588" s="12"/>
       <c r="AB588" s="12"/>
     </row>
-    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="9"/>
       <c r="B589" s="9"/>
       <c r="C589" s="9"/>
@@ -18594,7 +18604,7 @@
       <c r="AA589" s="12"/>
       <c r="AB589" s="12"/>
     </row>
-    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="9"/>
       <c r="B590" s="9"/>
       <c r="C590" s="9"/>
@@ -18624,7 +18634,7 @@
       <c r="AA590" s="12"/>
       <c r="AB590" s="12"/>
     </row>
-    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="9"/>
       <c r="B591" s="9"/>
       <c r="C591" s="9"/>
@@ -18654,7 +18664,7 @@
       <c r="AA591" s="12"/>
       <c r="AB591" s="12"/>
     </row>
-    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="9"/>
       <c r="B592" s="9"/>
       <c r="C592" s="9"/>
@@ -18684,7 +18694,7 @@
       <c r="AA592" s="12"/>
       <c r="AB592" s="12"/>
     </row>
-    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="9"/>
       <c r="B593" s="9"/>
       <c r="C593" s="9"/>
@@ -18714,7 +18724,7 @@
       <c r="AA593" s="12"/>
       <c r="AB593" s="12"/>
     </row>
-    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="9"/>
       <c r="B594" s="9"/>
       <c r="C594" s="9"/>
@@ -18744,7 +18754,7 @@
       <c r="AA594" s="12"/>
       <c r="AB594" s="12"/>
     </row>
-    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="9"/>
       <c r="B595" s="9"/>
       <c r="C595" s="9"/>
@@ -18774,7 +18784,7 @@
       <c r="AA595" s="12"/>
       <c r="AB595" s="12"/>
     </row>
-    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="9"/>
       <c r="B596" s="9"/>
       <c r="C596" s="9"/>
@@ -18804,7 +18814,7 @@
       <c r="AA596" s="12"/>
       <c r="AB596" s="12"/>
     </row>
-    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="9"/>
       <c r="B597" s="9"/>
       <c r="C597" s="9"/>
@@ -18834,7 +18844,7 @@
       <c r="AA597" s="12"/>
       <c r="AB597" s="12"/>
     </row>
-    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="9"/>
       <c r="B598" s="9"/>
       <c r="C598" s="9"/>
@@ -18864,7 +18874,7 @@
       <c r="AA598" s="12"/>
       <c r="AB598" s="12"/>
     </row>
-    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="9"/>
       <c r="B599" s="9"/>
       <c r="C599" s="9"/>
@@ -18894,7 +18904,7 @@
       <c r="AA599" s="12"/>
       <c r="AB599" s="12"/>
     </row>
-    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="9"/>
       <c r="B600" s="9"/>
       <c r="C600" s="9"/>
@@ -18924,7 +18934,7 @@
       <c r="AA600" s="12"/>
       <c r="AB600" s="12"/>
     </row>
-    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="9"/>
       <c r="B601" s="9"/>
       <c r="C601" s="9"/>
@@ -18954,7 +18964,7 @@
       <c r="AA601" s="12"/>
       <c r="AB601" s="12"/>
     </row>
-    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="9"/>
       <c r="B602" s="9"/>
       <c r="C602" s="9"/>
@@ -18984,7 +18994,7 @@
       <c r="AA602" s="12"/>
       <c r="AB602" s="12"/>
     </row>
-    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="9"/>
       <c r="B603" s="9"/>
       <c r="C603" s="9"/>
@@ -19014,7 +19024,7 @@
       <c r="AA603" s="12"/>
       <c r="AB603" s="12"/>
     </row>
-    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="9"/>
       <c r="B604" s="9"/>
       <c r="C604" s="9"/>
@@ -19044,7 +19054,7 @@
       <c r="AA604" s="12"/>
       <c r="AB604" s="12"/>
     </row>
-    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="9"/>
       <c r="B605" s="9"/>
       <c r="C605" s="9"/>
@@ -19074,7 +19084,7 @@
       <c r="AA605" s="12"/>
       <c r="AB605" s="12"/>
     </row>
-    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="9"/>
       <c r="B606" s="9"/>
       <c r="C606" s="9"/>
@@ -19104,7 +19114,7 @@
       <c r="AA606" s="12"/>
       <c r="AB606" s="12"/>
     </row>
-    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="9"/>
       <c r="B607" s="9"/>
       <c r="C607" s="9"/>
@@ -19134,7 +19144,7 @@
       <c r="AA607" s="12"/>
       <c r="AB607" s="12"/>
     </row>
-    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="9"/>
       <c r="B608" s="9"/>
       <c r="C608" s="9"/>
@@ -19164,7 +19174,7 @@
       <c r="AA608" s="12"/>
       <c r="AB608" s="12"/>
     </row>
-    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="9"/>
       <c r="B609" s="9"/>
       <c r="C609" s="9"/>
@@ -19194,7 +19204,7 @@
       <c r="AA609" s="12"/>
       <c r="AB609" s="12"/>
     </row>
-    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="9"/>
       <c r="B610" s="9"/>
       <c r="C610" s="9"/>
@@ -19224,7 +19234,7 @@
       <c r="AA610" s="12"/>
       <c r="AB610" s="12"/>
     </row>
-    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="9"/>
       <c r="B611" s="9"/>
       <c r="C611" s="9"/>
@@ -19254,7 +19264,7 @@
       <c r="AA611" s="12"/>
       <c r="AB611" s="12"/>
     </row>
-    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="9"/>
       <c r="B612" s="9"/>
       <c r="C612" s="9"/>
@@ -19284,7 +19294,7 @@
       <c r="AA612" s="12"/>
       <c r="AB612" s="12"/>
     </row>
-    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="9"/>
       <c r="B613" s="9"/>
       <c r="C613" s="9"/>
@@ -19314,7 +19324,7 @@
       <c r="AA613" s="12"/>
       <c r="AB613" s="12"/>
     </row>
-    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="9"/>
       <c r="B614" s="9"/>
       <c r="C614" s="9"/>
@@ -19344,7 +19354,7 @@
       <c r="AA614" s="12"/>
       <c r="AB614" s="12"/>
     </row>
-    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="9"/>
       <c r="B615" s="9"/>
       <c r="C615" s="9"/>
@@ -19374,7 +19384,7 @@
       <c r="AA615" s="12"/>
       <c r="AB615" s="12"/>
     </row>
-    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="9"/>
       <c r="B616" s="9"/>
       <c r="C616" s="9"/>
@@ -19404,7 +19414,7 @@
       <c r="AA616" s="12"/>
       <c r="AB616" s="12"/>
     </row>
-    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="9"/>
       <c r="B617" s="9"/>
       <c r="C617" s="9"/>
@@ -19434,7 +19444,7 @@
       <c r="AA617" s="12"/>
       <c r="AB617" s="12"/>
     </row>
-    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="9"/>
       <c r="B618" s="9"/>
       <c r="C618" s="9"/>
@@ -19464,7 +19474,7 @@
       <c r="AA618" s="12"/>
       <c r="AB618" s="12"/>
     </row>
-    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="9"/>
       <c r="B619" s="9"/>
       <c r="C619" s="9"/>
@@ -19494,7 +19504,7 @@
       <c r="AA619" s="12"/>
       <c r="AB619" s="12"/>
     </row>
-    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="9"/>
       <c r="B620" s="9"/>
       <c r="C620" s="9"/>
@@ -19524,7 +19534,7 @@
       <c r="AA620" s="12"/>
       <c r="AB620" s="12"/>
     </row>
-    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="9"/>
       <c r="B621" s="9"/>
       <c r="C621" s="9"/>
@@ -19554,7 +19564,7 @@
       <c r="AA621" s="12"/>
       <c r="AB621" s="12"/>
     </row>
-    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="9"/>
       <c r="B622" s="9"/>
       <c r="C622" s="9"/>
@@ -19584,7 +19594,7 @@
       <c r="AA622" s="12"/>
       <c r="AB622" s="12"/>
     </row>
-    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="9"/>
       <c r="B623" s="9"/>
       <c r="C623" s="9"/>
@@ -19614,7 +19624,7 @@
       <c r="AA623" s="12"/>
       <c r="AB623" s="12"/>
     </row>
-    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="9"/>
       <c r="B624" s="9"/>
       <c r="C624" s="9"/>
@@ -19644,7 +19654,7 @@
       <c r="AA624" s="12"/>
       <c r="AB624" s="12"/>
     </row>
-    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="9"/>
       <c r="B625" s="9"/>
       <c r="C625" s="9"/>
@@ -19674,7 +19684,7 @@
       <c r="AA625" s="12"/>
       <c r="AB625" s="12"/>
     </row>
-    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="9"/>
       <c r="B626" s="9"/>
       <c r="C626" s="9"/>
@@ -19704,7 +19714,7 @@
       <c r="AA626" s="12"/>
       <c r="AB626" s="12"/>
     </row>
-    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="9"/>
       <c r="B627" s="9"/>
       <c r="C627" s="9"/>
@@ -19734,7 +19744,7 @@
       <c r="AA627" s="12"/>
       <c r="AB627" s="12"/>
     </row>
-    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="9"/>
       <c r="B628" s="9"/>
       <c r="C628" s="9"/>
@@ -19764,7 +19774,7 @@
       <c r="AA628" s="12"/>
       <c r="AB628" s="12"/>
     </row>
-    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="9"/>
       <c r="B629" s="9"/>
       <c r="C629" s="9"/>
@@ -19794,7 +19804,7 @@
       <c r="AA629" s="12"/>
       <c r="AB629" s="12"/>
     </row>
-    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="9"/>
       <c r="B630" s="9"/>
       <c r="C630" s="9"/>
@@ -19824,7 +19834,7 @@
       <c r="AA630" s="12"/>
       <c r="AB630" s="12"/>
     </row>
-    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="9"/>
       <c r="B631" s="9"/>
       <c r="C631" s="9"/>
@@ -19854,7 +19864,7 @@
       <c r="AA631" s="12"/>
       <c r="AB631" s="12"/>
     </row>
-    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="9"/>
       <c r="B632" s="9"/>
       <c r="C632" s="9"/>
@@ -19884,7 +19894,7 @@
       <c r="AA632" s="12"/>
       <c r="AB632" s="12"/>
     </row>
-    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="9"/>
       <c r="B633" s="9"/>
       <c r="C633" s="9"/>
@@ -19914,7 +19924,7 @@
       <c r="AA633" s="12"/>
       <c r="AB633" s="12"/>
     </row>
-    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="9"/>
       <c r="B634" s="9"/>
       <c r="C634" s="9"/>
@@ -19944,7 +19954,7 @@
       <c r="AA634" s="12"/>
       <c r="AB634" s="12"/>
     </row>
-    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="9"/>
       <c r="B635" s="9"/>
       <c r="C635" s="9"/>
@@ -19974,7 +19984,7 @@
       <c r="AA635" s="12"/>
       <c r="AB635" s="12"/>
     </row>
-    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="9"/>
       <c r="B636" s="9"/>
       <c r="C636" s="9"/>
@@ -20004,7 +20014,7 @@
       <c r="AA636" s="12"/>
       <c r="AB636" s="12"/>
     </row>
-    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="9"/>
       <c r="B637" s="9"/>
       <c r="C637" s="9"/>
@@ -20034,7 +20044,7 @@
       <c r="AA637" s="12"/>
       <c r="AB637" s="12"/>
     </row>
-    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="9"/>
       <c r="B638" s="9"/>
       <c r="C638" s="9"/>
@@ -20064,7 +20074,7 @@
       <c r="AA638" s="12"/>
       <c r="AB638" s="12"/>
     </row>
-    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="9"/>
       <c r="B639" s="9"/>
       <c r="C639" s="9"/>
@@ -20094,7 +20104,7 @@
       <c r="AA639" s="12"/>
       <c r="AB639" s="12"/>
     </row>
-    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="9"/>
       <c r="B640" s="9"/>
       <c r="C640" s="9"/>
@@ -20124,7 +20134,7 @@
       <c r="AA640" s="12"/>
       <c r="AB640" s="12"/>
     </row>
-    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="9"/>
       <c r="B641" s="9"/>
       <c r="C641" s="9"/>
@@ -20154,7 +20164,7 @@
       <c r="AA641" s="12"/>
       <c r="AB641" s="12"/>
     </row>
-    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="9"/>
       <c r="B642" s="9"/>
       <c r="C642" s="9"/>
@@ -20184,7 +20194,7 @@
       <c r="AA642" s="12"/>
       <c r="AB642" s="12"/>
     </row>
-    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="9"/>
       <c r="B643" s="9"/>
       <c r="C643" s="9"/>
@@ -20214,7 +20224,7 @@
       <c r="AA643" s="12"/>
       <c r="AB643" s="12"/>
     </row>
-    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="9"/>
       <c r="B644" s="9"/>
       <c r="C644" s="9"/>
@@ -20244,7 +20254,7 @@
       <c r="AA644" s="12"/>
       <c r="AB644" s="12"/>
     </row>
-    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="9"/>
       <c r="B645" s="9"/>
       <c r="C645" s="9"/>
@@ -20274,7 +20284,7 @@
       <c r="AA645" s="12"/>
       <c r="AB645" s="12"/>
     </row>
-    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="9"/>
       <c r="B646" s="9"/>
       <c r="C646" s="9"/>
@@ -20304,7 +20314,7 @@
       <c r="AA646" s="12"/>
       <c r="AB646" s="12"/>
     </row>
-    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="9"/>
       <c r="B647" s="9"/>
       <c r="C647" s="9"/>
@@ -20334,7 +20344,7 @@
       <c r="AA647" s="12"/>
       <c r="AB647" s="12"/>
     </row>
-    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="9"/>
       <c r="B648" s="9"/>
       <c r="C648" s="9"/>
@@ -20364,7 +20374,7 @@
       <c r="AA648" s="12"/>
       <c r="AB648" s="12"/>
     </row>
-    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="9"/>
       <c r="B649" s="9"/>
       <c r="C649" s="9"/>
@@ -20394,7 +20404,7 @@
       <c r="AA649" s="12"/>
       <c r="AB649" s="12"/>
     </row>
-    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="9"/>
       <c r="B650" s="9"/>
       <c r="C650" s="9"/>
@@ -20424,7 +20434,7 @@
       <c r="AA650" s="12"/>
       <c r="AB650" s="12"/>
     </row>
-    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="9"/>
       <c r="B651" s="9"/>
       <c r="C651" s="9"/>
@@ -20454,7 +20464,7 @@
       <c r="AA651" s="12"/>
       <c r="AB651" s="12"/>
     </row>
-    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="9"/>
       <c r="B652" s="9"/>
       <c r="C652" s="9"/>
@@ -20484,7 +20494,7 @@
       <c r="AA652" s="12"/>
       <c r="AB652" s="12"/>
     </row>
-    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="9"/>
       <c r="B653" s="9"/>
       <c r="C653" s="9"/>
@@ -20514,7 +20524,7 @@
       <c r="AA653" s="12"/>
       <c r="AB653" s="12"/>
     </row>
-    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="9"/>
       <c r="B654" s="9"/>
       <c r="C654" s="9"/>
@@ -20544,7 +20554,7 @@
       <c r="AA654" s="12"/>
       <c r="AB654" s="12"/>
     </row>
-    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="9"/>
       <c r="B655" s="9"/>
       <c r="C655" s="9"/>
@@ -20574,7 +20584,7 @@
       <c r="AA655" s="12"/>
       <c r="AB655" s="12"/>
     </row>
-    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="9"/>
       <c r="B656" s="9"/>
       <c r="C656" s="9"/>
@@ -20604,7 +20614,7 @@
       <c r="AA656" s="12"/>
       <c r="AB656" s="12"/>
     </row>
-    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="9"/>
       <c r="B657" s="9"/>
       <c r="C657" s="9"/>
@@ -20634,7 +20644,7 @@
       <c r="AA657" s="12"/>
       <c r="AB657" s="12"/>
     </row>
-    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="9"/>
       <c r="B658" s="9"/>
       <c r="C658" s="9"/>
@@ -20664,7 +20674,7 @@
       <c r="AA658" s="12"/>
       <c r="AB658" s="12"/>
     </row>
-    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="9"/>
       <c r="B659" s="9"/>
       <c r="C659" s="9"/>
@@ -20694,7 +20704,7 @@
       <c r="AA659" s="12"/>
       <c r="AB659" s="12"/>
     </row>
-    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="9"/>
       <c r="B660" s="9"/>
       <c r="C660" s="9"/>
@@ -20724,7 +20734,7 @@
       <c r="AA660" s="12"/>
       <c r="AB660" s="12"/>
     </row>
-    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="9"/>
       <c r="B661" s="9"/>
       <c r="C661" s="9"/>
@@ -20754,7 +20764,7 @@
       <c r="AA661" s="12"/>
       <c r="AB661" s="12"/>
     </row>
-    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="9"/>
       <c r="B662" s="9"/>
       <c r="C662" s="9"/>
@@ -20784,7 +20794,7 @@
       <c r="AA662" s="12"/>
       <c r="AB662" s="12"/>
     </row>
-    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="9"/>
       <c r="B663" s="9"/>
       <c r="C663" s="9"/>
@@ -20814,7 +20824,7 @@
       <c r="AA663" s="12"/>
       <c r="AB663" s="12"/>
     </row>
-    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="9"/>
       <c r="B664" s="9"/>
       <c r="C664" s="9"/>
@@ -20844,7 +20854,7 @@
       <c r="AA664" s="12"/>
       <c r="AB664" s="12"/>
     </row>
-    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="9"/>
       <c r="B665" s="9"/>
       <c r="C665" s="9"/>
@@ -20874,7 +20884,7 @@
       <c r="AA665" s="12"/>
       <c r="AB665" s="12"/>
     </row>
-    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="9"/>
       <c r="B666" s="9"/>
       <c r="C666" s="9"/>
@@ -20904,7 +20914,7 @@
       <c r="AA666" s="12"/>
       <c r="AB666" s="12"/>
     </row>
-    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="9"/>
       <c r="B667" s="9"/>
       <c r="C667" s="9"/>
@@ -20934,7 +20944,7 @@
       <c r="AA667" s="12"/>
       <c r="AB667" s="12"/>
     </row>
-    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="9"/>
       <c r="B668" s="9"/>
       <c r="C668" s="9"/>
@@ -20964,7 +20974,7 @@
       <c r="AA668" s="12"/>
       <c r="AB668" s="12"/>
     </row>
-    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="9"/>
       <c r="B669" s="9"/>
       <c r="C669" s="9"/>
@@ -20994,7 +21004,7 @@
       <c r="AA669" s="12"/>
       <c r="AB669" s="12"/>
     </row>
-    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="9"/>
       <c r="B670" s="9"/>
       <c r="C670" s="9"/>
@@ -21024,7 +21034,7 @@
       <c r="AA670" s="12"/>
       <c r="AB670" s="12"/>
     </row>
-    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="9"/>
       <c r="B671" s="9"/>
       <c r="C671" s="9"/>
@@ -21054,7 +21064,7 @@
       <c r="AA671" s="12"/>
       <c r="AB671" s="12"/>
     </row>
-    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="9"/>
       <c r="B672" s="9"/>
       <c r="C672" s="9"/>
@@ -21084,7 +21094,7 @@
       <c r="AA672" s="12"/>
       <c r="AB672" s="12"/>
     </row>
-    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="9"/>
       <c r="B673" s="9"/>
       <c r="C673" s="9"/>
@@ -21114,7 +21124,7 @@
       <c r="AA673" s="12"/>
       <c r="AB673" s="12"/>
     </row>
-    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="9"/>
       <c r="B674" s="9"/>
       <c r="C674" s="9"/>
@@ -21144,7 +21154,7 @@
       <c r="AA674" s="12"/>
       <c r="AB674" s="12"/>
     </row>
-    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="9"/>
       <c r="B675" s="9"/>
       <c r="C675" s="9"/>
@@ -21174,7 +21184,7 @@
       <c r="AA675" s="12"/>
       <c r="AB675" s="12"/>
     </row>
-    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="9"/>
       <c r="B676" s="9"/>
       <c r="C676" s="9"/>
@@ -21204,7 +21214,7 @@
       <c r="AA676" s="12"/>
       <c r="AB676" s="12"/>
     </row>
-    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="9"/>
       <c r="B677" s="9"/>
       <c r="C677" s="9"/>
@@ -21234,7 +21244,7 @@
       <c r="AA677" s="12"/>
       <c r="AB677" s="12"/>
     </row>
-    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="9"/>
       <c r="B678" s="9"/>
       <c r="C678" s="9"/>
@@ -21264,7 +21274,7 @@
       <c r="AA678" s="12"/>
       <c r="AB678" s="12"/>
     </row>
-    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="9"/>
       <c r="B679" s="9"/>
       <c r="C679" s="9"/>
@@ -21294,7 +21304,7 @@
       <c r="AA679" s="12"/>
       <c r="AB679" s="12"/>
     </row>
-    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="9"/>
       <c r="B680" s="9"/>
       <c r="C680" s="9"/>
@@ -21324,7 +21334,7 @@
       <c r="AA680" s="12"/>
       <c r="AB680" s="12"/>
     </row>
-    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="9"/>
       <c r="B681" s="9"/>
       <c r="C681" s="9"/>
@@ -21354,7 +21364,7 @@
       <c r="AA681" s="12"/>
       <c r="AB681" s="12"/>
     </row>
-    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="9"/>
       <c r="B682" s="9"/>
       <c r="C682" s="9"/>
@@ -21384,7 +21394,7 @@
       <c r="AA682" s="12"/>
       <c r="AB682" s="12"/>
     </row>
-    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="9"/>
       <c r="B683" s="9"/>
       <c r="C683" s="9"/>
@@ -21414,7 +21424,7 @@
       <c r="AA683" s="12"/>
       <c r="AB683" s="12"/>
     </row>
-    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="9"/>
       <c r="B684" s="9"/>
       <c r="C684" s="9"/>
@@ -21444,7 +21454,7 @@
       <c r="AA684" s="12"/>
       <c r="AB684" s="12"/>
     </row>
-    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="9"/>
       <c r="B685" s="9"/>
       <c r="C685" s="9"/>
@@ -21474,7 +21484,7 @@
       <c r="AA685" s="12"/>
       <c r="AB685" s="12"/>
     </row>
-    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="9"/>
       <c r="B686" s="9"/>
       <c r="C686" s="9"/>
@@ -21504,7 +21514,7 @@
       <c r="AA686" s="12"/>
       <c r="AB686" s="12"/>
     </row>
-    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="9"/>
       <c r="B687" s="9"/>
       <c r="C687" s="9"/>
@@ -21534,7 +21544,7 @@
       <c r="AA687" s="12"/>
       <c r="AB687" s="12"/>
     </row>
-    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="9"/>
       <c r="B688" s="9"/>
       <c r="C688" s="9"/>
@@ -21564,7 +21574,7 @@
       <c r="AA688" s="12"/>
       <c r="AB688" s="12"/>
     </row>
-    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="9"/>
       <c r="B689" s="9"/>
       <c r="C689" s="9"/>
@@ -21594,7 +21604,7 @@
       <c r="AA689" s="12"/>
       <c r="AB689" s="12"/>
     </row>
-    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="9"/>
       <c r="B690" s="9"/>
       <c r="C690" s="9"/>
@@ -21624,7 +21634,7 @@
       <c r="AA690" s="12"/>
       <c r="AB690" s="12"/>
     </row>
-    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="9"/>
       <c r="B691" s="9"/>
       <c r="C691" s="9"/>
@@ -21654,7 +21664,7 @@
       <c r="AA691" s="12"/>
       <c r="AB691" s="12"/>
     </row>
-    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="9"/>
       <c r="B692" s="9"/>
       <c r="C692" s="9"/>
@@ -21684,7 +21694,7 @@
       <c r="AA692" s="12"/>
       <c r="AB692" s="12"/>
     </row>
-    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="9"/>
       <c r="B693" s="9"/>
       <c r="C693" s="9"/>
@@ -21714,7 +21724,7 @@
       <c r="AA693" s="12"/>
       <c r="AB693" s="12"/>
     </row>
-    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="9"/>
       <c r="B694" s="9"/>
       <c r="C694" s="9"/>
@@ -21744,7 +21754,7 @@
       <c r="AA694" s="12"/>
       <c r="AB694" s="12"/>
     </row>
-    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="9"/>
       <c r="B695" s="9"/>
       <c r="C695" s="9"/>
@@ -21774,7 +21784,7 @@
       <c r="AA695" s="12"/>
       <c r="AB695" s="12"/>
     </row>
-    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="9"/>
       <c r="B696" s="9"/>
       <c r="C696" s="9"/>
@@ -21804,7 +21814,7 @@
       <c r="AA696" s="12"/>
       <c r="AB696" s="12"/>
     </row>
-    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="9"/>
       <c r="B697" s="9"/>
       <c r="C697" s="9"/>
@@ -21834,7 +21844,7 @@
       <c r="AA697" s="12"/>
       <c r="AB697" s="12"/>
     </row>
-    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="9"/>
       <c r="B698" s="9"/>
       <c r="C698" s="9"/>
@@ -21864,7 +21874,7 @@
       <c r="AA698" s="12"/>
       <c r="AB698" s="12"/>
     </row>
-    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="9"/>
       <c r="B699" s="9"/>
       <c r="C699" s="9"/>
@@ -21894,7 +21904,7 @@
       <c r="AA699" s="12"/>
       <c r="AB699" s="12"/>
     </row>
-    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="9"/>
       <c r="B700" s="9"/>
       <c r="C700" s="9"/>
@@ -21924,7 +21934,7 @@
       <c r="AA700" s="12"/>
       <c r="AB700" s="12"/>
     </row>
-    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="9"/>
       <c r="B701" s="9"/>
       <c r="C701" s="9"/>
@@ -21954,7 +21964,7 @@
       <c r="AA701" s="12"/>
       <c r="AB701" s="12"/>
     </row>
-    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="9"/>
       <c r="B702" s="9"/>
       <c r="C702" s="9"/>
@@ -21984,7 +21994,7 @@
       <c r="AA702" s="12"/>
       <c r="AB702" s="12"/>
     </row>
-    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="9"/>
       <c r="B703" s="9"/>
       <c r="C703" s="9"/>
@@ -22014,7 +22024,7 @@
       <c r="AA703" s="12"/>
       <c r="AB703" s="12"/>
     </row>
-    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="9"/>
       <c r="B704" s="9"/>
       <c r="C704" s="9"/>
@@ -22044,7 +22054,7 @@
       <c r="AA704" s="12"/>
       <c r="AB704" s="12"/>
     </row>
-    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="9"/>
       <c r="B705" s="9"/>
       <c r="C705" s="9"/>
@@ -22074,7 +22084,7 @@
       <c r="AA705" s="12"/>
       <c r="AB705" s="12"/>
     </row>
-    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="9"/>
       <c r="B706" s="9"/>
       <c r="C706" s="9"/>
@@ -22104,7 +22114,7 @@
       <c r="AA706" s="12"/>
       <c r="AB706" s="12"/>
     </row>
-    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="9"/>
       <c r="B707" s="9"/>
       <c r="C707" s="9"/>
@@ -22134,7 +22144,7 @@
       <c r="AA707" s="12"/>
       <c r="AB707" s="12"/>
     </row>
-    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="9"/>
       <c r="B708" s="9"/>
       <c r="C708" s="9"/>
@@ -22164,7 +22174,7 @@
       <c r="AA708" s="12"/>
       <c r="AB708" s="12"/>
     </row>
-    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="9"/>
       <c r="B709" s="9"/>
       <c r="C709" s="9"/>
@@ -22194,7 +22204,7 @@
       <c r="AA709" s="12"/>
       <c r="AB709" s="12"/>
     </row>
-    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="9"/>
       <c r="B710" s="9"/>
       <c r="C710" s="9"/>
@@ -22224,7 +22234,7 @@
       <c r="AA710" s="12"/>
       <c r="AB710" s="12"/>
     </row>
-    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="9"/>
       <c r="B711" s="9"/>
       <c r="C711" s="9"/>
@@ -22254,7 +22264,7 @@
       <c r="AA711" s="12"/>
       <c r="AB711" s="12"/>
     </row>
-    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="9"/>
       <c r="B712" s="9"/>
       <c r="C712" s="9"/>
@@ -22284,7 +22294,7 @@
       <c r="AA712" s="12"/>
       <c r="AB712" s="12"/>
     </row>
-    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="9"/>
       <c r="B713" s="9"/>
       <c r="C713" s="9"/>
@@ -22314,7 +22324,7 @@
       <c r="AA713" s="12"/>
       <c r="AB713" s="12"/>
     </row>
-    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="9"/>
       <c r="B714" s="9"/>
       <c r="C714" s="9"/>
@@ -22344,7 +22354,7 @@
       <c r="AA714" s="12"/>
       <c r="AB714" s="12"/>
     </row>
-    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="9"/>
       <c r="B715" s="9"/>
       <c r="C715" s="9"/>
@@ -22374,7 +22384,7 @@
       <c r="AA715" s="12"/>
       <c r="AB715" s="12"/>
     </row>
-    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="9"/>
       <c r="B716" s="9"/>
       <c r="C716" s="9"/>
@@ -22404,7 +22414,7 @@
       <c r="AA716" s="12"/>
       <c r="AB716" s="12"/>
     </row>
-    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="9"/>
       <c r="B717" s="9"/>
       <c r="C717" s="9"/>
@@ -22434,7 +22444,7 @@
       <c r="AA717" s="12"/>
       <c r="AB717" s="12"/>
     </row>
-    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="9"/>
       <c r="B718" s="9"/>
       <c r="C718" s="9"/>
@@ -22464,7 +22474,7 @@
       <c r="AA718" s="12"/>
       <c r="AB718" s="12"/>
     </row>
-    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="9"/>
       <c r="B719" s="9"/>
       <c r="C719" s="9"/>
@@ -22494,7 +22504,7 @@
       <c r="AA719" s="12"/>
       <c r="AB719" s="12"/>
     </row>
-    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="9"/>
       <c r="B720" s="9"/>
       <c r="C720" s="9"/>
@@ -22524,7 +22534,7 @@
       <c r="AA720" s="12"/>
       <c r="AB720" s="12"/>
     </row>
-    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="9"/>
       <c r="B721" s="9"/>
       <c r="C721" s="9"/>
@@ -22554,7 +22564,7 @@
       <c r="AA721" s="12"/>
       <c r="AB721" s="12"/>
     </row>
-    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="9"/>
       <c r="B722" s="9"/>
       <c r="C722" s="9"/>
@@ -22584,7 +22594,7 @@
       <c r="AA722" s="12"/>
       <c r="AB722" s="12"/>
     </row>
-    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="9"/>
       <c r="B723" s="9"/>
       <c r="C723" s="9"/>
@@ -22614,7 +22624,7 @@
       <c r="AA723" s="12"/>
       <c r="AB723" s="12"/>
     </row>
-    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="9"/>
       <c r="B724" s="9"/>
       <c r="C724" s="9"/>
@@ -22644,7 +22654,7 @@
       <c r="AA724" s="12"/>
       <c r="AB724" s="12"/>
     </row>
-    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="9"/>
       <c r="B725" s="9"/>
       <c r="C725" s="9"/>
@@ -22674,7 +22684,7 @@
       <c r="AA725" s="12"/>
       <c r="AB725" s="12"/>
     </row>
-    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="9"/>
       <c r="B726" s="9"/>
       <c r="C726" s="9"/>
@@ -22704,7 +22714,7 @@
       <c r="AA726" s="12"/>
       <c r="AB726" s="12"/>
     </row>
-    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="9"/>
       <c r="B727" s="9"/>
       <c r="C727" s="9"/>
@@ -22734,7 +22744,7 @@
       <c r="AA727" s="12"/>
       <c r="AB727" s="12"/>
     </row>
-    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="9"/>
       <c r="B728" s="9"/>
       <c r="C728" s="9"/>
@@ -22764,7 +22774,7 @@
       <c r="AA728" s="12"/>
       <c r="AB728" s="12"/>
     </row>
-    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="9"/>
       <c r="B729" s="9"/>
       <c r="C729" s="9"/>
@@ -22794,7 +22804,7 @@
       <c r="AA729" s="12"/>
       <c r="AB729" s="12"/>
     </row>
-    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="9"/>
       <c r="B730" s="9"/>
       <c r="C730" s="9"/>
@@ -22824,7 +22834,7 @@
       <c r="AA730" s="12"/>
       <c r="AB730" s="12"/>
     </row>
-    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="9"/>
       <c r="B731" s="9"/>
       <c r="C731" s="9"/>
@@ -22854,7 +22864,7 @@
       <c r="AA731" s="12"/>
       <c r="AB731" s="12"/>
     </row>
-    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="9"/>
       <c r="B732" s="9"/>
       <c r="C732" s="9"/>
@@ -22884,7 +22894,7 @@
       <c r="AA732" s="12"/>
       <c r="AB732" s="12"/>
     </row>
-    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="9"/>
       <c r="B733" s="9"/>
       <c r="C733" s="9"/>
@@ -22914,7 +22924,7 @@
       <c r="AA733" s="12"/>
       <c r="AB733" s="12"/>
     </row>
-    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="9"/>
       <c r="B734" s="9"/>
       <c r="C734" s="9"/>
@@ -22944,7 +22954,7 @@
       <c r="AA734" s="12"/>
       <c r="AB734" s="12"/>
     </row>
-    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="9"/>
       <c r="B735" s="9"/>
       <c r="C735" s="9"/>
@@ -22974,7 +22984,7 @@
       <c r="AA735" s="12"/>
       <c r="AB735" s="12"/>
     </row>
-    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="9"/>
       <c r="B736" s="9"/>
       <c r="C736" s="9"/>
@@ -23004,7 +23014,7 @@
       <c r="AA736" s="12"/>
       <c r="AB736" s="12"/>
     </row>
-    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="9"/>
       <c r="B737" s="9"/>
       <c r="C737" s="9"/>
@@ -23034,7 +23044,7 @@
       <c r="AA737" s="12"/>
       <c r="AB737" s="12"/>
     </row>
-    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="9"/>
       <c r="B738" s="9"/>
       <c r="C738" s="9"/>
@@ -23064,7 +23074,7 @@
       <c r="AA738" s="12"/>
       <c r="AB738" s="12"/>
     </row>
-    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="9"/>
       <c r="B739" s="9"/>
       <c r="C739" s="9"/>
@@ -23094,7 +23104,7 @@
       <c r="AA739" s="12"/>
       <c r="AB739" s="12"/>
     </row>
-    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="9"/>
       <c r="B740" s="9"/>
       <c r="C740" s="9"/>
@@ -23124,7 +23134,7 @@
       <c r="AA740" s="12"/>
       <c r="AB740" s="12"/>
     </row>
-    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="9"/>
       <c r="B741" s="9"/>
       <c r="C741" s="9"/>
@@ -23154,7 +23164,7 @@
       <c r="AA741" s="12"/>
       <c r="AB741" s="12"/>
     </row>
-    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="9"/>
       <c r="B742" s="9"/>
       <c r="C742" s="9"/>
@@ -23184,7 +23194,7 @@
       <c r="AA742" s="12"/>
       <c r="AB742" s="12"/>
     </row>
-    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="9"/>
       <c r="B743" s="9"/>
       <c r="C743" s="9"/>
@@ -23214,7 +23224,7 @@
       <c r="AA743" s="12"/>
       <c r="AB743" s="12"/>
     </row>
-    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="9"/>
       <c r="B744" s="9"/>
       <c r="C744" s="9"/>
@@ -23244,7 +23254,7 @@
       <c r="AA744" s="12"/>
       <c r="AB744" s="12"/>
     </row>
-    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="9"/>
       <c r="B745" s="9"/>
       <c r="C745" s="9"/>
@@ -23274,7 +23284,7 @@
       <c r="AA745" s="12"/>
       <c r="AB745" s="12"/>
     </row>
-    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="9"/>
       <c r="B746" s="9"/>
       <c r="C746" s="9"/>
@@ -23304,7 +23314,7 @@
       <c r="AA746" s="12"/>
       <c r="AB746" s="12"/>
     </row>
-    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="9"/>
       <c r="B747" s="9"/>
       <c r="C747" s="9"/>
@@ -23334,7 +23344,7 @@
       <c r="AA747" s="12"/>
       <c r="AB747" s="12"/>
     </row>
-    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="9"/>
       <c r="B748" s="9"/>
       <c r="C748" s="9"/>
@@ -23364,7 +23374,7 @@
       <c r="AA748" s="12"/>
       <c r="AB748" s="12"/>
     </row>
-    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="9"/>
       <c r="B749" s="9"/>
       <c r="C749" s="9"/>
@@ -23394,7 +23404,7 @@
       <c r="AA749" s="12"/>
       <c r="AB749" s="12"/>
     </row>
-    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="9"/>
       <c r="B750" s="9"/>
       <c r="C750" s="9"/>
@@ -23424,7 +23434,7 @@
       <c r="AA750" s="12"/>
       <c r="AB750" s="12"/>
     </row>
-    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="9"/>
       <c r="B751" s="9"/>
       <c r="C751" s="9"/>
@@ -23454,7 +23464,7 @@
       <c r="AA751" s="12"/>
       <c r="AB751" s="12"/>
     </row>
-    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="9"/>
       <c r="B752" s="9"/>
       <c r="C752" s="9"/>
@@ -23484,7 +23494,7 @@
       <c r="AA752" s="12"/>
       <c r="AB752" s="12"/>
     </row>
-    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="9"/>
       <c r="B753" s="9"/>
       <c r="C753" s="9"/>
@@ -23514,7 +23524,7 @@
       <c r="AA753" s="12"/>
       <c r="AB753" s="12"/>
     </row>
-    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="9"/>
       <c r="B754" s="9"/>
       <c r="C754" s="9"/>
@@ -23544,7 +23554,7 @@
       <c r="AA754" s="12"/>
       <c r="AB754" s="12"/>
     </row>
-    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="9"/>
       <c r="B755" s="9"/>
       <c r="C755" s="9"/>
@@ -23574,7 +23584,7 @@
       <c r="AA755" s="12"/>
       <c r="AB755" s="12"/>
     </row>
-    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="9"/>
       <c r="B756" s="9"/>
       <c r="C756" s="9"/>
@@ -23604,7 +23614,7 @@
       <c r="AA756" s="12"/>
       <c r="AB756" s="12"/>
     </row>
-    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="9"/>
       <c r="B757" s="9"/>
       <c r="C757" s="9"/>
@@ -23634,7 +23644,7 @@
       <c r="AA757" s="12"/>
       <c r="AB757" s="12"/>
     </row>
-    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="9"/>
       <c r="B758" s="9"/>
       <c r="C758" s="9"/>
@@ -23664,7 +23674,7 @@
       <c r="AA758" s="12"/>
       <c r="AB758" s="12"/>
     </row>
-    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="9"/>
       <c r="B759" s="9"/>
       <c r="C759" s="9"/>
@@ -23694,7 +23704,7 @@
       <c r="AA759" s="12"/>
       <c r="AB759" s="12"/>
     </row>
-    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="9"/>
       <c r="B760" s="9"/>
       <c r="C760" s="9"/>
@@ -23724,7 +23734,7 @@
       <c r="AA760" s="12"/>
       <c r="AB760" s="12"/>
     </row>
-    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="9"/>
       <c r="B761" s="9"/>
       <c r="C761" s="9"/>
@@ -23754,7 +23764,7 @@
       <c r="AA761" s="12"/>
       <c r="AB761" s="12"/>
     </row>
-    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="9"/>
       <c r="B762" s="9"/>
       <c r="C762" s="9"/>
@@ -23784,7 +23794,7 @@
       <c r="AA762" s="12"/>
       <c r="AB762" s="12"/>
     </row>
-    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="9"/>
       <c r="B763" s="9"/>
       <c r="C763" s="9"/>
@@ -23814,7 +23824,7 @@
       <c r="AA763" s="12"/>
       <c r="AB763" s="12"/>
     </row>
-    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="9"/>
       <c r="B764" s="9"/>
       <c r="C764" s="9"/>
@@ -23844,7 +23854,7 @@
       <c r="AA764" s="12"/>
       <c r="AB764" s="12"/>
     </row>
-    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="9"/>
       <c r="B765" s="9"/>
       <c r="C765" s="9"/>
@@ -23874,7 +23884,7 @@
       <c r="AA765" s="12"/>
       <c r="AB765" s="12"/>
     </row>
-    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="9"/>
       <c r="B766" s="9"/>
       <c r="C766" s="9"/>
@@ -23904,7 +23914,7 @@
       <c r="AA766" s="12"/>
       <c r="AB766" s="12"/>
     </row>
-    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="9"/>
       <c r="B767" s="9"/>
       <c r="C767" s="9"/>
@@ -23934,7 +23944,7 @@
       <c r="AA767" s="12"/>
       <c r="AB767" s="12"/>
     </row>
-    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="9"/>
       <c r="B768" s="9"/>
       <c r="C768" s="9"/>
@@ -23964,7 +23974,7 @@
       <c r="AA768" s="12"/>
       <c r="AB768" s="12"/>
     </row>
-    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="9"/>
       <c r="B769" s="9"/>
       <c r="C769" s="9"/>
@@ -23994,7 +24004,7 @@
       <c r="AA769" s="12"/>
       <c r="AB769" s="12"/>
     </row>
-    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="9"/>
       <c r="B770" s="9"/>
       <c r="C770" s="9"/>
@@ -24024,7 +24034,7 @@
       <c r="AA770" s="12"/>
       <c r="AB770" s="12"/>
     </row>
-    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="9"/>
       <c r="B771" s="9"/>
       <c r="C771" s="9"/>
@@ -24054,7 +24064,7 @@
       <c r="AA771" s="12"/>
       <c r="AB771" s="12"/>
     </row>
-    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="9"/>
       <c r="B772" s="9"/>
       <c r="C772" s="9"/>
@@ -24084,7 +24094,7 @@
       <c r="AA772" s="12"/>
       <c r="AB772" s="12"/>
     </row>
-    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="9"/>
       <c r="B773" s="9"/>
       <c r="C773" s="9"/>
@@ -24114,7 +24124,7 @@
       <c r="AA773" s="12"/>
       <c r="AB773" s="12"/>
     </row>
-    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="9"/>
       <c r="B774" s="9"/>
       <c r="C774" s="9"/>
@@ -24144,7 +24154,7 @@
       <c r="AA774" s="12"/>
       <c r="AB774" s="12"/>
     </row>
-    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="9"/>
       <c r="B775" s="9"/>
       <c r="C775" s="9"/>
@@ -24174,7 +24184,7 @@
       <c r="AA775" s="12"/>
       <c r="AB775" s="12"/>
     </row>
-    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="9"/>
       <c r="B776" s="9"/>
       <c r="C776" s="9"/>
@@ -24204,7 +24214,7 @@
       <c r="AA776" s="12"/>
       <c r="AB776" s="12"/>
     </row>
-    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="9"/>
       <c r="B777" s="9"/>
       <c r="C777" s="9"/>
@@ -24234,7 +24244,7 @@
       <c r="AA777" s="12"/>
       <c r="AB777" s="12"/>
     </row>
-    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="9"/>
       <c r="B778" s="9"/>
       <c r="C778" s="9"/>
@@ -24264,7 +24274,7 @@
       <c r="AA778" s="12"/>
       <c r="AB778" s="12"/>
     </row>
-    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="9"/>
       <c r="B779" s="9"/>
       <c r="C779" s="9"/>
@@ -24294,7 +24304,7 @@
       <c r="AA779" s="12"/>
       <c r="AB779" s="12"/>
     </row>
-    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="9"/>
       <c r="B780" s="9"/>
       <c r="C780" s="9"/>
@@ -24324,7 +24334,7 @@
       <c r="AA780" s="12"/>
       <c r="AB780" s="12"/>
     </row>
-    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="9"/>
       <c r="B781" s="9"/>
       <c r="C781" s="9"/>
@@ -24354,7 +24364,7 @@
       <c r="AA781" s="12"/>
       <c r="AB781" s="12"/>
     </row>
-    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="9"/>
       <c r="B782" s="9"/>
       <c r="C782" s="9"/>
@@ -24384,7 +24394,7 @@
       <c r="AA782" s="12"/>
       <c r="AB782" s="12"/>
     </row>
-    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="9"/>
       <c r="B783" s="9"/>
       <c r="C783" s="9"/>
@@ -24414,7 +24424,7 @@
       <c r="AA783" s="12"/>
       <c r="AB783" s="12"/>
     </row>
-    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="9"/>
       <c r="B784" s="9"/>
       <c r="C784" s="9"/>
@@ -24444,7 +24454,7 @@
       <c r="AA784" s="12"/>
       <c r="AB784" s="12"/>
     </row>
-    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="9"/>
       <c r="B785" s="9"/>
       <c r="C785" s="9"/>
@@ -24474,7 +24484,7 @@
       <c r="AA785" s="12"/>
       <c r="AB785" s="12"/>
     </row>
-    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="9"/>
       <c r="B786" s="9"/>
       <c r="C786" s="9"/>
@@ -24504,7 +24514,7 @@
       <c r="AA786" s="12"/>
       <c r="AB786" s="12"/>
     </row>
-    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="9"/>
       <c r="B787" s="9"/>
       <c r="C787" s="9"/>
@@ -24534,7 +24544,7 @@
       <c r="AA787" s="12"/>
       <c r="AB787" s="12"/>
     </row>
-    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="9"/>
       <c r="B788" s="9"/>
       <c r="C788" s="9"/>
@@ -24564,7 +24574,7 @@
       <c r="AA788" s="12"/>
       <c r="AB788" s="12"/>
     </row>
-    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="9"/>
       <c r="B789" s="9"/>
       <c r="C789" s="9"/>
@@ -24594,7 +24604,7 @@
       <c r="AA789" s="12"/>
       <c r="AB789" s="12"/>
     </row>
-    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="9"/>
       <c r="B790" s="9"/>
       <c r="C790" s="9"/>
@@ -24624,7 +24634,7 @@
       <c r="AA790" s="12"/>
       <c r="AB790" s="12"/>
     </row>
-    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="9"/>
       <c r="B791" s="9"/>
       <c r="C791" s="9"/>
@@ -24654,7 +24664,7 @@
       <c r="AA791" s="12"/>
       <c r="AB791" s="12"/>
     </row>
-    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="9"/>
       <c r="B792" s="9"/>
       <c r="C792" s="9"/>
@@ -24684,7 +24694,7 @@
       <c r="AA792" s="12"/>
       <c r="AB792" s="12"/>
     </row>
-    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="9"/>
       <c r="B793" s="9"/>
       <c r="C793" s="9"/>
@@ -24714,7 +24724,7 @@
       <c r="AA793" s="12"/>
       <c r="AB793" s="12"/>
     </row>
-    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="9"/>
       <c r="B794" s="9"/>
       <c r="C794" s="9"/>
@@ -24744,7 +24754,7 @@
       <c r="AA794" s="12"/>
       <c r="AB794" s="12"/>
     </row>
-    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="9"/>
       <c r="B795" s="9"/>
       <c r="C795" s="9"/>
@@ -24774,7 +24784,7 @@
       <c r="AA795" s="12"/>
       <c r="AB795" s="12"/>
     </row>
-    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="9"/>
       <c r="B796" s="9"/>
       <c r="C796" s="9"/>
@@ -24804,7 +24814,7 @@
       <c r="AA796" s="12"/>
       <c r="AB796" s="12"/>
     </row>
-    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="9"/>
       <c r="B797" s="9"/>
       <c r="C797" s="9"/>
@@ -24834,7 +24844,7 @@
       <c r="AA797" s="12"/>
       <c r="AB797" s="12"/>
     </row>
-    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="9"/>
       <c r="B798" s="9"/>
       <c r="C798" s="9"/>
@@ -24864,7 +24874,7 @@
       <c r="AA798" s="12"/>
       <c r="AB798" s="12"/>
     </row>
-    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="9"/>
       <c r="B799" s="9"/>
       <c r="C799" s="9"/>
@@ -24894,7 +24904,7 @@
       <c r="AA799" s="12"/>
       <c r="AB799" s="12"/>
     </row>
-    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="9"/>
       <c r="B800" s="9"/>
       <c r="C800" s="9"/>
@@ -24924,7 +24934,7 @@
       <c r="AA800" s="12"/>
       <c r="AB800" s="12"/>
     </row>
-    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="9"/>
       <c r="B801" s="9"/>
       <c r="C801" s="9"/>
@@ -24954,7 +24964,7 @@
       <c r="AA801" s="12"/>
       <c r="AB801" s="12"/>
     </row>
-    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="9"/>
       <c r="B802" s="9"/>
       <c r="C802" s="9"/>
@@ -24984,7 +24994,7 @@
       <c r="AA802" s="12"/>
       <c r="AB802" s="12"/>
     </row>
-    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="9"/>
       <c r="B803" s="9"/>
       <c r="C803" s="9"/>
@@ -25014,7 +25024,7 @@
       <c r="AA803" s="12"/>
       <c r="AB803" s="12"/>
     </row>
-    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="9"/>
       <c r="B804" s="9"/>
       <c r="C804" s="9"/>
@@ -25044,7 +25054,7 @@
       <c r="AA804" s="12"/>
       <c r="AB804" s="12"/>
     </row>
-    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="9"/>
       <c r="B805" s="9"/>
       <c r="C805" s="9"/>
@@ -25074,7 +25084,7 @@
       <c r="AA805" s="12"/>
       <c r="AB805" s="12"/>
     </row>
-    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="9"/>
       <c r="B806" s="9"/>
       <c r="C806" s="9"/>
@@ -25104,7 +25114,7 @@
       <c r="AA806" s="12"/>
       <c r="AB806" s="12"/>
     </row>
-    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="9"/>
       <c r="B807" s="9"/>
       <c r="C807" s="9"/>
@@ -25134,7 +25144,7 @@
       <c r="AA807" s="12"/>
       <c r="AB807" s="12"/>
     </row>
-    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="9"/>
       <c r="B808" s="9"/>
       <c r="C808" s="9"/>
@@ -25164,7 +25174,7 @@
       <c r="AA808" s="12"/>
       <c r="AB808" s="12"/>
     </row>
-    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="9"/>
       <c r="B809" s="9"/>
       <c r="C809" s="9"/>
@@ -25194,7 +25204,7 @@
       <c r="AA809" s="12"/>
       <c r="AB809" s="12"/>
     </row>
-    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="9"/>
       <c r="B810" s="9"/>
       <c r="C810" s="9"/>
@@ -25224,7 +25234,7 @@
       <c r="AA810" s="12"/>
       <c r="AB810" s="12"/>
     </row>
-    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="9"/>
       <c r="B811" s="9"/>
       <c r="C811" s="9"/>
@@ -25254,7 +25264,7 @@
       <c r="AA811" s="12"/>
       <c r="AB811" s="12"/>
     </row>
-    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="9"/>
       <c r="B812" s="9"/>
       <c r="C812" s="9"/>
@@ -25284,7 +25294,7 @@
       <c r="AA812" s="12"/>
       <c r="AB812" s="12"/>
     </row>
-    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="9"/>
       <c r="B813" s="9"/>
       <c r="C813" s="9"/>
@@ -25314,7 +25324,7 @@
       <c r="AA813" s="12"/>
       <c r="AB813" s="12"/>
     </row>
-    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="9"/>
       <c r="B814" s="9"/>
       <c r="C814" s="9"/>
@@ -25344,7 +25354,7 @@
       <c r="AA814" s="12"/>
       <c r="AB814" s="12"/>
     </row>
-    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="9"/>
       <c r="B815" s="9"/>
       <c r="C815" s="9"/>
@@ -25374,7 +25384,7 @@
       <c r="AA815" s="12"/>
       <c r="AB815" s="12"/>
     </row>
-    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="9"/>
       <c r="B816" s="9"/>
       <c r="C816" s="9"/>
@@ -25404,7 +25414,7 @@
       <c r="AA816" s="12"/>
       <c r="AB816" s="12"/>
     </row>
-    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="9"/>
       <c r="B817" s="9"/>
       <c r="C817" s="9"/>
@@ -25434,7 +25444,7 @@
       <c r="AA817" s="12"/>
       <c r="AB817" s="12"/>
     </row>
-    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="9"/>
       <c r="B818" s="9"/>
       <c r="C818" s="9"/>
@@ -25464,7 +25474,7 @@
       <c r="AA818" s="12"/>
       <c r="AB818" s="12"/>
     </row>
-    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="9"/>
       <c r="B819" s="9"/>
       <c r="C819" s="9"/>
@@ -25494,7 +25504,7 @@
       <c r="AA819" s="12"/>
       <c r="AB819" s="12"/>
     </row>
-    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="9"/>
       <c r="B820" s="9"/>
       <c r="C820" s="9"/>
@@ -25524,7 +25534,7 @@
       <c r="AA820" s="12"/>
       <c r="AB820" s="12"/>
     </row>
-    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="9"/>
       <c r="B821" s="9"/>
       <c r="C821" s="9"/>
@@ -25554,7 +25564,7 @@
       <c r="AA821" s="12"/>
       <c r="AB821" s="12"/>
     </row>
-    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="9"/>
       <c r="B822" s="9"/>
       <c r="C822" s="9"/>
@@ -25584,7 +25594,7 @@
       <c r="AA822" s="12"/>
       <c r="AB822" s="12"/>
     </row>
-    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="9"/>
       <c r="B823" s="9"/>
       <c r="C823" s="9"/>
@@ -25614,7 +25624,7 @@
       <c r="AA823" s="12"/>
       <c r="AB823" s="12"/>
     </row>
-    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="9"/>
       <c r="B824" s="9"/>
       <c r="C824" s="9"/>
@@ -25644,7 +25654,7 @@
       <c r="AA824" s="12"/>
       <c r="AB824" s="12"/>
     </row>
-    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="9"/>
       <c r="B825" s="9"/>
       <c r="C825" s="9"/>
@@ -25674,7 +25684,7 @@
       <c r="AA825" s="12"/>
       <c r="AB825" s="12"/>
     </row>
-    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="9"/>
       <c r="B826" s="9"/>
       <c r="C826" s="9"/>
@@ -25704,7 +25714,7 @@
       <c r="AA826" s="12"/>
       <c r="AB826" s="12"/>
     </row>
-    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="9"/>
       <c r="B827" s="9"/>
       <c r="C827" s="9"/>
@@ -25734,7 +25744,7 @@
       <c r="AA827" s="12"/>
       <c r="AB827" s="12"/>
     </row>
-    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="9"/>
       <c r="B828" s="9"/>
       <c r="C828" s="9"/>
@@ -25764,7 +25774,7 @@
       <c r="AA828" s="12"/>
       <c r="AB828" s="12"/>
     </row>
-    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="9"/>
       <c r="B829" s="9"/>
       <c r="C829" s="9"/>
@@ -25794,7 +25804,7 @@
       <c r="AA829" s="12"/>
       <c r="AB829" s="12"/>
     </row>
-    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="9"/>
       <c r="B830" s="9"/>
       <c r="C830" s="9"/>
@@ -25824,7 +25834,7 @@
       <c r="AA830" s="12"/>
       <c r="AB830" s="12"/>
     </row>
-    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="9"/>
       <c r="B831" s="9"/>
       <c r="C831" s="9"/>
@@ -25854,7 +25864,7 @@
       <c r="AA831" s="12"/>
       <c r="AB831" s="12"/>
     </row>
-    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="9"/>
       <c r="B832" s="9"/>
       <c r="C832" s="9"/>
@@ -25884,7 +25894,7 @@
       <c r="AA832" s="12"/>
       <c r="AB832" s="12"/>
     </row>
-    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="9"/>
       <c r="B833" s="9"/>
       <c r="C833" s="9"/>
@@ -25914,7 +25924,7 @@
       <c r="AA833" s="12"/>
       <c r="AB833" s="12"/>
     </row>
-    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="9"/>
       <c r="B834" s="9"/>
       <c r="C834" s="9"/>
@@ -25944,7 +25954,7 @@
       <c r="AA834" s="12"/>
       <c r="AB834" s="12"/>
     </row>
-    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="9"/>
       <c r="B835" s="9"/>
       <c r="C835" s="9"/>
@@ -25974,7 +25984,7 @@
       <c r="AA835" s="12"/>
       <c r="AB835" s="12"/>
     </row>
-    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="9"/>
       <c r="B836" s="9"/>
       <c r="C836" s="9"/>
@@ -26004,7 +26014,7 @@
       <c r="AA836" s="12"/>
       <c r="AB836" s="12"/>
     </row>
-    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="9"/>
       <c r="B837" s="9"/>
       <c r="C837" s="9"/>
@@ -26034,7 +26044,7 @@
       <c r="AA837" s="12"/>
       <c r="AB837" s="12"/>
     </row>
-    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="9"/>
       <c r="B838" s="9"/>
       <c r="C838" s="9"/>
@@ -26064,7 +26074,7 @@
       <c r="AA838" s="12"/>
       <c r="AB838" s="12"/>
     </row>
-    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="9"/>
       <c r="B839" s="9"/>
       <c r="C839" s="9"/>
@@ -26094,7 +26104,7 @@
       <c r="AA839" s="12"/>
       <c r="AB839" s="12"/>
     </row>
-    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="9"/>
       <c r="B840" s="9"/>
       <c r="C840" s="9"/>
@@ -26124,7 +26134,7 @@
       <c r="AA840" s="12"/>
       <c r="AB840" s="12"/>
     </row>
-    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="9"/>
       <c r="B841" s="9"/>
       <c r="C841" s="9"/>
@@ -26154,7 +26164,7 @@
       <c r="AA841" s="12"/>
       <c r="AB841" s="12"/>
     </row>
-    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="9"/>
       <c r="B842" s="9"/>
       <c r="C842" s="9"/>
@@ -26184,7 +26194,7 @@
       <c r="AA842" s="12"/>
       <c r="AB842" s="12"/>
     </row>
-    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="9"/>
       <c r="B843" s="9"/>
       <c r="C843" s="9"/>
@@ -26214,7 +26224,7 @@
       <c r="AA843" s="12"/>
       <c r="AB843" s="12"/>
     </row>
-    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="9"/>
       <c r="B844" s="9"/>
       <c r="C844" s="9"/>
@@ -26244,7 +26254,7 @@
       <c r="AA844" s="12"/>
       <c r="AB844" s="12"/>
     </row>
-    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="9"/>
       <c r="B845" s="9"/>
       <c r="C845" s="9"/>
@@ -26274,7 +26284,7 @@
       <c r="AA845" s="12"/>
       <c r="AB845" s="12"/>
     </row>
-    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="9"/>
       <c r="B846" s="9"/>
       <c r="C846" s="9"/>
@@ -26304,7 +26314,7 @@
       <c r="AA846" s="12"/>
       <c r="AB846" s="12"/>
     </row>
-    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="9"/>
       <c r="B847" s="9"/>
       <c r="C847" s="9"/>
@@ -26334,7 +26344,7 @@
       <c r="AA847" s="12"/>
       <c r="AB847" s="12"/>
     </row>
-    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="9"/>
       <c r="B848" s="9"/>
       <c r="C848" s="9"/>
@@ -26364,7 +26374,7 @@
       <c r="AA848" s="12"/>
       <c r="AB848" s="12"/>
     </row>
-    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="9"/>
       <c r="B849" s="9"/>
       <c r="C849" s="9"/>
@@ -26394,7 +26404,7 @@
       <c r="AA849" s="12"/>
       <c r="AB849" s="12"/>
     </row>
-    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="9"/>
       <c r="B850" s="9"/>
       <c r="C850" s="9"/>
@@ -26424,7 +26434,7 @@
       <c r="AA850" s="12"/>
       <c r="AB850" s="12"/>
     </row>
-    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="9"/>
       <c r="B851" s="9"/>
       <c r="C851" s="9"/>
@@ -26454,7 +26464,7 @@
       <c r="AA851" s="12"/>
       <c r="AB851" s="12"/>
     </row>
-    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="9"/>
       <c r="B852" s="9"/>
       <c r="C852" s="9"/>
@@ -26484,7 +26494,7 @@
       <c r="AA852" s="12"/>
       <c r="AB852" s="12"/>
     </row>
-    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="9"/>
       <c r="B853" s="9"/>
       <c r="C853" s="9"/>
@@ -26514,7 +26524,7 @@
       <c r="AA853" s="12"/>
       <c r="AB853" s="12"/>
     </row>
-    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="9"/>
       <c r="B854" s="9"/>
       <c r="C854" s="9"/>
@@ -26544,7 +26554,7 @@
       <c r="AA854" s="12"/>
       <c r="AB854" s="12"/>
     </row>
-    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="9"/>
       <c r="B855" s="9"/>
       <c r="C855" s="9"/>
@@ -26574,7 +26584,7 @@
       <c r="AA855" s="12"/>
       <c r="AB855" s="12"/>
     </row>
-    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="9"/>
       <c r="B856" s="9"/>
       <c r="C856" s="9"/>
@@ -26604,7 +26614,7 @@
       <c r="AA856" s="12"/>
       <c r="AB856" s="12"/>
     </row>
-    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="9"/>
       <c r="B857" s="9"/>
       <c r="C857" s="9"/>
@@ -26634,7 +26644,7 @@
       <c r="AA857" s="12"/>
       <c r="AB857" s="12"/>
     </row>
-    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="9"/>
       <c r="B858" s="9"/>
       <c r="C858" s="9"/>
@@ -26664,7 +26674,7 @@
       <c r="AA858" s="12"/>
       <c r="AB858" s="12"/>
     </row>
-    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="9"/>
       <c r="B859" s="9"/>
       <c r="C859" s="9"/>
@@ -26694,7 +26704,7 @@
       <c r="AA859" s="12"/>
       <c r="AB859" s="12"/>
     </row>
-    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="9"/>
       <c r="B860" s="9"/>
       <c r="C860" s="9"/>
@@ -26724,7 +26734,7 @@
       <c r="AA860" s="12"/>
       <c r="AB860" s="12"/>
     </row>
-    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="9"/>
       <c r="B861" s="9"/>
       <c r="C861" s="9"/>
@@ -26754,7 +26764,7 @@
       <c r="AA861" s="12"/>
       <c r="AB861" s="12"/>
     </row>
-    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="9"/>
       <c r="B862" s="9"/>
       <c r="C862" s="9"/>
@@ -26784,7 +26794,7 @@
       <c r="AA862" s="12"/>
       <c r="AB862" s="12"/>
     </row>
-    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="9"/>
       <c r="B863" s="9"/>
       <c r="C863" s="9"/>
@@ -26814,7 +26824,7 @@
       <c r="AA863" s="12"/>
       <c r="AB863" s="12"/>
     </row>
-    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="9"/>
       <c r="B864" s="9"/>
       <c r="C864" s="9"/>
@@ -26844,7 +26854,7 @@
       <c r="AA864" s="12"/>
       <c r="AB864" s="12"/>
     </row>
-    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="9"/>
       <c r="B865" s="9"/>
       <c r="C865" s="9"/>
@@ -26874,7 +26884,7 @@
       <c r="AA865" s="12"/>
       <c r="AB865" s="12"/>
     </row>
-    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="9"/>
       <c r="B866" s="9"/>
       <c r="C866" s="9"/>
@@ -26904,7 +26914,7 @@
       <c r="AA866" s="12"/>
       <c r="AB866" s="12"/>
     </row>
-    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="9"/>
       <c r="B867" s="9"/>
       <c r="C867" s="9"/>
@@ -26934,7 +26944,7 @@
       <c r="AA867" s="12"/>
       <c r="AB867" s="12"/>
     </row>
-    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="9"/>
       <c r="B868" s="9"/>
       <c r="C868" s="9"/>
@@ -26964,7 +26974,7 @@
       <c r="AA868" s="12"/>
       <c r="AB868" s="12"/>
     </row>
-    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="9"/>
       <c r="B869" s="9"/>
       <c r="C869" s="9"/>
@@ -26994,7 +27004,7 @@
       <c r="AA869" s="12"/>
       <c r="AB869" s="12"/>
     </row>
-    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="9"/>
       <c r="B870" s="9"/>
       <c r="C870" s="9"/>
@@ -27024,7 +27034,7 @@
       <c r="AA870" s="12"/>
       <c r="AB870" s="12"/>
     </row>
-    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="9"/>
       <c r="B871" s="9"/>
       <c r="C871" s="9"/>
@@ -27054,7 +27064,7 @@
       <c r="AA871" s="12"/>
       <c r="AB871" s="12"/>
     </row>
-    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="9"/>
       <c r="B872" s="9"/>
       <c r="C872" s="9"/>
@@ -27084,7 +27094,7 @@
       <c r="AA872" s="12"/>
       <c r="AB872" s="12"/>
     </row>
-    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="9"/>
       <c r="B873" s="9"/>
       <c r="C873" s="9"/>
@@ -27114,7 +27124,7 @@
       <c r="AA873" s="12"/>
       <c r="AB873" s="12"/>
     </row>
-    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="9"/>
       <c r="B874" s="9"/>
       <c r="C874" s="9"/>
@@ -27144,7 +27154,7 @@
       <c r="AA874" s="12"/>
       <c r="AB874" s="12"/>
     </row>
-    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="9"/>
       <c r="B875" s="9"/>
       <c r="C875" s="9"/>
@@ -27174,7 +27184,7 @@
       <c r="AA875" s="12"/>
       <c r="AB875" s="12"/>
     </row>
-    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="9"/>
       <c r="B876" s="9"/>
       <c r="C876" s="9"/>
@@ -27204,7 +27214,7 @@
       <c r="AA876" s="12"/>
       <c r="AB876" s="12"/>
     </row>
-    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="9"/>
       <c r="B877" s="9"/>
       <c r="C877" s="9"/>
@@ -27234,7 +27244,7 @@
       <c r="AA877" s="12"/>
       <c r="AB877" s="12"/>
     </row>
-    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="9"/>
       <c r="B878" s="9"/>
       <c r="C878" s="9"/>
@@ -27264,7 +27274,7 @@
       <c r="AA878" s="12"/>
       <c r="AB878" s="12"/>
     </row>
-    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="9"/>
       <c r="B879" s="9"/>
       <c r="C879" s="9"/>
@@ -27294,7 +27304,7 @@
       <c r="AA879" s="12"/>
       <c r="AB879" s="12"/>
     </row>
-    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="9"/>
       <c r="B880" s="9"/>
       <c r="C880" s="9"/>
@@ -27324,7 +27334,7 @@
       <c r="AA880" s="12"/>
       <c r="AB880" s="12"/>
     </row>
-    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="9"/>
       <c r="B881" s="9"/>
       <c r="C881" s="9"/>
@@ -27354,7 +27364,7 @@
       <c r="AA881" s="12"/>
       <c r="AB881" s="12"/>
     </row>
-    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="9"/>
       <c r="B882" s="9"/>
       <c r="C882" s="9"/>
@@ -27384,7 +27394,7 @@
       <c r="AA882" s="12"/>
       <c r="AB882" s="12"/>
     </row>
-    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="9"/>
       <c r="B883" s="9"/>
       <c r="C883" s="9"/>
@@ -27414,7 +27424,7 @@
       <c r="AA883" s="12"/>
       <c r="AB883" s="12"/>
     </row>
-    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="9"/>
       <c r="B884" s="9"/>
       <c r="C884" s="9"/>
@@ -27444,7 +27454,7 @@
       <c r="AA884" s="12"/>
       <c r="AB884" s="12"/>
     </row>
-    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="9"/>
       <c r="B885" s="9"/>
       <c r="C885" s="9"/>
@@ -27474,7 +27484,7 @@
       <c r="AA885" s="12"/>
       <c r="AB885" s="12"/>
     </row>
-    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="9"/>
       <c r="B886" s="9"/>
       <c r="C886" s="9"/>
@@ -27504,7 +27514,7 @@
       <c r="AA886" s="12"/>
       <c r="AB886" s="12"/>
     </row>
-    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="9"/>
       <c r="B887" s="9"/>
       <c r="C887" s="9"/>
@@ -27534,7 +27544,7 @@
       <c r="AA887" s="12"/>
       <c r="AB887" s="12"/>
     </row>
-    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="9"/>
       <c r="B888" s="9"/>
       <c r="C888" s="9"/>
@@ -27564,7 +27574,7 @@
       <c r="AA888" s="12"/>
       <c r="AB888" s="12"/>
     </row>
-    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="9"/>
       <c r="B889" s="9"/>
       <c r="C889" s="9"/>
@@ -27594,7 +27604,7 @@
       <c r="AA889" s="12"/>
       <c r="AB889" s="12"/>
     </row>
-    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="9"/>
       <c r="B890" s="9"/>
       <c r="C890" s="9"/>
@@ -27624,7 +27634,7 @@
       <c r="AA890" s="12"/>
       <c r="AB890" s="12"/>
     </row>
-    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="9"/>
       <c r="B891" s="9"/>
       <c r="C891" s="9"/>
@@ -27654,7 +27664,7 @@
       <c r="AA891" s="12"/>
       <c r="AB891" s="12"/>
     </row>
-    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="9"/>
       <c r="B892" s="9"/>
       <c r="C892" s="9"/>
@@ -27684,7 +27694,7 @@
       <c r="AA892" s="12"/>
       <c r="AB892" s="12"/>
     </row>
-    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="9"/>
       <c r="B893" s="9"/>
       <c r="C893" s="9"/>
@@ -27714,7 +27724,7 @@
       <c r="AA893" s="12"/>
       <c r="AB893" s="12"/>
     </row>
-    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="9"/>
       <c r="B894" s="9"/>
       <c r="C894" s="9"/>
@@ -27744,7 +27754,7 @@
       <c r="AA894" s="12"/>
       <c r="AB894" s="12"/>
     </row>
-    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="9"/>
       <c r="B895" s="9"/>
       <c r="C895" s="9"/>
@@ -27774,7 +27784,7 @@
       <c r="AA895" s="12"/>
       <c r="AB895" s="12"/>
     </row>
-    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="9"/>
       <c r="B896" s="9"/>
       <c r="C896" s="9"/>
@@ -27804,7 +27814,7 @@
       <c r="AA896" s="12"/>
       <c r="AB896" s="12"/>
     </row>
-    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="9"/>
       <c r="B897" s="9"/>
       <c r="C897" s="9"/>
@@ -27834,7 +27844,7 @@
       <c r="AA897" s="12"/>
       <c r="AB897" s="12"/>
     </row>
-    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="9"/>
       <c r="B898" s="9"/>
       <c r="C898" s="9"/>
@@ -27864,7 +27874,7 @@
       <c r="AA898" s="12"/>
       <c r="AB898" s="12"/>
     </row>
-    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="9"/>
       <c r="B899" s="9"/>
       <c r="C899" s="9"/>
@@ -27894,7 +27904,7 @@
       <c r="AA899" s="12"/>
       <c r="AB899" s="12"/>
     </row>
-    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="9"/>
       <c r="B900" s="9"/>
       <c r="C900" s="9"/>
@@ -27924,7 +27934,7 @@
       <c r="AA900" s="12"/>
       <c r="AB900" s="12"/>
     </row>
-    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="9"/>
       <c r="B901" s="9"/>
       <c r="C901" s="9"/>
@@ -27954,7 +27964,7 @@
       <c r="AA901" s="12"/>
       <c r="AB901" s="12"/>
     </row>
-    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="9"/>
       <c r="B902" s="9"/>
       <c r="C902" s="9"/>
@@ -27984,7 +27994,7 @@
       <c r="AA902" s="12"/>
       <c r="AB902" s="12"/>
     </row>
-    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="9"/>
       <c r="B903" s="9"/>
       <c r="C903" s="9"/>
@@ -28014,7 +28024,7 @@
       <c r="AA903" s="12"/>
       <c r="AB903" s="12"/>
     </row>
-    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="9"/>
       <c r="B904" s="9"/>
       <c r="C904" s="9"/>
@@ -28044,7 +28054,7 @@
       <c r="AA904" s="12"/>
       <c r="AB904" s="12"/>
     </row>
-    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="9"/>
       <c r="B905" s="9"/>
       <c r="C905" s="9"/>
@@ -28074,7 +28084,7 @@
       <c r="AA905" s="12"/>
       <c r="AB905" s="12"/>
     </row>
-    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="9"/>
       <c r="B906" s="9"/>
       <c r="C906" s="9"/>
@@ -28104,7 +28114,7 @@
       <c r="AA906" s="12"/>
       <c r="AB906" s="12"/>
     </row>
-    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="9"/>
       <c r="B907" s="9"/>
       <c r="C907" s="9"/>
@@ -28134,7 +28144,7 @@
       <c r="AA907" s="12"/>
       <c r="AB907" s="12"/>
     </row>
-    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="9"/>
       <c r="B908" s="9"/>
       <c r="C908" s="9"/>
@@ -28164,7 +28174,7 @@
       <c r="AA908" s="12"/>
       <c r="AB908" s="12"/>
     </row>
-    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="9"/>
       <c r="B909" s="9"/>
       <c r="C909" s="9"/>
@@ -28194,7 +28204,7 @@
       <c r="AA909" s="12"/>
       <c r="AB909" s="12"/>
     </row>
-    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="9"/>
       <c r="B910" s="9"/>
       <c r="C910" s="9"/>
@@ -28224,7 +28234,7 @@
       <c r="AA910" s="12"/>
       <c r="AB910" s="12"/>
     </row>
-    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="9"/>
       <c r="B911" s="9"/>
       <c r="C911" s="9"/>
@@ -28254,7 +28264,7 @@
       <c r="AA911" s="12"/>
       <c r="AB911" s="12"/>
     </row>
-    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="9"/>
       <c r="B912" s="9"/>
       <c r="C912" s="9"/>
@@ -28284,7 +28294,7 @@
       <c r="AA912" s="12"/>
       <c r="AB912" s="12"/>
     </row>
-    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="9"/>
       <c r="B913" s="9"/>
       <c r="C913" s="9"/>
@@ -28314,7 +28324,7 @@
       <c r="AA913" s="12"/>
       <c r="AB913" s="12"/>
     </row>
-    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="9"/>
       <c r="B914" s="9"/>
       <c r="C914" s="9"/>
@@ -28344,7 +28354,7 @@
       <c r="AA914" s="12"/>
       <c r="AB914" s="12"/>
     </row>
-    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="9"/>
       <c r="B915" s="9"/>
       <c r="C915" s="9"/>
@@ -28374,7 +28384,7 @@
       <c r="AA915" s="12"/>
       <c r="AB915" s="12"/>
     </row>
-    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="9"/>
       <c r="B916" s="9"/>
       <c r="C916" s="9"/>
@@ -28404,7 +28414,7 @@
       <c r="AA916" s="12"/>
       <c r="AB916" s="12"/>
     </row>
-    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="9"/>
       <c r="B917" s="9"/>
       <c r="C917" s="9"/>
@@ -28434,7 +28444,7 @@
       <c r="AA917" s="12"/>
       <c r="AB917" s="12"/>
     </row>
-    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="9"/>
       <c r="B918" s="9"/>
       <c r="C918" s="9"/>
@@ -28464,7 +28474,7 @@
       <c r="AA918" s="12"/>
       <c r="AB918" s="12"/>
     </row>
-    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="9"/>
       <c r="B919" s="9"/>
       <c r="C919" s="9"/>
@@ -28494,7 +28504,7 @@
       <c r="AA919" s="12"/>
       <c r="AB919" s="12"/>
     </row>
-    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="9"/>
       <c r="B920" s="9"/>
       <c r="C920" s="9"/>
@@ -28524,7 +28534,7 @@
       <c r="AA920" s="12"/>
       <c r="AB920" s="12"/>
     </row>
-    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="9"/>
       <c r="B921" s="9"/>
       <c r="C921" s="9"/>
@@ -28554,7 +28564,7 @@
       <c r="AA921" s="12"/>
       <c r="AB921" s="12"/>
     </row>
-    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="9"/>
       <c r="B922" s="9"/>
       <c r="C922" s="9"/>
@@ -28584,7 +28594,7 @@
       <c r="AA922" s="12"/>
       <c r="AB922" s="12"/>
     </row>
-    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="9"/>
       <c r="B923" s="9"/>
       <c r="C923" s="9"/>
@@ -28614,7 +28624,7 @@
       <c r="AA923" s="12"/>
       <c r="AB923" s="12"/>
     </row>
-    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="9"/>
       <c r="B924" s="9"/>
       <c r="C924" s="9"/>
@@ -28644,7 +28654,7 @@
       <c r="AA924" s="12"/>
       <c r="AB924" s="12"/>
     </row>
-    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="9"/>
       <c r="B925" s="9"/>
       <c r="C925" s="9"/>
@@ -28674,7 +28684,7 @@
       <c r="AA925" s="12"/>
       <c r="AB925" s="12"/>
     </row>
-    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="9"/>
       <c r="B926" s="9"/>
       <c r="C926" s="9"/>
@@ -28704,7 +28714,7 @@
       <c r="AA926" s="12"/>
       <c r="AB926" s="12"/>
     </row>
-    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="9"/>
       <c r="B927" s="9"/>
       <c r="C927" s="9"/>
@@ -28734,7 +28744,7 @@
       <c r="AA927" s="12"/>
       <c r="AB927" s="12"/>
     </row>
-    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="9"/>
       <c r="B928" s="9"/>
       <c r="C928" s="9"/>
@@ -28764,7 +28774,7 @@
       <c r="AA928" s="12"/>
       <c r="AB928" s="12"/>
     </row>
-    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="9"/>
       <c r="B929" s="9"/>
       <c r="C929" s="9"/>
@@ -28794,7 +28804,7 @@
       <c r="AA929" s="12"/>
       <c r="AB929" s="12"/>
     </row>
-    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="9"/>
       <c r="B930" s="9"/>
       <c r="C930" s="9"/>
@@ -28824,7 +28834,7 @@
       <c r="AA930" s="12"/>
       <c r="AB930" s="12"/>
     </row>
-    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="9"/>
       <c r="B931" s="9"/>
       <c r="C931" s="9"/>
@@ -28854,7 +28864,7 @@
       <c r="AA931" s="12"/>
       <c r="AB931" s="12"/>
     </row>
-    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="9"/>
       <c r="B932" s="9"/>
       <c r="C932" s="9"/>
@@ -28884,7 +28894,7 @@
       <c r="AA932" s="12"/>
       <c r="AB932" s="12"/>
     </row>
-    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="9"/>
       <c r="B933" s="9"/>
       <c r="C933" s="9"/>
@@ -28914,7 +28924,7 @@
       <c r="AA933" s="12"/>
       <c r="AB933" s="12"/>
     </row>
-    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="9"/>
       <c r="B934" s="9"/>
       <c r="C934" s="9"/>
@@ -28944,7 +28954,7 @@
       <c r="AA934" s="12"/>
       <c r="AB934" s="12"/>
     </row>
-    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="9"/>
       <c r="B935" s="9"/>
       <c r="C935" s="9"/>
@@ -28974,7 +28984,7 @@
       <c r="AA935" s="12"/>
       <c r="AB935" s="12"/>
     </row>
-    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="9"/>
       <c r="B936" s="9"/>
       <c r="C936" s="9"/>
@@ -29004,7 +29014,7 @@
       <c r="AA936" s="12"/>
       <c r="AB936" s="12"/>
     </row>
-    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="9"/>
       <c r="B937" s="9"/>
       <c r="C937" s="9"/>
@@ -29034,7 +29044,7 @@
       <c r="AA937" s="12"/>
       <c r="AB937" s="12"/>
     </row>
-    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="9"/>
       <c r="B938" s="9"/>
       <c r="C938" s="9"/>
@@ -29064,7 +29074,7 @@
       <c r="AA938" s="12"/>
       <c r="AB938" s="12"/>
     </row>
-    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="9"/>
       <c r="B939" s="9"/>
       <c r="C939" s="9"/>
@@ -29094,7 +29104,7 @@
       <c r="AA939" s="12"/>
       <c r="AB939" s="12"/>
     </row>
-    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="9"/>
       <c r="B940" s="9"/>
       <c r="C940" s="9"/>
@@ -29124,7 +29134,7 @@
       <c r="AA940" s="12"/>
       <c r="AB940" s="12"/>
     </row>
-    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="9"/>
       <c r="B941" s="9"/>
       <c r="C941" s="9"/>
@@ -29154,7 +29164,7 @@
       <c r="AA941" s="12"/>
       <c r="AB941" s="12"/>
     </row>
-    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="9"/>
       <c r="B942" s="9"/>
       <c r="C942" s="9"/>
@@ -29184,7 +29194,7 @@
       <c r="AA942" s="12"/>
       <c r="AB942" s="12"/>
     </row>
-    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="9"/>
       <c r="B943" s="9"/>
       <c r="C943" s="9"/>
@@ -29214,7 +29224,7 @@
       <c r="AA943" s="12"/>
       <c r="AB943" s="12"/>
     </row>
-    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="9"/>
       <c r="B944" s="9"/>
       <c r="C944" s="9"/>
@@ -29244,7 +29254,7 @@
       <c r="AA944" s="12"/>
       <c r="AB944" s="12"/>
     </row>
-    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="9"/>
       <c r="B945" s="9"/>
       <c r="C945" s="9"/>
@@ -29274,7 +29284,7 @@
       <c r="AA945" s="12"/>
       <c r="AB945" s="12"/>
     </row>
-    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="9"/>
       <c r="B946" s="9"/>
       <c r="C946" s="9"/>
@@ -29304,7 +29314,7 @@
       <c r="AA946" s="12"/>
       <c r="AB946" s="12"/>
     </row>
-    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="9"/>
       <c r="B947" s="9"/>
       <c r="C947" s="9"/>
@@ -29334,7 +29344,7 @@
       <c r="AA947" s="12"/>
       <c r="AB947" s="12"/>
     </row>
-    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="9"/>
       <c r="B948" s="9"/>
       <c r="C948" s="9"/>
@@ -29364,7 +29374,7 @@
       <c r="AA948" s="12"/>
       <c r="AB948" s="12"/>
     </row>
-    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="9"/>
       <c r="B949" s="9"/>
       <c r="C949" s="9"/>
@@ -29394,7 +29404,7 @@
       <c r="AA949" s="12"/>
       <c r="AB949" s="12"/>
     </row>
-    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="9"/>
       <c r="B950" s="9"/>
       <c r="C950" s="9"/>
@@ -29424,7 +29434,7 @@
       <c r="AA950" s="12"/>
       <c r="AB950" s="12"/>
     </row>
-    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="9"/>
       <c r="B951" s="9"/>
       <c r="C951" s="9"/>
@@ -29454,7 +29464,7 @@
       <c r="AA951" s="12"/>
       <c r="AB951" s="12"/>
     </row>
-    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="9"/>
       <c r="B952" s="9"/>
       <c r="C952" s="9"/>
@@ -29484,7 +29494,7 @@
       <c r="AA952" s="12"/>
       <c r="AB952" s="12"/>
     </row>
-    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="9"/>
       <c r="B953" s="9"/>
       <c r="C953" s="9"/>
@@ -29514,7 +29524,7 @@
       <c r="AA953" s="12"/>
       <c r="AB953" s="12"/>
     </row>
-    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="9"/>
       <c r="B954" s="9"/>
       <c r="C954" s="9"/>
@@ -29544,7 +29554,7 @@
       <c r="AA954" s="12"/>
       <c r="AB954" s="12"/>
     </row>
-    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="9"/>
       <c r="B955" s="9"/>
       <c r="C955" s="9"/>
@@ -29574,7 +29584,7 @@
       <c r="AA955" s="12"/>
       <c r="AB955" s="12"/>
     </row>
-    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="9"/>
       <c r="B956" s="9"/>
       <c r="C956" s="9"/>
@@ -29604,7 +29614,7 @@
       <c r="AA956" s="12"/>
       <c r="AB956" s="12"/>
     </row>
-    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="9"/>
       <c r="B957" s="9"/>
       <c r="C957" s="9"/>
@@ -29634,7 +29644,7 @@
       <c r="AA957" s="12"/>
       <c r="AB957" s="12"/>
     </row>
-    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="9"/>
       <c r="B958" s="9"/>
       <c r="C958" s="9"/>
@@ -29664,7 +29674,7 @@
       <c r="AA958" s="12"/>
       <c r="AB958" s="12"/>
     </row>
-    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="9"/>
       <c r="B959" s="9"/>
       <c r="C959" s="9"/>
@@ -29694,7 +29704,7 @@
       <c r="AA959" s="12"/>
       <c r="AB959" s="12"/>
     </row>
-    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="9"/>
       <c r="B960" s="9"/>
       <c r="C960" s="9"/>
@@ -29724,7 +29734,7 @@
       <c r="AA960" s="12"/>
       <c r="AB960" s="12"/>
     </row>
-    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="9"/>
       <c r="B961" s="9"/>
       <c r="C961" s="9"/>
@@ -29754,7 +29764,7 @@
       <c r="AA961" s="12"/>
       <c r="AB961" s="12"/>
     </row>
-    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="9"/>
       <c r="B962" s="9"/>
       <c r="C962" s="9"/>
@@ -29784,7 +29794,7 @@
       <c r="AA962" s="12"/>
       <c r="AB962" s="12"/>
     </row>
-    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="9"/>
       <c r="B963" s="9"/>
       <c r="C963" s="9"/>
@@ -29814,7 +29824,7 @@
       <c r="AA963" s="12"/>
       <c r="AB963" s="12"/>
     </row>
-    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="9"/>
       <c r="B964" s="9"/>
       <c r="C964" s="9"/>
@@ -29844,7 +29854,7 @@
       <c r="AA964" s="12"/>
       <c r="AB964" s="12"/>
     </row>
-    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="9"/>
       <c r="B965" s="9"/>
       <c r="C965" s="9"/>
@@ -29874,7 +29884,7 @@
       <c r="AA965" s="12"/>
       <c r="AB965" s="12"/>
     </row>
-    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="9"/>
       <c r="B966" s="9"/>
       <c r="C966" s="9"/>
@@ -29904,7 +29914,7 @@
       <c r="AA966" s="12"/>
       <c r="AB966" s="12"/>
     </row>
-    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="9"/>
       <c r="B967" s="9"/>
       <c r="C967" s="9"/>
@@ -29934,7 +29944,7 @@
       <c r="AA967" s="12"/>
       <c r="AB967" s="12"/>
     </row>
-    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="9"/>
       <c r="B968" s="9"/>
       <c r="C968" s="9"/>
@@ -29964,7 +29974,7 @@
       <c r="AA968" s="12"/>
       <c r="AB968" s="12"/>
     </row>
-    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="9"/>
       <c r="B969" s="9"/>
       <c r="C969" s="9"/>
@@ -29994,7 +30004,7 @@
       <c r="AA969" s="12"/>
       <c r="AB969" s="12"/>
     </row>
-    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="9"/>
       <c r="B970" s="9"/>
       <c r="C970" s="9"/>
@@ -30024,7 +30034,7 @@
       <c r="AA970" s="12"/>
       <c r="AB970" s="12"/>
     </row>
-    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="9"/>
       <c r="B971" s="9"/>
       <c r="C971" s="9"/>
@@ -30054,7 +30064,7 @@
       <c r="AA971" s="12"/>
       <c r="AB971" s="12"/>
     </row>
-    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="9"/>
       <c r="B972" s="9"/>
       <c r="C972" s="9"/>
@@ -30084,7 +30094,7 @@
       <c r="AA972" s="12"/>
       <c r="AB972" s="12"/>
     </row>
-    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="9"/>
       <c r="B973" s="9"/>
       <c r="C973" s="9"/>
@@ -30114,7 +30124,7 @@
       <c r="AA973" s="12"/>
       <c r="AB973" s="12"/>
     </row>
-    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="9"/>
       <c r="B974" s="9"/>
       <c r="C974" s="9"/>
@@ -30144,7 +30154,7 @@
       <c r="AA974" s="12"/>
       <c r="AB974" s="12"/>
     </row>
-    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="9"/>
       <c r="B975" s="9"/>
       <c r="C975" s="9"/>
@@ -30174,7 +30184,7 @@
       <c r="AA975" s="12"/>
       <c r="AB975" s="12"/>
     </row>
-    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="9"/>
       <c r="B976" s="9"/>
       <c r="C976" s="9"/>
@@ -30204,7 +30214,7 @@
       <c r="AA976" s="12"/>
       <c r="AB976" s="12"/>
     </row>
-    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="9"/>
       <c r="B977" s="9"/>
       <c r="C977" s="9"/>
@@ -30234,7 +30244,7 @@
       <c r="AA977" s="12"/>
       <c r="AB977" s="12"/>
     </row>
-    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="9"/>
       <c r="B978" s="9"/>
       <c r="C978" s="9"/>
@@ -30264,7 +30274,7 @@
       <c r="AA978" s="12"/>
       <c r="AB978" s="12"/>
     </row>
-    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="9"/>
       <c r="B979" s="9"/>
       <c r="C979" s="9"/>
@@ -30294,7 +30304,7 @@
       <c r="AA979" s="12"/>
       <c r="AB979" s="12"/>
     </row>
-    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="9"/>
       <c r="B980" s="9"/>
       <c r="C980" s="9"/>
@@ -30324,7 +30334,7 @@
       <c r="AA980" s="12"/>
       <c r="AB980" s="12"/>
     </row>
-    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="9"/>
       <c r="B981" s="9"/>
       <c r="C981" s="9"/>
@@ -30354,7 +30364,7 @@
       <c r="AA981" s="12"/>
       <c r="AB981" s="12"/>
     </row>
-    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="9"/>
       <c r="B982" s="9"/>
       <c r="C982" s="9"/>
@@ -30384,7 +30394,7 @@
       <c r="AA982" s="12"/>
       <c r="AB982" s="12"/>
     </row>
-    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="9"/>
       <c r="B983" s="9"/>
       <c r="C983" s="9"/>
@@ -30414,7 +30424,7 @@
       <c r="AA983" s="12"/>
       <c r="AB983" s="12"/>
     </row>
-    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="9"/>
       <c r="B984" s="9"/>
       <c r="C984" s="9"/>
@@ -30444,7 +30454,7 @@
       <c r="AA984" s="12"/>
       <c r="AB984" s="12"/>
     </row>
-    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="9"/>
       <c r="B985" s="9"/>
       <c r="C985" s="9"/>
@@ -30474,7 +30484,7 @@
       <c r="AA985" s="12"/>
       <c r="AB985" s="12"/>
     </row>
-    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="9"/>
       <c r="B986" s="9"/>
       <c r="C986" s="9"/>
@@ -30504,7 +30514,7 @@
       <c r="AA986" s="12"/>
       <c r="AB986" s="12"/>
     </row>
-    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="9"/>
       <c r="B987" s="9"/>
       <c r="C987" s="9"/>
@@ -30534,7 +30544,7 @@
       <c r="AA987" s="12"/>
       <c r="AB987" s="12"/>
     </row>
-    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="9"/>
       <c r="B988" s="9"/>
       <c r="C988" s="9"/>
@@ -30564,7 +30574,7 @@
       <c r="AA988" s="12"/>
       <c r="AB988" s="12"/>
     </row>
-    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="9"/>
       <c r="B989" s="9"/>
       <c r="C989" s="9"/>
@@ -30594,7 +30604,7 @@
       <c r="AA989" s="12"/>
       <c r="AB989" s="12"/>
     </row>
-    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="9"/>
       <c r="B990" s="9"/>
       <c r="C990" s="9"/>
@@ -30624,7 +30634,7 @@
       <c r="AA990" s="12"/>
       <c r="AB990" s="12"/>
     </row>
-    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="9"/>
       <c r="B991" s="9"/>
       <c r="C991" s="9"/>
@@ -30654,7 +30664,7 @@
       <c r="AA991" s="12"/>
       <c r="AB991" s="12"/>
     </row>
-    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="9"/>
       <c r="B992" s="9"/>
       <c r="C992" s="9"/>
@@ -30684,7 +30694,7 @@
       <c r="AA992" s="12"/>
       <c r="AB992" s="12"/>
     </row>
-    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="9"/>
       <c r="B993" s="9"/>
       <c r="C993" s="9"/>
@@ -30714,7 +30724,7 @@
       <c r="AA993" s="12"/>
       <c r="AB993" s="12"/>
     </row>
-    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="9"/>
       <c r="B994" s="9"/>
       <c r="C994" s="9"/>
@@ -30744,7 +30754,7 @@
       <c r="AA994" s="12"/>
       <c r="AB994" s="12"/>
     </row>
-    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="9"/>
       <c r="B995" s="9"/>
       <c r="C995" s="9"/>
@@ -30774,7 +30784,7 @@
       <c r="AA995" s="12"/>
       <c r="AB995" s="12"/>
     </row>
-    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="9"/>
       <c r="B996" s="9"/>
       <c r="C996" s="9"/>
@@ -30804,7 +30814,7 @@
       <c r="AA996" s="12"/>
       <c r="AB996" s="12"/>
     </row>
-    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="9"/>
       <c r="B997" s="9"/>
       <c r="C997" s="9"/>
@@ -30834,7 +30844,7 @@
       <c r="AA997" s="12"/>
       <c r="AB997" s="12"/>
     </row>
-    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="9"/>
       <c r="B998" s="9"/>
       <c r="C998" s="9"/>
@@ -30864,7 +30874,7 @@
       <c r="AA998" s="12"/>
       <c r="AB998" s="12"/>
     </row>
-    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="9"/>
       <c r="B999" s="9"/>
       <c r="C999" s="9"/>
@@ -30894,7 +30904,7 @@
       <c r="AA999" s="12"/>
       <c r="AB999" s="12"/>
     </row>
-    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="9"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
@@ -30924,7 +30934,7 @@
       <c r="AA1000" s="12"/>
       <c r="AB1000" s="12"/>
     </row>
-    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1001" s="9"/>
       <c r="B1001" s="9"/>
       <c r="C1001" s="9"/>
@@ -30954,7 +30964,7 @@
       <c r="AA1001" s="12"/>
       <c r="AB1001" s="12"/>
     </row>
-    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1002" s="9"/>
       <c r="B1002" s="9"/>
       <c r="C1002" s="9"/>
@@ -30984,7 +30994,7 @@
       <c r="AA1002" s="12"/>
       <c r="AB1002" s="12"/>
     </row>
-    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1003" s="9"/>
       <c r="B1003" s="9"/>
       <c r="C1003" s="9"/>
@@ -31014,7 +31024,7 @@
       <c r="AA1003" s="12"/>
       <c r="AB1003" s="12"/>
     </row>
-    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1004" s="9"/>
       <c r="B1004" s="9"/>
       <c r="C1004" s="9"/>
@@ -31044,7 +31054,7 @@
       <c r="AA1004" s="12"/>
       <c r="AB1004" s="12"/>
     </row>
-    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1005" s="9"/>
       <c r="B1005" s="9"/>
       <c r="C1005" s="9"/>
@@ -31074,7 +31084,7 @@
       <c r="AA1005" s="12"/>
       <c r="AB1005" s="12"/>
     </row>
-    <row r="1006" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1006" s="9"/>
       <c r="B1006" s="9"/>
       <c r="C1006" s="9"/>
@@ -31119,20 +31129,20 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.33203125" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>15</v>
       </c>
@@ -31142,7 +31152,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -31162,7 +31172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="108.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16"/>
       <c r="B3" s="9"/>
       <c r="C3" s="6"/>
@@ -31170,14 +31180,14 @@
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="74.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="27"/>
       <c r="C4" s="17"/>
       <c r="E4" s="28"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="9"/>
       <c r="C5" s="6"/>
@@ -31185,17 +31195,17 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
     </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="E7" s="28"/>
       <c r="F7" s="29"/>
     </row>
-    <row r="10" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="18"/>
@@ -31203,7 +31213,7 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
@@ -31211,7 +31221,7 @@
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:6" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="61.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
@@ -31219,7 +31229,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="54.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
@@ -31227,7 +31237,7 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -31235,7 +31245,7 @@
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -31243,7 +31253,7 @@
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -31251,7 +31261,7 @@
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -31259,7 +31269,7 @@
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
     </row>
   </sheetData>
@@ -31280,16 +31290,16 @@
       <selection activeCell="F5" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.109375" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>16</v>
       </c>
@@ -31299,7 +31309,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -31319,20 +31329,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="13"/>
       <c r="D3" s="12"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="5"/>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
     </row>
-    <row r="5" spans="1:6" ht="58.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="58.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="16"/>
       <c r="B5" s="5"/>
       <c r="C5" s="9"/>
@@ -31340,29 +31350,29 @@
       <c r="E5" s="26"/>
       <c r="F5" s="26"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" s="6"/>
       <c r="C6" s="17"/>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" s="6"/>
       <c r="C7" s="17"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -31383,17 +31393,17 @@
       <selection activeCell="F6" sqref="A3:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5546875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="3" width="6.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
-    <col min="6" max="6" width="43.5546875" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>10</v>
       </c>
@@ -31403,7 +31413,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
@@ -31423,7 +31433,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="27"/>
       <c r="C3" s="30"/>
@@ -31431,7 +31441,7 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="83.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="28"/>
       <c r="C4" s="30"/>
@@ -31439,7 +31449,7 @@
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="32"/>
       <c r="B5" s="9"/>
       <c r="C5" s="30"/>
@@ -31447,7 +31457,7 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="28"/>
       <c r="C6" s="30"/>
@@ -31455,10 +31465,10 @@
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
     </row>
-    <row r="8" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/Docs/Product Backlog.xlsx
+++ b/Docs/Product Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Informatica 1e jaar\Project 4\Scrum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melle\OneDrive\Documenten\GitHub\robotron-2048\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Robots are able to chase the player</t>
   </si>
   <si>
-    <t>If a robot collides with a human, the human becomes a robot</t>
-  </si>
-  <si>
     <t>The game keeps track of your score</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
   </si>
   <si>
     <t>If you shoot a robot the robot dies</t>
-  </si>
-  <si>
-    <t>Human</t>
   </si>
   <si>
     <t>The game keeps track of your stage</t>
@@ -162,16 +156,10 @@
     <t>As a user I want to receive a life when I reach a certain amount of points, so that I have small goals in the stages themselves to work towards</t>
   </si>
   <si>
-    <t>As a user I want humans to turn into robots when a robot touches them, so that there is a sense of urgency to safe them</t>
-  </si>
-  <si>
     <t>As a user I want to be able to see the stage that I am in, so that I am aware of how far I have advanced in the game</t>
   </si>
   <si>
     <t>As a user I want to have sound effects in the game, so that the game is engaging and I can identify events in the game with sounds</t>
-  </si>
-  <si>
-    <t>As a user I want my character to be able to shoot diagonally, so that I am amble to shoot robots in multiple ways</t>
   </si>
   <si>
     <t>As a user I want to have a main menu, so that I can clearly see which game I am playing and wether I want to start the game or exit the game</t>
@@ -247,6 +235,42 @@
   </si>
   <si>
     <t xml:space="preserve">- Application must be able to run on android device or emulator                                                 </t>
+  </si>
+  <si>
+    <t>As a user I want my character to be able to shoot diagonally, so that I am able to shoot robots in multiple ways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Select point total to receive a life             - Select a sprite to display the lifes          - Life has to be added when point total is reached     </t>
+  </si>
+  <si>
+    <t>- Select sound effects                                 - Implement sound effects                         - Have the sound effects happen when the event happens</t>
+  </si>
+  <si>
+    <t>- Use the same projectiles                                                       - Be able to shoot diagonally in between X and Y axis                                          - Projectiles are fried on interval going in the direction the player is facing/moving towards</t>
+  </si>
+  <si>
+    <t>- The life sprite has to reflect the character sprite       - The location of the lifes must be in the upper right corner                                                                        - The life has to be added when you reach the point amount or if you go over it</t>
+  </si>
+  <si>
+    <t>- Select font                                                                                        - Select space to put text                         - Create different stages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Stage has to increment when you advance              - The different stages have to increase in difficulty ( more robots / mines etc.)    </t>
+  </si>
+  <si>
+    <t>- The sounds have to be distinguishable from each other                                                                        - The sounds have to be of a quality so that you can recognize what the sound is</t>
+  </si>
+  <si>
+    <t>- The projectile has to move in a diagonal line                                                                 - The projectile has to be rendered on the screen</t>
+  </si>
+  <si>
+    <t>- Deploy application to android device or emulator                                               - Test features on android device or emulator                                               - Fix potential issues on android device or emulator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Create start game button                                                    - Create exit game button                                         - Select font for the text                           </t>
+  </si>
+  <si>
+    <t>- The font has to reflect the rest of the game               - The start button has to start the game at stage 1          - The exit button has to exit the game</t>
   </si>
 </sst>
 </file>
@@ -848,7 +872,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -946,13 +970,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -986,13 +1010,13 @@
         <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1023,16 +1047,16 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1065,14 +1089,14 @@
         <v>24</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="17"/>
       <c r="F6" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
@@ -1102,17 +1126,17 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="17"/>
       <c r="F7" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
@@ -1145,14 +1169,14 @@
         <v>20</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="17"/>
       <c r="F8" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
@@ -1185,14 +1209,14 @@
         <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
@@ -1222,16 +1246,16 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -1264,14 +1288,14 @@
         <v>22</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -1303,15 +1327,15 @@
         <v>23</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -1340,18 +1364,17 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>31</v>
+      <c r="C13" t="s">
+        <v>28</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>34</v>
+      <c r="D13" t="s">
+        <v>32</v>
       </c>
-      <c r="E13" s="8"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -1376,21 +1399,20 @@
       <c r="AB13" s="12"/>
     </row>
     <row r="14" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="A14" s="20">
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12" t="s">
-        <v>50</v>
+      <c r="G14" t="s">
+        <v>46</v>
       </c>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
@@ -1415,20 +1437,22 @@
       <c r="AB14" s="12"/>
     </row>
     <row r="15" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="19">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
-      <c r="C15" t="s">
-        <v>29</v>
+      <c r="C15" s="17" t="s">
+        <v>26</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G15" t="s">
-        <v>50</v>
+      <c r="E15" s="8"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
@@ -1457,18 +1481,18 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>27</v>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" s="8"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -1497,18 +1521,18 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
-      <c r="C17" t="s">
-        <v>29</v>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
       </c>
-      <c r="D17" t="s">
-        <v>8</v>
+      <c r="D17" s="9" t="s">
+        <v>7</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="12"/>
@@ -1533,22 +1557,8 @@
       <c r="AB17" s="12"/>
     </row>
     <row r="18" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="20">
         <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12" t="s">
-        <v>50</v>
       </c>
       <c r="H18" s="12"/>
       <c r="I18" s="12"/>
@@ -31205,7 +31215,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31253,7 +31263,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>
@@ -31262,10 +31272,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -31273,7 +31283,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>7</v>
@@ -31282,10 +31292,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.25">
@@ -31293,7 +31303,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
@@ -31302,10 +31312,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -31390,8 +31400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31435,7 +31445,7 @@
     </row>
     <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>7</v>
@@ -31444,16 +31454,16 @@
         <v>15</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="66" x14ac:dyDescent="0.25">
       <c r="A4" s="16"/>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -31462,16 +31472,16 @@
         <v>5</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105.6" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
@@ -31480,15 +31490,15 @@
         <v>5</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>7</v>
@@ -31497,15 +31507,15 @@
         <v>5</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>7</v>
@@ -31514,15 +31524,15 @@
         <v>5</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -31531,10 +31541,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -31558,10 +31568,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -31605,58 +31615,123 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="17">
+        <v>9</v>
+      </c>
       <c r="B3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="17">
+        <v>5</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>10</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="31">
+        <v>7</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="32">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6" ht="83.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="33" t="s">
+      <c r="C5" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="17">
+        <v>5</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>12</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-    </row>
-    <row r="5" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="9" t="s">
-        <v>46</v>
+      <c r="C7" s="20" t="s">
+        <v>8</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-    </row>
-    <row r="6" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="9" t="s">
-        <v>47</v>
+      <c r="D7">
+        <v>7</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>48</v>
+      <c r="E7" s="29" t="s">
+        <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>49</v>
+      <c r="F7" s="29" t="s">
+        <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="27" t="s">
-        <v>57</v>
+    <row r="8" spans="1:6" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
